--- a/api/1/clv2/xlsx/en/HumanitarianPlan.xlsx
+++ b/api/1/clv2/xlsx/en/HumanitarianPlan.xlsx
@@ -25,15 +25,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:plan-start-date</t>
+  </si>
+  <si>
+    <t>codeforiati:plan-year</t>
+  </si>
+  <si>
     <t>codeforiati:plan-end-date</t>
   </si>
   <si>
-    <t>codeforiati:plan-start-date</t>
-  </si>
-  <si>
-    <t>codeforiati:plan-year</t>
-  </si>
-  <si>
     <t>codeforiati:plan-type</t>
   </si>
   <si>
@@ -46,15 +46,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>2025-12-31</t>
   </si>
   <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>Humanitarian needs and response plan</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>Afghanistan Humanitarian Needs and Response Plan 2024</t>
   </si>
   <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>2024-12-31</t>
   </si>
   <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>RAFG_RRP24</t>
   </si>
   <si>
@@ -703,15 +703,15 @@
     <t>Afghanistan Humanitarian Response Plan 2023</t>
   </si>
   <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2023-12-31</t>
   </si>
   <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>RAFG23</t>
   </si>
   <si>
@@ -832,24 +832,24 @@
     <t>Mongolia Dzud Early Action and Response Plan 2023</t>
   </si>
   <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
     <t>2023-05-31</t>
   </si>
   <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
     <t>OMOZ23</t>
   </si>
   <si>
     <t>Mozambique Cyclone Freddy, Floods and Cholera Response Plan 2023</t>
   </si>
   <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
     <t>2023-09-30</t>
   </si>
   <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
     <t>HMOZ23</t>
   </si>
   <si>
@@ -937,12 +937,12 @@
     <t>Sudan Emergency: Regional Refugee Response Plan 2023</t>
   </si>
   <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
     <t>HSDN23</t>
   </si>
   <si>
@@ -1021,15 +1021,15 @@
     <t>Afghanistan Humanitarian Response Plan 2022</t>
   </si>
   <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>2022-12-31</t>
   </si>
   <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>RAFG22</t>
   </si>
   <si>
@@ -1072,12 +1072,12 @@
     <t>Cuba Hurricane Ian Response - Plan of Action 2022</t>
   </si>
   <si>
+    <t>2022-10-20</t>
+  </si>
+  <si>
     <t>2023-03-31</t>
   </si>
   <si>
-    <t>2022-10-20</t>
-  </si>
-  <si>
     <t>RDRCRRP22</t>
   </si>
   <si>
@@ -1108,12 +1108,12 @@
     <t>Haïti Choléra+ Appel Éclair 2022</t>
   </si>
   <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
     <t>2023-04-15</t>
   </si>
   <si>
-    <t>2022-10-16</t>
-  </si>
-  <si>
     <t>FHTI22</t>
   </si>
   <si>
@@ -1171,12 +1171,12 @@
     <t>Malawi Flash Appeal 2022</t>
   </si>
   <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
     <t>2022-05-31</t>
   </si>
   <si>
-    <t>2022-02-26</t>
-  </si>
-  <si>
     <t>HMLI22</t>
   </si>
   <si>
@@ -1189,12 +1189,12 @@
     <t>Mozambique Gombe Emergency Response Plan 2022</t>
   </si>
   <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
     <t>2022-09-30</t>
   </si>
   <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
     <t>HMOZ22</t>
   </si>
   <si>
@@ -1246,12 +1246,12 @@
     <t>Philippines Super Typhoon Rai (Odette) Humanitarian Needs and Priorities 2022</t>
   </si>
   <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
     <t>2022-06-30</t>
   </si>
   <si>
-    <t>2021-12-24</t>
-  </si>
-  <si>
     <t>RREG22</t>
   </si>
   <si>
@@ -1369,15 +1369,15 @@
     <t>Afghanistan Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>2021-09-01</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>HAFG21</t>
   </si>
   <si>
@@ -1468,12 +1468,12 @@
     <t>Escalation of Hostilities in the OPT Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
     <t>2021-08-27</t>
   </si>
   <si>
-    <t>2021-05-27</t>
-  </si>
-  <si>
     <t>HETH21</t>
   </si>
   <si>
@@ -1498,12 +1498,12 @@
     <t>Haiti Earthquake Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
     <t>2022-02-15</t>
   </si>
   <si>
-    <t>2021-08-16</t>
-  </si>
-  <si>
     <t>HHTI21</t>
   </si>
   <si>
@@ -1516,12 +1516,12 @@
     <t>Honduras Tropical Storm Eta Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
     <t>2021-06-30</t>
   </si>
   <si>
-    <t>2020-11-15</t>
-  </si>
-  <si>
     <t>HHND21</t>
   </si>
   <si>
@@ -1555,12 +1555,12 @@
     <t>Lebanon Emergency Response Plan 2021</t>
   </si>
   <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
     <t>2022-07-31</t>
   </si>
   <si>
-    <t>2021-08-03</t>
-  </si>
-  <si>
     <t>HLBY21</t>
   </si>
   <si>
@@ -1726,15 +1726,15 @@
     <t>Afghanistan Humanitarian Response Plan 2020</t>
   </si>
   <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
   </si>
   <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>OBGD20</t>
   </si>
   <si>
@@ -1849,12 +1849,12 @@
     <t>Djibouti Flash Appeal 2020</t>
   </si>
   <si>
+    <t>2019-12-17</t>
+  </si>
+  <si>
     <t>2020-03-31</t>
   </si>
   <si>
-    <t>2019-12-17</t>
-  </si>
-  <si>
     <t>ODJI20</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>Lebanon Flash Appeal 2020</t>
   </si>
   <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
     <t>2020-11-13</t>
   </si>
   <si>
-    <t>2020-08-05</t>
-  </si>
-  <si>
     <t>OLBN20</t>
   </si>
   <si>
@@ -1966,12 +1966,12 @@
     <t>Lesotho Flash Appeal 2019-2020</t>
   </si>
   <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
     <t>2020-04-30</t>
   </si>
   <si>
-    <t>2019-11-01</t>
-  </si>
-  <si>
     <t>OLBR20</t>
   </si>
   <si>
@@ -2161,15 +2161,15 @@
     <t>Afghanistan Humanitarian Response Plan 2019</t>
   </si>
   <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>RBGD19</t>
   </si>
   <si>
@@ -2377,12 +2377,12 @@
     <t>Zimbabwe Flash Appeal 2019</t>
   </si>
   <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
     <t>2020-04-29</t>
   </si>
   <si>
-    <t>2019-02-01</t>
-  </si>
-  <si>
     <t>FZWE1820</t>
   </si>
   <si>
@@ -2398,15 +2398,15 @@
     <t>Afghanistan Humanitarian Response Plan 2018</t>
   </si>
   <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>2018-12-31</t>
   </si>
   <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>OBGD18</t>
   </si>
   <si>
@@ -2581,12 +2581,12 @@
     <t>Syrian Arab Republic Humanitarian Response Plan 2018</t>
   </si>
   <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
     <t>2018-12-30</t>
   </si>
   <si>
-    <t>2018-11-30</t>
-  </si>
-  <si>
     <t>RSYR18</t>
   </si>
   <si>
@@ -2623,15 +2623,15 @@
     <t>2017 Europe Situation - Regional Refugee and Migrant Response</t>
   </si>
   <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2017-12-31</t>
   </si>
   <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>HAFG17</t>
   </si>
   <si>
@@ -2707,12 +2707,12 @@
     <t>Dominica Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-09-28</t>
+  </si>
+  <si>
     <t>2017-12-29</t>
   </si>
   <si>
-    <t>2017-09-28</t>
-  </si>
-  <si>
     <t>OPRK17</t>
   </si>
   <si>
@@ -2752,12 +2752,12 @@
     <t>Kenya Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-02-10</t>
+  </si>
+  <si>
     <t>2017-11-30</t>
   </si>
   <si>
-    <t>2017-02-10</t>
-  </si>
-  <si>
     <t>HLBY17</t>
   </si>
   <si>
@@ -2770,12 +2770,12 @@
     <t>Madagascar Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
     <t>2017-06-20</t>
   </si>
   <si>
-    <t>2017-03-20</t>
-  </si>
-  <si>
     <t>HMLI17</t>
   </si>
   <si>
@@ -2794,12 +2794,12 @@
     <t>Mozambique Cyclone Dineo Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
     <t>2017-05-31</t>
   </si>
   <si>
-    <t>2017-02-28</t>
-  </si>
-  <si>
     <t>HMMR17</t>
   </si>
   <si>
@@ -2836,12 +2836,12 @@
     <t>Peru Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-04-01</t>
+  </si>
+  <si>
     <t>2017-10-31</t>
   </si>
   <si>
-    <t>2017-04-01</t>
-  </si>
-  <si>
     <t>HCOG17</t>
   </si>
   <si>
@@ -2911,15 +2911,15 @@
     <t>2016 Europe Situation -Regional Refugee and Migrant Response</t>
   </si>
   <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2016-12-31</t>
   </si>
   <si>
-    <t>2016-01-01</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>HAFG16</t>
   </si>
   <si>
@@ -2992,24 +2992,24 @@
     <t>Ecuador Earthquake Flash Appeal 2016</t>
   </si>
   <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
     <t>2016-10-31</t>
   </si>
   <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
     <t>FFJI16</t>
   </si>
   <si>
     <t>Fiji Tropical Cyclone Flash Appeal 2016</t>
   </si>
   <si>
+    <t>2016-02-20</t>
+  </si>
+  <si>
     <t>2016-05-30</t>
   </si>
   <si>
-    <t>2016-02-20</t>
-  </si>
-  <si>
     <t>HGMB16</t>
   </si>
   <si>
@@ -3085,12 +3085,12 @@
     <t>Mosul Flash Appeal 2016</t>
   </si>
   <si>
+    <t>2016-07-20</t>
+  </si>
+  <si>
     <t>2016-10-01</t>
   </si>
   <si>
-    <t>2016-07-20</t>
-  </si>
-  <si>
     <t>HMMR16</t>
   </si>
   <si>
@@ -3175,27 +3175,27 @@
     <t>Zimbabwe Humanitarian Response Plan 2016</t>
   </si>
   <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
     <t>2017-03-31</t>
   </si>
   <si>
-    <t>2016-04-01</t>
-  </si>
-  <si>
     <t>HAFG15</t>
   </si>
   <si>
     <t>Afghanistan Strategic Response Plan 2015</t>
   </si>
   <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2015-12-31</t>
   </si>
   <si>
-    <t>2015-01-01</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>Strategic response plan</t>
   </si>
   <si>
@@ -3253,12 +3253,12 @@
     <t>Guatemala Plan de Respuesta Sequia 2015</t>
   </si>
   <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
     <t>2015-09-30</t>
   </si>
   <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
     <t>FHTI15</t>
   </si>
   <si>
@@ -3283,12 +3283,12 @@
     <t>Vanuatu Emergency Response Plan for Tropical Cyclone PAM 2015</t>
   </si>
   <si>
+    <t>2015-03-24</t>
+  </si>
+  <si>
     <t>2015-10-31</t>
   </si>
   <si>
-    <t>2015-03-24</t>
-  </si>
-  <si>
     <t>HIRQ15</t>
   </si>
   <si>
@@ -3301,12 +3301,12 @@
     <t>Libya Humanitarian Appeal 2014- 2015</t>
   </si>
   <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
     <t>2015-05-31</t>
   </si>
   <si>
-    <t>2014-10-01</t>
-  </si>
-  <si>
     <t>HMLI15</t>
   </si>
   <si>
@@ -3418,15 +3418,15 @@
     <t>Afghanistan Strategic Response Plan 2014</t>
   </si>
   <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>2014-12-31</t>
   </si>
   <si>
-    <t>2014-01-01</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>HBFA1314</t>
   </si>
   <si>
@@ -3562,24 +3562,24 @@
     <t>Philippines Bohol Earthquake Flash Appeal 2014</t>
   </si>
   <si>
+    <t>2013-10-22</t>
+  </si>
+  <si>
     <t>2014-04-22</t>
   </si>
   <si>
-    <t>2013-10-22</t>
-  </si>
-  <si>
     <t>SPHL1314</t>
   </si>
   <si>
     <t>Philippines Typhoon Haiyan Strategic Response Plan 2014</t>
   </si>
   <si>
+    <t>2013-11-08</t>
+  </si>
+  <si>
     <t>2014-11-07</t>
   </si>
   <si>
-    <t>2013-11-08</t>
-  </si>
-  <si>
     <t>HPHL1314</t>
   </si>
   <si>
@@ -3595,12 +3595,12 @@
     <t>Philippines Zamboanga Crisis Flash Appeal 2014</t>
   </si>
   <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
     <t>2014-08-31</t>
   </si>
   <si>
-    <t>2013-10-01</t>
-  </si>
-  <si>
     <t>SCOD14</t>
   </si>
   <si>
@@ -3706,12 +3706,12 @@
     <t>Afghanistan 2013</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
     <t>Consolidated appeals process</t>
   </si>
   <si>
@@ -3868,15 +3868,15 @@
     <t>2012+ Kenya Emergency Humanitarian Response Plan</t>
   </si>
   <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2012-12-31</t>
   </si>
   <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>CAFG1112</t>
   </si>
   <si>
@@ -3946,12 +3946,12 @@
     <t>Lesotho Food Insecurity (September 2012 - March 2013)</t>
   </si>
   <si>
+    <t>2012-09-18</t>
+  </si>
+  <si>
     <t>2013-03-25</t>
   </si>
   <si>
-    <t>2012-09-18</t>
-  </si>
-  <si>
     <t>CLBR12</t>
   </si>
   <si>
@@ -4024,12 +4024,12 @@
     <t>Syria Humanitarian Assistance Response Plan (SHARP) 2012</t>
   </si>
   <si>
+    <t>2012-06-05</t>
+  </si>
+  <si>
     <t>2012-12-05</t>
   </si>
   <si>
-    <t>2012-06-05</t>
-  </si>
-  <si>
     <t>CYEM12</t>
   </si>
   <si>
@@ -4102,12 +4102,12 @@
     <t>El Salvador Flash Appeal (October 2011 - April 2012)</t>
   </si>
   <si>
+    <t>2011-10-25</t>
+  </si>
+  <si>
     <t>2012-04-25</t>
   </si>
   <si>
-    <t>2011-10-25</t>
-  </si>
-  <si>
     <t>CHTI1011</t>
   </si>
   <si>
@@ -4138,24 +4138,24 @@
     <t>Namibia Flash Appeal (April - October 2011)</t>
   </si>
   <si>
+    <t>2011-04-11</t>
+  </si>
+  <si>
     <t>2011-10-11</t>
   </si>
   <si>
-    <t>2011-04-11</t>
-  </si>
-  <si>
     <t>FNIC1112</t>
   </si>
   <si>
     <t>Nicaragua Flash Appeal (October 2011 - April 2012)</t>
   </si>
   <si>
+    <t>2011-10-27</t>
+  </si>
+  <si>
     <t>2012-04-26</t>
   </si>
   <si>
-    <t>2011-10-27</t>
-  </si>
-  <si>
     <t>CNER11</t>
   </si>
   <si>
@@ -4168,12 +4168,12 @@
     <t>Pakistan Rapid Response Plan Floods 2011 (September - March 2012)</t>
   </si>
   <si>
+    <t>2011-09-15</t>
+  </si>
+  <si>
     <t>2012-06-30</t>
   </si>
   <si>
-    <t>2011-09-15</t>
-  </si>
-  <si>
     <t>FXLBYREG11</t>
   </si>
   <si>
@@ -4249,27 +4249,27 @@
     <t>Afghanistan Humanitarian Action Plan 2010</t>
   </si>
   <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2010-12-31</t>
   </si>
   <si>
-    <t>2010-01-01</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>OBFA1011</t>
   </si>
   <si>
     <t>Burkina Faso Emergency Humanitarian Action Plan 2010</t>
   </si>
   <si>
+    <t>2010-08-01</t>
+  </si>
+  <si>
     <t>2011-01-31</t>
   </si>
   <si>
-    <t>2010-08-01</t>
-  </si>
-  <si>
     <t>CCAF10</t>
   </si>
   <si>
@@ -4294,36 +4294,36 @@
     <t>El Salvador Flash Appeal (Revised) (November 2009 - May 2010)</t>
   </si>
   <si>
+    <t>2009-11-01</t>
+  </si>
+  <si>
     <t>2010-05-31</t>
   </si>
   <si>
-    <t>2009-11-01</t>
-  </si>
-  <si>
     <t>FGTM10</t>
   </si>
   <si>
     <t>Guatemala Flash Appeal (Revised) (June - December 2010)</t>
   </si>
   <si>
+    <t>2010-06-10</t>
+  </si>
+  <si>
     <t>2010-12-09</t>
   </si>
   <si>
-    <t>2010-06-10</t>
-  </si>
-  <si>
     <t>CGTM10</t>
   </si>
   <si>
     <t>Guatemala Food Insecurity and Acute Malnutrition Appeal 2010</t>
   </si>
   <si>
+    <t>2010-02-12</t>
+  </si>
+  <si>
     <t>2010-08-11</t>
   </si>
   <si>
-    <t>2010-02-12</t>
-  </si>
-  <si>
     <t>FHTI10</t>
   </si>
   <si>
@@ -4351,12 +4351,12 @@
     <t>Kyrgyzstan Flash Appeal (Revised) (June 2010 - June 2011)</t>
   </si>
   <si>
+    <t>2010-06-01</t>
+  </si>
+  <si>
     <t>2011-06-30</t>
   </si>
   <si>
-    <t>2010-06-01</t>
-  </si>
-  <si>
     <t>CMNG1011</t>
   </si>
   <si>
@@ -4459,27 +4459,27 @@
     <t>Afghanistan Humanitarian Action Plan 2009</t>
   </si>
   <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2009-12-31</t>
   </si>
   <si>
-    <t>2009-01-01</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>FBFA0910</t>
   </si>
   <si>
     <t>Burkina Faso Flash Appeal (September 2009 - February 2010)</t>
   </si>
   <si>
+    <t>2009-09-10</t>
+  </si>
+  <si>
     <t>2010-03-09</t>
   </si>
   <si>
-    <t>2009-09-10</t>
-  </si>
-  <si>
     <t>CCAF09</t>
   </si>
   <si>
@@ -4543,24 +4543,24 @@
     <t>Madagascar Flash Appeal (Revised) (April - October 2009)</t>
   </si>
   <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
     <t>2009-10-31</t>
   </si>
   <si>
-    <t>2009-04-01</t>
-  </si>
-  <si>
     <t>FNAM09</t>
   </si>
   <si>
     <t>Namibia Flash Appeal (Revised) (March - November 2009)</t>
   </si>
   <si>
+    <t>2009-03-20</t>
+  </si>
+  <si>
     <t>2009-09-30</t>
   </si>
   <si>
-    <t>2009-03-20</t>
-  </si>
-  <si>
     <t>ONPL09</t>
   </si>
   <si>
@@ -4582,12 +4582,12 @@
     <t>Philippines Flash Appeal (Revised) (October 2009 - March 2010)</t>
   </si>
   <si>
+    <t>2009-10-03</t>
+  </si>
+  <si>
     <t>2010-03-31</t>
   </si>
   <si>
-    <t>2009-10-03</t>
-  </si>
-  <si>
     <t>CSOM09</t>
   </si>
   <si>
@@ -4612,12 +4612,12 @@
     <t>Syria Drought Response Plan (Revised) (July 2009 - June 2010)</t>
   </si>
   <si>
+    <t>2009-07-15</t>
+  </si>
+  <si>
     <t>2010-06-14</t>
   </si>
   <si>
-    <t>2009-07-15</t>
-  </si>
-  <si>
     <t>OTJK09</t>
   </si>
   <si>
@@ -4675,27 +4675,27 @@
     <t>Afghanistan Joint Appeal 2008: Humanitarian Consequences of Rise in Food Prices (February - June 2008)</t>
   </si>
   <si>
+    <t>2008-02-01</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2008-06-30</t>
   </si>
   <si>
-    <t>2008-02-01</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>OAFG0809</t>
   </si>
   <si>
     <t>Afghanistan Joint Emergency Appeal 2008: High Food Price and Drought Crisis (July 2008 - June 2009)</t>
   </si>
   <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
     <t>2009-06-30</t>
   </si>
   <si>
-    <t>2008-07-01</t>
-  </si>
-  <si>
     <t>FBOL08</t>
   </si>
   <si>
@@ -4711,12 +4711,12 @@
     <t>Central African Republic 2008</t>
   </si>
   <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
     <t>2008-12-31</t>
   </si>
   <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
     <t>CTCD08</t>
   </si>
   <si>
@@ -4747,24 +4747,24 @@
     <t>Djibouti Joint Appeal 2008: Response Plan for Drought, Food and Nutrition Crisis</t>
   </si>
   <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
     <t>2009-02-28</t>
   </si>
   <si>
-    <t>2008-08-01</t>
-  </si>
-  <si>
     <t>FGEO0809</t>
   </si>
   <si>
     <t>Georgia Crisis Flash Appeal (Revised) 2008</t>
   </si>
   <si>
+    <t>2008-08-09</t>
+  </si>
+  <si>
     <t>2009-02-09</t>
   </si>
   <si>
-    <t>2008-08-09</t>
-  </si>
-  <si>
     <t>FHTI0809</t>
   </si>
   <si>
@@ -4780,12 +4780,12 @@
     <t>Honduras Flash Appeal (Updated) (November - April) 2008</t>
   </si>
   <si>
+    <t>2008-11-01</t>
+  </si>
+  <si>
     <t>2009-04-30</t>
   </si>
   <si>
-    <t>2008-11-01</t>
-  </si>
-  <si>
     <t>CIRQ08</t>
   </si>
   <si>
@@ -4804,12 +4804,12 @@
     <t>Kyrgyzstan Flash Appeal (Revised) 2008</t>
   </si>
   <si>
+    <t>2008-12-01</t>
+  </si>
+  <si>
     <t>2009-05-31</t>
   </si>
   <si>
-    <t>2008-12-01</t>
-  </si>
-  <si>
     <t>OLAO0809</t>
   </si>
   <si>
@@ -4840,12 +4840,12 @@
     <t>Myanmar Flash Appeal (Revised) 2008</t>
   </si>
   <si>
+    <t>2008-05-01</t>
+  </si>
+  <si>
     <t>2008-11-30</t>
   </si>
   <si>
-    <t>2008-05-01</t>
-  </si>
-  <si>
     <t>ONPL08</t>
   </si>
   <si>
@@ -4942,39 +4942,39 @@
     <t>Bolivia Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-02-22</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2007-08-21</t>
   </si>
   <si>
-    <t>2007-02-22</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>FBFA0708</t>
   </si>
   <si>
     <t>Burkina Faso Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-11-01</t>
+  </si>
+  <si>
     <t>2008-01-31</t>
   </si>
   <si>
-    <t>2007-11-01</t>
-  </si>
-  <si>
     <t>CBDI07</t>
   </si>
   <si>
     <t>Burundi 2007</t>
   </si>
   <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
     <t>2007-12-31</t>
   </si>
   <si>
-    <t>2007-01-01</t>
-  </si>
-  <si>
     <t>CCAF07</t>
   </si>
   <si>
@@ -5014,12 +5014,12 @@
     <t>Ghana Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-09-01</t>
+  </si>
+  <si>
     <t>2008-03-31</t>
   </si>
   <si>
-    <t>2007-09-01</t>
-  </si>
-  <si>
     <t>CXGLR07</t>
   </si>
   <si>
@@ -5041,36 +5041,36 @@
     <t>Korea DPR Flash Appeal: Floods Emergency 2007</t>
   </si>
   <si>
+    <t>2007-08-28</t>
+  </si>
+  <si>
     <t>2007-11-30</t>
   </si>
   <si>
-    <t>2007-08-28</t>
-  </si>
-  <si>
     <t>OLBN07</t>
   </si>
   <si>
     <t>Lebanon Crisis Appeal 2007</t>
   </si>
   <si>
+    <t>2007-06-04</t>
+  </si>
+  <si>
     <t>2007-09-03</t>
   </si>
   <si>
-    <t>2007-06-04</t>
-  </si>
-  <si>
     <t>FLSO0708</t>
   </si>
   <si>
     <t>Lesotho Drought Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-07-28</t>
+  </si>
+  <si>
     <t>2008-01-28</t>
   </si>
   <si>
-    <t>2007-07-28</t>
-  </si>
-  <si>
     <t>CLBR07</t>
   </si>
   <si>
@@ -5083,24 +5083,24 @@
     <t>Madagascar Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-03-15</t>
+  </si>
+  <si>
     <t>2007-09-15</t>
   </si>
   <si>
-    <t>2007-03-15</t>
-  </si>
-  <si>
     <t>FMOZ07</t>
   </si>
   <si>
     <t>Mozambique Floods and Cyclone Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-03-01</t>
+  </si>
+  <si>
     <t>2007-06-30</t>
   </si>
   <si>
-    <t>2007-03-01</t>
-  </si>
-  <si>
     <t>ONPL07</t>
   </si>
   <si>
@@ -5113,12 +5113,12 @@
     <t>Nicaragua Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-09-07</t>
+  </si>
+  <si>
     <t>2008-02-28</t>
   </si>
   <si>
-    <t>2007-09-07</t>
-  </si>
-  <si>
     <t>ORUS07</t>
   </si>
   <si>
@@ -5131,12 +5131,12 @@
     <t>Pakistan Cyclone and Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-07-15</t>
+  </si>
+  <si>
     <t>2007-10-31</t>
   </si>
   <si>
-    <t>2007-07-15</t>
-  </si>
-  <si>
     <t>FPER0708</t>
   </si>
   <si>
@@ -5194,12 +5194,12 @@
     <t>Swaziland Drought Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-07-20</t>
+  </si>
+  <si>
     <t>2008-01-20</t>
   </si>
   <si>
-    <t>2007-07-20</t>
-  </si>
-  <si>
     <t>CTLS07</t>
   </si>
   <si>
@@ -5248,15 +5248,15 @@
     <t>Afghanistan Drought Joint Appeal 2006</t>
   </si>
   <si>
+    <t>2006-07-01</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2006-12-31</t>
   </si>
   <si>
-    <t>2006-07-01</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
     <t>CBDI06</t>
   </si>
   <si>
@@ -5302,24 +5302,24 @@
     <t>Ethiopia Floods Joint Appeal 2006</t>
   </si>
   <si>
+    <t>2006-08-25</t>
+  </si>
+  <si>
     <t>2006-11-25</t>
   </si>
   <si>
-    <t>2006-08-25</t>
-  </si>
-  <si>
     <t>OETH0607</t>
   </si>
   <si>
     <t>Ethiopia: 2006 Govt-UN Joint Emergency Flood Appeal for Somali Region</t>
   </si>
   <si>
+    <t>2006-11-23</t>
+  </si>
+  <si>
     <t>2007-01-22</t>
   </si>
   <si>
-    <t>2006-11-23</t>
-  </si>
-  <si>
     <t>CXGLR06</t>
   </si>
   <si>
@@ -5338,12 +5338,12 @@
     <t>Guinea-Bissau 2006</t>
   </si>
   <si>
+    <t>2006-05-01</t>
+  </si>
+  <si>
     <t>2006-11-30</t>
   </si>
   <si>
-    <t>2006-05-01</t>
-  </si>
-  <si>
     <t>CXHAF06</t>
   </si>
   <si>
@@ -5362,12 +5362,12 @@
     <t>Kenya 2006</t>
   </si>
   <si>
+    <t>2006-10-16</t>
+  </si>
+  <si>
     <t>2007-04-15</t>
   </si>
   <si>
-    <t>2006-10-16</t>
-  </si>
-  <si>
     <t>FKEN06</t>
   </si>
   <si>
@@ -5383,12 +5383,12 @@
     <t>Lebanon Crisis 2006</t>
   </si>
   <si>
+    <t>2006-07-24</t>
+  </si>
+  <si>
     <t>2006-10-23</t>
   </si>
   <si>
-    <t>2006-07-24</t>
-  </si>
-  <si>
     <t>CLBR06</t>
   </si>
   <si>
@@ -5437,12 +5437,12 @@
     <t>Somalia: 2006 Flood Response Plan</t>
   </si>
   <si>
+    <t>2006-12-05</t>
+  </si>
+  <si>
     <t>2007-03-05</t>
   </si>
   <si>
-    <t>2006-12-05</t>
-  </si>
-  <si>
     <t>OLKA06</t>
   </si>
   <si>
@@ -5503,39 +5503,39 @@
     <t>Angola Marburg VHF 2005</t>
   </si>
   <si>
+    <t>2005-04-01</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2005-06-30</t>
   </si>
   <si>
-    <t>2005-04-01</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>FBEN05</t>
   </si>
   <si>
     <t>Benin 2005</t>
   </si>
   <si>
+    <t>2005-05-01</t>
+  </si>
+  <si>
     <t>2005-10-31</t>
   </si>
   <si>
-    <t>2005-05-01</t>
-  </si>
-  <si>
     <t>CBDI05</t>
   </si>
   <si>
     <t>Burundi 2005</t>
   </si>
   <si>
+    <t>2005-01-01</t>
+  </si>
+  <si>
     <t>2005-12-31</t>
   </si>
   <si>
-    <t>2005-01-01</t>
-  </si>
-  <si>
     <t>CCAF05</t>
   </si>
   <si>
@@ -5611,12 +5611,12 @@
     <t>Guyana 2005</t>
   </si>
   <si>
+    <t>2005-02-01</t>
+  </si>
+  <si>
     <t>2005-08-01</t>
   </si>
   <si>
-    <t>2005-02-01</t>
-  </si>
-  <si>
     <t>FXINDTSU05</t>
   </si>
   <si>
@@ -5638,12 +5638,12 @@
     <t>Niger 2005</t>
   </si>
   <si>
+    <t>2005-06-01</t>
+  </si>
+  <si>
     <t>2005-09-30</t>
   </si>
   <si>
-    <t>2005-06-01</t>
-  </si>
-  <si>
     <t>CCOG05</t>
   </si>
   <si>
@@ -5662,12 +5662,12 @@
     <t>South Asia Earthquake 2005</t>
   </si>
   <si>
+    <t>2005-10-11</t>
+  </si>
+  <si>
     <t>2006-04-10</t>
   </si>
   <si>
-    <t>2005-10-11</t>
-  </si>
-  <si>
     <t>CSDN05</t>
   </si>
   <si>
@@ -5692,12 +5692,12 @@
     <t>West and Central Africa Region Cholera 2005</t>
   </si>
   <si>
+    <t>2005-11-01</t>
+  </si>
+  <si>
     <t>2006-05-31</t>
   </si>
   <si>
-    <t>2005-11-01</t>
-  </si>
-  <si>
     <t>CPSE05</t>
   </si>
   <si>
@@ -5710,15 +5710,15 @@
     <t>Afghanistan UN-Government Drought Appeal 2004</t>
   </si>
   <si>
+    <t>2004-09-01</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2004-12-31</t>
   </si>
   <si>
-    <t>2004-09-01</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
     <t>CAGO04</t>
   </si>
   <si>
@@ -5734,24 +5734,24 @@
     <t>Bangladesh 2004</t>
   </si>
   <si>
+    <t>2004-08-01</t>
+  </si>
+  <si>
     <t>2005-01-31</t>
   </si>
   <si>
-    <t>2004-08-01</t>
-  </si>
-  <si>
     <t>FBOL0405</t>
   </si>
   <si>
     <t>Bolivia 2004</t>
   </si>
   <si>
+    <t>2004-11-01</t>
+  </si>
+  <si>
     <t>2005-05-31</t>
   </si>
   <si>
-    <t>2004-11-01</t>
-  </si>
-  <si>
     <t>CBDI04</t>
   </si>
   <si>
@@ -5878,24 +5878,24 @@
     <t>Madagascar 2004</t>
   </si>
   <si>
+    <t>2004-03-19</t>
+  </si>
+  <si>
     <t>2004-06-19</t>
   </si>
   <si>
-    <t>2004-03-19</t>
-  </si>
-  <si>
     <t>FPHL0405</t>
   </si>
   <si>
     <t>Philippines 2004</t>
   </si>
   <si>
+    <t>2004-12-15</t>
+  </si>
+  <si>
     <t>2005-03-15</t>
   </si>
   <si>
-    <t>2004-12-15</t>
-  </si>
-  <si>
     <t>CSLE04</t>
   </si>
   <si>
@@ -5956,15 +5956,15 @@
     <t>Afghanistan TAPA 2003</t>
   </si>
   <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2003-12-31</t>
   </si>
   <si>
-    <t>2003-01-01</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>CAGO03</t>
   </si>
   <si>
@@ -5983,12 +5983,12 @@
     <t>Central African Republic 2003</t>
   </si>
   <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
     <t>2003-06-30</t>
   </si>
   <si>
-    <t>2003-04-01</t>
-  </si>
-  <si>
     <t>CRUS03</t>
   </si>
   <si>
@@ -6013,12 +6013,12 @@
     <t>Côte d'Ivoire and the West Africa Sub-Region 2002-2003</t>
   </si>
   <si>
+    <t>2002-11-01</t>
+  </si>
+  <si>
     <t>2003-01-31</t>
   </si>
   <si>
-    <t>2002-11-01</t>
-  </si>
-  <si>
     <t>CPRK03</t>
   </si>
   <si>
@@ -6055,24 +6055,24 @@
     <t>Haiti (PIR) 2003</t>
   </si>
   <si>
+    <t>2003-03-01</t>
+  </si>
+  <si>
     <t>2003-08-31</t>
   </si>
   <si>
-    <t>2003-03-01</t>
-  </si>
-  <si>
     <t>CLSO0304</t>
   </si>
   <si>
     <t>Humanitarian Crisis in Southern Africa - LESOTHO (July 2003 - June 2004)</t>
   </si>
   <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
     <t>2004-06-30</t>
   </si>
   <si>
-    <t>2003-07-01</t>
-  </si>
-  <si>
     <t>CMWI03</t>
   </si>
   <si>
@@ -6175,15 +6175,15 @@
     <t>Afghanistan 2002 (ITAP for the Afghan People)</t>
   </si>
   <si>
+    <t>2001-10-01</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2002-12-31</t>
   </si>
   <si>
-    <t>2001-10-01</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>CAGO02</t>
   </si>
   <si>
@@ -6361,15 +6361,15 @@
     <t>Afghanistan 2001</t>
   </si>
   <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2001-09-30</t>
   </si>
   <si>
-    <t>2001-01-01</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>CAGO01</t>
   </si>
   <si>
@@ -6511,13 +6511,13 @@
     <t>Angola 2000</t>
   </si>
   <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2000-12-31</t>
-  </si>
-  <si>
-    <t>2000-01-01</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>CBDI00</t>
@@ -7043,13 +7043,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -7273,13 +7273,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
@@ -7296,13 +7296,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -7342,13 +7342,13 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -7388,13 +7388,13 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
@@ -7411,10 +7411,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -7503,13 +7503,13 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -7894,13 +7894,13 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -7940,13 +7940,13 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -7963,13 +7963,13 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
@@ -8032,10 +8032,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F47" t="s">
         <v>112</v>
@@ -8078,10 +8078,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
         <v>112</v>
@@ -8239,10 +8239,10 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
         <v>112</v>
@@ -8331,10 +8331,10 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
         <v>112</v>
@@ -8354,10 +8354,10 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
         <v>112</v>
@@ -8377,13 +8377,13 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="G62" t="s">
         <v>34</v>
@@ -8400,13 +8400,13 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
         <v>34</v>
@@ -8423,10 +8423,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
         <v>112</v>
@@ -8469,13 +8469,13 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" t="s">
         <v>154</v>
-      </c>
-      <c r="E66" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" t="s">
-        <v>112</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
@@ -8492,10 +8492,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
         <v>112</v>
@@ -8561,10 +8561,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="F70" t="s">
         <v>112</v>
@@ -8630,10 +8630,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F73" t="s">
         <v>112</v>
@@ -8768,10 +8768,10 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F79" t="s">
         <v>112</v>
@@ -9067,10 +9067,10 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
         <v>112</v>
@@ -9113,10 +9113,10 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="F94" t="s">
         <v>112</v>
@@ -9136,10 +9136,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="E95" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="F95" t="s">
         <v>112</v>
@@ -9343,10 +9343,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E104" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F104" t="s">
         <v>231</v>
@@ -9527,10 +9527,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="E112" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F112" t="s">
         <v>231</v>
@@ -9599,10 +9599,10 @@
         <v>272</v>
       </c>
       <c r="E115" t="s">
+        <v>230</v>
+      </c>
+      <c r="F115" t="s">
         <v>273</v>
-      </c>
-      <c r="F115" t="s">
-        <v>231</v>
       </c>
       <c r="G115" t="s">
         <v>20</v>
@@ -9622,10 +9622,10 @@
         <v>276</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>277</v>
-      </c>
-      <c r="F116" t="s">
-        <v>231</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
@@ -9734,13 +9734,13 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="E121" t="s">
         <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="G121" t="s">
         <v>25</v>
@@ -9757,13 +9757,13 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E122" t="s">
         <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
@@ -9967,10 +9967,10 @@
         <v>307</v>
       </c>
       <c r="E131" t="s">
+        <v>230</v>
+      </c>
+      <c r="F131" t="s">
         <v>308</v>
-      </c>
-      <c r="F131" t="s">
-        <v>231</v>
       </c>
       <c r="G131" t="s">
         <v>16</v>
@@ -10010,13 +10010,13 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="E133" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="F133" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -10056,13 +10056,13 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="E135" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="F135" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -10404,10 +10404,10 @@
         <v>352</v>
       </c>
       <c r="E150" t="s">
+        <v>336</v>
+      </c>
+      <c r="F150" t="s">
         <v>353</v>
-      </c>
-      <c r="F150" t="s">
-        <v>337</v>
       </c>
       <c r="G150" t="s">
         <v>20</v>
@@ -10519,10 +10519,10 @@
         <v>364</v>
       </c>
       <c r="E155" t="s">
+        <v>336</v>
+      </c>
+      <c r="F155" t="s">
         <v>365</v>
-      </c>
-      <c r="F155" t="s">
-        <v>337</v>
       </c>
       <c r="G155" t="s">
         <v>34</v>
@@ -10539,10 +10539,10 @@
         <v>182</v>
       </c>
       <c r="D156" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="E156" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F156" t="s">
         <v>337</v>
@@ -10631,13 +10631,13 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="E160" t="s">
         <v>336</v>
       </c>
       <c r="F160" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -10726,10 +10726,10 @@
         <v>385</v>
       </c>
       <c r="E164" t="s">
+        <v>336</v>
+      </c>
+      <c r="F164" t="s">
         <v>386</v>
-      </c>
-      <c r="F164" t="s">
-        <v>337</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -10772,10 +10772,10 @@
         <v>391</v>
       </c>
       <c r="E166" t="s">
+        <v>336</v>
+      </c>
+      <c r="F166" t="s">
         <v>392</v>
-      </c>
-      <c r="F166" t="s">
-        <v>337</v>
       </c>
       <c r="G166" t="s">
         <v>34</v>
@@ -10907,10 +10907,10 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="E172" t="s">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
         <v>337</v>
@@ -10930,13 +10930,13 @@
         <v>182</v>
       </c>
       <c r="D173" t="s">
+        <v>405</v>
+      </c>
+      <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>407</v>
-      </c>
-      <c r="E173" t="s">
-        <v>405</v>
-      </c>
-      <c r="F173" t="s">
-        <v>337</v>
       </c>
       <c r="G173" t="s">
         <v>20</v>
@@ -10956,10 +10956,10 @@
         <v>410</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>411</v>
-      </c>
-      <c r="F174" t="s">
-        <v>337</v>
       </c>
       <c r="G174" t="s">
         <v>20</v>
@@ -11137,10 +11137,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>335</v>
+        <v>428</v>
       </c>
       <c r="E182" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
         <v>337</v>
@@ -11252,10 +11252,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="E187" t="s">
-        <v>439</v>
+        <v>336</v>
       </c>
       <c r="F187" t="s">
         <v>337</v>
@@ -11298,13 +11298,13 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>439</v>
+      </c>
+      <c r="E189" t="s">
+        <v>336</v>
+      </c>
+      <c r="F189" t="s">
         <v>444</v>
-      </c>
-      <c r="E189" t="s">
-        <v>439</v>
-      </c>
-      <c r="F189" t="s">
-        <v>337</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
@@ -11390,10 +11390,10 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E193" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F193" t="s">
         <v>453</v>
@@ -11413,10 +11413,10 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E194" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F194" t="s">
         <v>453</v>
@@ -11436,10 +11436,10 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E195" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F195" t="s">
         <v>453</v>
@@ -11459,10 +11459,10 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E196" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F196" t="s">
         <v>453</v>
@@ -11482,10 +11482,10 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E197" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F197" t="s">
         <v>453</v>
@@ -11505,10 +11505,10 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E198" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F198" t="s">
         <v>453</v>
@@ -11528,10 +11528,10 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E199" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F199" t="s">
         <v>453</v>
@@ -11551,10 +11551,10 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E200" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F200" t="s">
         <v>453</v>
@@ -11574,10 +11574,10 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E201" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F201" t="s">
         <v>453</v>
@@ -11597,10 +11597,10 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E202" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F202" t="s">
         <v>453</v>
@@ -11620,10 +11620,10 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E203" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F203" t="s">
         <v>453</v>
@@ -11643,10 +11643,10 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="E204" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F204" t="s">
         <v>453</v>
@@ -11666,13 +11666,13 @@
         <v>182</v>
       </c>
       <c r="D205" t="s">
-        <v>335</v>
+        <v>479</v>
       </c>
       <c r="E205" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F205" t="s">
-        <v>453</v>
+        <v>337</v>
       </c>
       <c r="G205" t="s">
         <v>25</v>
@@ -11692,10 +11692,10 @@
         <v>484</v>
       </c>
       <c r="E206" t="s">
+        <v>452</v>
+      </c>
+      <c r="F206" t="s">
         <v>485</v>
-      </c>
-      <c r="F206" t="s">
-        <v>453</v>
       </c>
       <c r="G206" t="s">
         <v>34</v>
@@ -11712,10 +11712,10 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E207" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F207" t="s">
         <v>453</v>
@@ -11735,10 +11735,10 @@
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="E208" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F208" t="s">
         <v>453</v>
@@ -11758,13 +11758,13 @@
         <v>182</v>
       </c>
       <c r="D209" t="s">
-        <v>335</v>
+        <v>479</v>
       </c>
       <c r="E209" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F209" t="s">
-        <v>453</v>
+        <v>337</v>
       </c>
       <c r="G209" t="s">
         <v>25</v>
@@ -11784,10 +11784,10 @@
         <v>494</v>
       </c>
       <c r="E210" t="s">
+        <v>452</v>
+      </c>
+      <c r="F210" t="s">
         <v>495</v>
-      </c>
-      <c r="F210" t="s">
-        <v>453</v>
       </c>
       <c r="G210" t="s">
         <v>34</v>
@@ -11804,10 +11804,10 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E211" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F211" t="s">
         <v>453</v>
@@ -11830,10 +11830,10 @@
         <v>500</v>
       </c>
       <c r="E212" t="s">
+        <v>452</v>
+      </c>
+      <c r="F212" t="s">
         <v>501</v>
-      </c>
-      <c r="F212" t="s">
-        <v>453</v>
       </c>
       <c r="G212" t="s">
         <v>34</v>
@@ -11850,10 +11850,10 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="E213" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F213" t="s">
         <v>453</v>
@@ -11873,13 +11873,13 @@
         <v>182</v>
       </c>
       <c r="D214" t="s">
-        <v>335</v>
+        <v>479</v>
       </c>
       <c r="E214" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F214" t="s">
-        <v>453</v>
+        <v>337</v>
       </c>
       <c r="G214" t="s">
         <v>25</v>
@@ -11896,10 +11896,10 @@
         <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E215" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F215" t="s">
         <v>453</v>
@@ -11919,10 +11919,10 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="E216" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="F216" t="s">
         <v>453</v>
@@ -11945,10 +11945,10 @@
         <v>513</v>
       </c>
       <c r="E217" t="s">
+        <v>452</v>
+      </c>
+      <c r="F217" t="s">
         <v>514</v>
-      </c>
-      <c r="F217" t="s">
-        <v>453</v>
       </c>
       <c r="G217" t="s">
         <v>20</v>
@@ -11965,10 +11965,10 @@
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E218" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F218" t="s">
         <v>453</v>
@@ -11988,13 +11988,13 @@
         <v>182</v>
       </c>
       <c r="D219" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="E219" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F219" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="G219" t="s">
         <v>34</v>
@@ -12011,10 +12011,10 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E220" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F220" t="s">
         <v>453</v>
@@ -12034,10 +12034,10 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E221" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F221" t="s">
         <v>453</v>
@@ -12057,10 +12057,10 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E222" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F222" t="s">
         <v>453</v>
@@ -12080,10 +12080,10 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E223" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F223" t="s">
         <v>453</v>
@@ -12103,10 +12103,10 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="E224" t="s">
-        <v>529</v>
+        <v>452</v>
       </c>
       <c r="F224" t="s">
         <v>453</v>
@@ -12126,10 +12126,10 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="E225" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="F225" t="s">
         <v>453</v>
@@ -12149,10 +12149,10 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E226" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F226" t="s">
         <v>453</v>
@@ -12172,10 +12172,10 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E227" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F227" t="s">
         <v>453</v>
@@ -12195,10 +12195,10 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="E228" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="F228" t="s">
         <v>453</v>
@@ -12218,10 +12218,10 @@
         <v>182</v>
       </c>
       <c r="D229" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="E229" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="F229" t="s">
         <v>453</v>
@@ -12241,10 +12241,10 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E230" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
         <v>453</v>
@@ -12264,10 +12264,10 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E231" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
         <v>453</v>
@@ -12287,10 +12287,10 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E232" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F232" t="s">
         <v>453</v>
@@ -12310,10 +12310,10 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E233" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F233" t="s">
         <v>453</v>
@@ -12333,10 +12333,10 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E234" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
         <v>453</v>
@@ -12356,10 +12356,10 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
         <v>453</v>
@@ -12379,10 +12379,10 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E236" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F236" t="s">
         <v>453</v>
@@ -12402,10 +12402,10 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E237" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
         <v>453</v>
@@ -12425,10 +12425,10 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E238" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
         <v>453</v>
@@ -12448,10 +12448,10 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E239" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F239" t="s">
         <v>453</v>
@@ -12471,10 +12471,10 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E240" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
         <v>453</v>
@@ -12494,10 +12494,10 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E241" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
         <v>453</v>
@@ -12517,10 +12517,10 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E242" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
         <v>453</v>
@@ -12540,10 +12540,10 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E243" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F243" t="s">
         <v>453</v>
@@ -12586,10 +12586,10 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E245" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F245" t="s">
         <v>572</v>
@@ -12632,10 +12632,10 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E247" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F247" t="s">
         <v>572</v>
@@ -12724,10 +12724,10 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="E251" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="F251" t="s">
         <v>572</v>
@@ -12770,13 +12770,13 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
+        <v>593</v>
+      </c>
+      <c r="E253" t="s">
+        <v>571</v>
+      </c>
+      <c r="F253" t="s">
         <v>456</v>
-      </c>
-      <c r="E253" t="s">
-        <v>593</v>
-      </c>
-      <c r="F253" t="s">
-        <v>572</v>
       </c>
       <c r="G253" t="s">
         <v>25</v>
@@ -12839,10 +12839,10 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E256" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F256" t="s">
         <v>572</v>
@@ -12862,10 +12862,10 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E257" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F257" t="s">
         <v>572</v>
@@ -12885,10 +12885,10 @@
         <v>182</v>
       </c>
       <c r="D258" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="E258" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="F258" t="s">
         <v>572</v>
@@ -12957,10 +12957,10 @@
         <v>611</v>
       </c>
       <c r="E261" t="s">
+        <v>571</v>
+      </c>
+      <c r="F261" t="s">
         <v>612</v>
-      </c>
-      <c r="F261" t="s">
-        <v>572</v>
       </c>
       <c r="G261" t="s">
         <v>34</v>
@@ -12977,10 +12977,10 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E262" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F262" t="s">
         <v>572</v>
@@ -13000,10 +13000,10 @@
         <v>182</v>
       </c>
       <c r="D263" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E263" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F263" t="s">
         <v>572</v>
@@ -13046,10 +13046,10 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E265" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F265" t="s">
         <v>572</v>
@@ -13092,10 +13092,10 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E267" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F267" t="s">
         <v>572</v>
@@ -13115,10 +13115,10 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="E268" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="F268" t="s">
         <v>572</v>
@@ -13138,10 +13138,10 @@
         <v>182</v>
       </c>
       <c r="D269" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E269" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F269" t="s">
         <v>572</v>
@@ -13161,10 +13161,10 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E270" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F270" t="s">
         <v>572</v>
@@ -13207,10 +13207,10 @@
         <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E272" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F272" t="s">
         <v>572</v>
@@ -13253,10 +13253,10 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E274" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F274" t="s">
         <v>572</v>
@@ -13276,10 +13276,10 @@
         <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="E275" t="s">
-        <v>641</v>
+        <v>571</v>
       </c>
       <c r="F275" t="s">
         <v>572</v>
@@ -13302,10 +13302,10 @@
         <v>644</v>
       </c>
       <c r="E276" t="s">
+        <v>571</v>
+      </c>
+      <c r="F276" t="s">
         <v>645</v>
-      </c>
-      <c r="F276" t="s">
-        <v>572</v>
       </c>
       <c r="G276" t="s">
         <v>34</v>
@@ -13322,10 +13322,10 @@
         <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E277" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F277" t="s">
         <v>572</v>
@@ -13348,10 +13348,10 @@
         <v>650</v>
       </c>
       <c r="E278" t="s">
+        <v>571</v>
+      </c>
+      <c r="F278" t="s">
         <v>651</v>
-      </c>
-      <c r="F278" t="s">
-        <v>572</v>
       </c>
       <c r="G278" t="s">
         <v>34</v>
@@ -13368,10 +13368,10 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E279" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F279" t="s">
         <v>572</v>
@@ -13437,10 +13437,10 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E282" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F282" t="s">
         <v>572</v>
@@ -13552,10 +13552,10 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="E287" t="s">
-        <v>641</v>
+        <v>571</v>
       </c>
       <c r="F287" t="s">
         <v>572</v>
@@ -13575,10 +13575,10 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E288" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F288" t="s">
         <v>572</v>
@@ -13644,10 +13644,10 @@
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="E291" t="s">
-        <v>641</v>
+        <v>571</v>
       </c>
       <c r="F291" t="s">
         <v>572</v>
@@ -13667,10 +13667,10 @@
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F292" t="s">
         <v>572</v>
@@ -13828,10 +13828,10 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F299" t="s">
         <v>572</v>
@@ -13851,10 +13851,10 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F300" t="s">
         <v>572</v>
@@ -13874,10 +13874,10 @@
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
         <v>572</v>
@@ -13920,10 +13920,10 @@
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F303" t="s">
         <v>572</v>
@@ -13989,13 +13989,13 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>611</v>
+        <v>708</v>
       </c>
       <c r="E306" t="s">
-        <v>708</v>
+        <v>571</v>
       </c>
       <c r="F306" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="G306" t="s">
         <v>20</v>
@@ -14012,10 +14012,10 @@
         <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E307" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F307" t="s">
         <v>572</v>
@@ -14357,10 +14357,10 @@
         <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>715</v>
+        <v>744</v>
       </c>
       <c r="E322" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="F322" t="s">
         <v>717</v>
@@ -14403,13 +14403,13 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="E324" t="s">
         <v>716</v>
       </c>
       <c r="F324" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="G324" t="s">
         <v>34</v>
@@ -14541,13 +14541,13 @@
         <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>762</v>
+        <v>715</v>
       </c>
       <c r="E330" t="s">
         <v>716</v>
       </c>
       <c r="F330" t="s">
-        <v>717</v>
+        <v>762</v>
       </c>
       <c r="G330" t="s">
         <v>25</v>
@@ -14820,10 +14820,10 @@
         <v>787</v>
       </c>
       <c r="E342" t="s">
+        <v>716</v>
+      </c>
+      <c r="F342" t="s">
         <v>788</v>
-      </c>
-      <c r="F342" t="s">
-        <v>717</v>
       </c>
       <c r="G342" t="s">
         <v>34</v>
@@ -14840,13 +14840,13 @@
         <v>182</v>
       </c>
       <c r="D343" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E343" t="s">
-        <v>791</v>
+        <v>716</v>
       </c>
       <c r="F343" t="s">
-        <v>717</v>
+        <v>788</v>
       </c>
       <c r="G343" t="s">
         <v>34</v>
@@ -14886,10 +14886,10 @@
         <v>182</v>
       </c>
       <c r="D345" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="E345" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F345" t="s">
         <v>796</v>
@@ -15116,10 +15116,10 @@
         <v>9</v>
       </c>
       <c r="D355" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="E355" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="F355" t="s">
         <v>796</v>
@@ -15346,10 +15346,10 @@
         <v>9</v>
       </c>
       <c r="D365" t="s">
-        <v>794</v>
+        <v>841</v>
       </c>
       <c r="E365" t="s">
-        <v>841</v>
+        <v>795</v>
       </c>
       <c r="F365" t="s">
         <v>796</v>
@@ -15369,10 +15369,10 @@
         <v>9</v>
       </c>
       <c r="D366" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="E366" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F366" t="s">
         <v>796</v>
@@ -15461,13 +15461,13 @@
         <v>9</v>
       </c>
       <c r="D370" t="s">
-        <v>852</v>
+        <v>794</v>
       </c>
       <c r="E370" t="s">
         <v>795</v>
       </c>
       <c r="F370" t="s">
-        <v>796</v>
+        <v>852</v>
       </c>
       <c r="G370" t="s">
         <v>25</v>
@@ -15487,10 +15487,10 @@
         <v>855</v>
       </c>
       <c r="E371" t="s">
+        <v>795</v>
+      </c>
+      <c r="F371" t="s">
         <v>856</v>
-      </c>
-      <c r="F371" t="s">
-        <v>796</v>
       </c>
       <c r="G371" t="s">
         <v>25</v>
@@ -15533,10 +15533,10 @@
         <v>855</v>
       </c>
       <c r="E373" t="s">
+        <v>795</v>
+      </c>
+      <c r="F373" t="s">
         <v>856</v>
-      </c>
-      <c r="F373" t="s">
-        <v>796</v>
       </c>
       <c r="G373" t="s">
         <v>25</v>
@@ -15668,10 +15668,10 @@
         <v>9</v>
       </c>
       <c r="D379" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E379" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="F379" t="s">
         <v>871</v>
@@ -15806,10 +15806,10 @@
         <v>9</v>
       </c>
       <c r="D385" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="E385" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="F385" t="s">
         <v>871</v>
@@ -15829,10 +15829,10 @@
         <v>9</v>
       </c>
       <c r="D386" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="E386" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="F386" t="s">
         <v>871</v>
@@ -15878,10 +15878,10 @@
         <v>897</v>
       </c>
       <c r="E388" t="s">
+        <v>870</v>
+      </c>
+      <c r="F388" t="s">
         <v>898</v>
-      </c>
-      <c r="F388" t="s">
-        <v>871</v>
       </c>
       <c r="G388" t="s">
         <v>34</v>
@@ -15967,10 +15967,10 @@
         <v>9</v>
       </c>
       <c r="D392" t="s">
-        <v>869</v>
+        <v>907</v>
       </c>
       <c r="E392" t="s">
-        <v>907</v>
+        <v>870</v>
       </c>
       <c r="F392" t="s">
         <v>871</v>
@@ -16016,10 +16016,10 @@
         <v>912</v>
       </c>
       <c r="E394" t="s">
+        <v>870</v>
+      </c>
+      <c r="F394" t="s">
         <v>913</v>
-      </c>
-      <c r="F394" t="s">
-        <v>871</v>
       </c>
       <c r="G394" t="s">
         <v>34</v>
@@ -16062,10 +16062,10 @@
         <v>918</v>
       </c>
       <c r="E396" t="s">
+        <v>870</v>
+      </c>
+      <c r="F396" t="s">
         <v>919</v>
-      </c>
-      <c r="F396" t="s">
-        <v>871</v>
       </c>
       <c r="G396" t="s">
         <v>34</v>
@@ -16131,10 +16131,10 @@
         <v>926</v>
       </c>
       <c r="E399" t="s">
+        <v>870</v>
+      </c>
+      <c r="F399" t="s">
         <v>927</v>
-      </c>
-      <c r="F399" t="s">
-        <v>871</v>
       </c>
       <c r="G399" t="s">
         <v>34</v>
@@ -16269,10 +16269,10 @@
         <v>940</v>
       </c>
       <c r="E405" t="s">
+        <v>870</v>
+      </c>
+      <c r="F405" t="s">
         <v>941</v>
-      </c>
-      <c r="F405" t="s">
-        <v>871</v>
       </c>
       <c r="G405" t="s">
         <v>34</v>
@@ -16289,10 +16289,10 @@
         <v>9</v>
       </c>
       <c r="D406" t="s">
-        <v>869</v>
+        <v>944</v>
       </c>
       <c r="E406" t="s">
-        <v>944</v>
+        <v>870</v>
       </c>
       <c r="F406" t="s">
         <v>871</v>
@@ -16565,10 +16565,10 @@
         <v>9</v>
       </c>
       <c r="D418" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="E418" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F418" t="s">
         <v>967</v>
@@ -16611,10 +16611,10 @@
         <v>9</v>
       </c>
       <c r="D420" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="E420" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="F420" t="s">
         <v>967</v>
@@ -16775,10 +16775,10 @@
         <v>992</v>
       </c>
       <c r="E427" t="s">
+        <v>966</v>
+      </c>
+      <c r="F427" t="s">
         <v>993</v>
-      </c>
-      <c r="F427" t="s">
-        <v>967</v>
       </c>
       <c r="G427" t="s">
         <v>34</v>
@@ -16798,10 +16798,10 @@
         <v>996</v>
       </c>
       <c r="E428" t="s">
+        <v>966</v>
+      </c>
+      <c r="F428" t="s">
         <v>997</v>
-      </c>
-      <c r="F428" t="s">
-        <v>967</v>
       </c>
       <c r="G428" t="s">
         <v>34</v>
@@ -16887,10 +16887,10 @@
         <v>9</v>
       </c>
       <c r="D432" t="s">
-        <v>965</v>
+        <v>1006</v>
       </c>
       <c r="E432" t="s">
-        <v>1006</v>
+        <v>966</v>
       </c>
       <c r="F432" t="s">
         <v>967</v>
@@ -16956,10 +16956,10 @@
         <v>9</v>
       </c>
       <c r="D435" t="s">
-        <v>965</v>
+        <v>1013</v>
       </c>
       <c r="E435" t="s">
-        <v>1013</v>
+        <v>966</v>
       </c>
       <c r="F435" t="s">
         <v>967</v>
@@ -16979,10 +16979,10 @@
         <v>9</v>
       </c>
       <c r="D436" t="s">
-        <v>965</v>
+        <v>1016</v>
       </c>
       <c r="E436" t="s">
-        <v>1016</v>
+        <v>966</v>
       </c>
       <c r="F436" t="s">
         <v>967</v>
@@ -17051,10 +17051,10 @@
         <v>1023</v>
       </c>
       <c r="E439" t="s">
+        <v>966</v>
+      </c>
+      <c r="F439" t="s">
         <v>1024</v>
-      </c>
-      <c r="F439" t="s">
-        <v>967</v>
       </c>
       <c r="G439" t="s">
         <v>34</v>
@@ -17373,10 +17373,10 @@
         <v>1053</v>
       </c>
       <c r="E453" t="s">
+        <v>966</v>
+      </c>
+      <c r="F453" t="s">
         <v>1054</v>
-      </c>
-      <c r="F453" t="s">
-        <v>967</v>
       </c>
       <c r="G453" t="s">
         <v>25</v>
@@ -17603,10 +17603,10 @@
         <v>1079</v>
       </c>
       <c r="E463" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F463" t="s">
         <v>1080</v>
-      </c>
-      <c r="F463" t="s">
-        <v>1059</v>
       </c>
       <c r="G463" t="s">
         <v>34</v>
@@ -17623,10 +17623,10 @@
         <v>9</v>
       </c>
       <c r="D464" t="s">
-        <v>1057</v>
+        <v>1083</v>
       </c>
       <c r="E464" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="F464" t="s">
         <v>1059</v>
@@ -17646,13 +17646,13 @@
         <v>9</v>
       </c>
       <c r="D465" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="E465" t="s">
-        <v>1086</v>
+        <v>1058</v>
       </c>
       <c r="F465" t="s">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="G465" t="s">
         <v>34</v>
@@ -17672,10 +17672,10 @@
         <v>1089</v>
       </c>
       <c r="E466" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F466" t="s">
         <v>1090</v>
-      </c>
-      <c r="F466" t="s">
-        <v>1059</v>
       </c>
       <c r="G466" t="s">
         <v>34</v>
@@ -17718,10 +17718,10 @@
         <v>1095</v>
       </c>
       <c r="E468" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F468" t="s">
         <v>1096</v>
-      </c>
-      <c r="F468" t="s">
-        <v>1059</v>
       </c>
       <c r="G468" t="s">
         <v>34</v>
@@ -17807,13 +17807,13 @@
         <v>9</v>
       </c>
       <c r="D472" t="s">
-        <v>1079</v>
+        <v>1105</v>
       </c>
       <c r="E472" t="s">
-        <v>1105</v>
+        <v>1058</v>
       </c>
       <c r="F472" t="s">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="G472" t="s">
         <v>34</v>
@@ -18152,10 +18152,10 @@
         <v>9</v>
       </c>
       <c r="D487" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E487" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F487" t="s">
         <v>1136</v>
@@ -18244,13 +18244,13 @@
         <v>182</v>
       </c>
       <c r="D491" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="E491" t="s">
         <v>1135</v>
       </c>
       <c r="F491" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
       <c r="G491" t="s">
         <v>25</v>
@@ -18290,13 +18290,13 @@
         <v>9</v>
       </c>
       <c r="D493" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F493" t="s">
         <v>1153</v>
-      </c>
-      <c r="E493" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F493" t="s">
-        <v>1136</v>
       </c>
       <c r="G493" t="s">
         <v>16</v>
@@ -18313,13 +18313,13 @@
         <v>182</v>
       </c>
       <c r="D494" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F494" t="s">
         <v>1153</v>
-      </c>
-      <c r="E494" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F494" t="s">
-        <v>1136</v>
       </c>
       <c r="G494" t="s">
         <v>20</v>
@@ -18382,10 +18382,10 @@
         <v>9</v>
       </c>
       <c r="D497" t="s">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="E497" t="s">
-        <v>1162</v>
+        <v>1135</v>
       </c>
       <c r="F497" t="s">
         <v>1136</v>
@@ -18474,10 +18474,10 @@
         <v>182</v>
       </c>
       <c r="D501" t="s">
-        <v>1134</v>
+        <v>1171</v>
       </c>
       <c r="E501" t="s">
-        <v>1171</v>
+        <v>1135</v>
       </c>
       <c r="F501" t="s">
         <v>1136</v>
@@ -18592,10 +18592,10 @@
         <v>1182</v>
       </c>
       <c r="E506" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F506" t="s">
         <v>1183</v>
-      </c>
-      <c r="F506" t="s">
-        <v>1136</v>
       </c>
       <c r="G506" t="s">
         <v>34</v>
@@ -18615,10 +18615,10 @@
         <v>1186</v>
       </c>
       <c r="E507" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F507" t="s">
         <v>1187</v>
-      </c>
-      <c r="F507" t="s">
-        <v>1136</v>
       </c>
       <c r="G507" t="s">
         <v>1060</v>
@@ -18635,13 +18635,13 @@
         <v>182</v>
       </c>
       <c r="D508" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F508" t="s">
         <v>1190</v>
-      </c>
-      <c r="E508" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F508" t="s">
-        <v>1136</v>
       </c>
       <c r="G508" t="s">
         <v>25</v>
@@ -18661,10 +18661,10 @@
         <v>1193</v>
       </c>
       <c r="E509" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F509" t="s">
         <v>1194</v>
-      </c>
-      <c r="F509" t="s">
-        <v>1136</v>
       </c>
       <c r="G509" t="s">
         <v>34</v>
@@ -18704,10 +18704,10 @@
         <v>9</v>
       </c>
       <c r="D511" t="s">
-        <v>1134</v>
+        <v>1199</v>
       </c>
       <c r="E511" t="s">
-        <v>1199</v>
+        <v>1135</v>
       </c>
       <c r="F511" t="s">
         <v>1136</v>
@@ -18727,13 +18727,13 @@
         <v>182</v>
       </c>
       <c r="D512" t="s">
-        <v>1202</v>
+        <v>1134</v>
       </c>
       <c r="E512" t="s">
         <v>1135</v>
       </c>
       <c r="F512" t="s">
-        <v>1136</v>
+        <v>1202</v>
       </c>
       <c r="G512" t="s">
         <v>25</v>
@@ -18911,10 +18911,10 @@
         <v>182</v>
       </c>
       <c r="D520" t="s">
-        <v>1134</v>
+        <v>1219</v>
       </c>
       <c r="E520" t="s">
-        <v>1219</v>
+        <v>1135</v>
       </c>
       <c r="F520" t="s">
         <v>1136</v>
@@ -18934,10 +18934,10 @@
         <v>182</v>
       </c>
       <c r="D521" t="s">
-        <v>1134</v>
+        <v>1222</v>
       </c>
       <c r="E521" t="s">
-        <v>1222</v>
+        <v>1135</v>
       </c>
       <c r="F521" t="s">
         <v>1136</v>
@@ -18957,10 +18957,10 @@
         <v>9</v>
       </c>
       <c r="D522" t="s">
-        <v>1134</v>
+        <v>1225</v>
       </c>
       <c r="E522" t="s">
-        <v>1225</v>
+        <v>1135</v>
       </c>
       <c r="F522" t="s">
         <v>1136</v>
@@ -19003,10 +19003,10 @@
         <v>9</v>
       </c>
       <c r="D524" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E524" t="s">
         <v>1230</v>
-      </c>
-      <c r="E524" t="s">
-        <v>1139</v>
       </c>
       <c r="F524" t="s">
         <v>1231</v>
@@ -19026,10 +19026,10 @@
         <v>9</v>
       </c>
       <c r="D525" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E525" t="s">
         <v>1230</v>
-      </c>
-      <c r="E525" t="s">
-        <v>1139</v>
       </c>
       <c r="F525" t="s">
         <v>1231</v>
@@ -19049,10 +19049,10 @@
         <v>9</v>
       </c>
       <c r="D526" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E526" t="s">
         <v>1230</v>
-      </c>
-      <c r="E526" t="s">
-        <v>1139</v>
       </c>
       <c r="F526" t="s">
         <v>1231</v>
@@ -19072,10 +19072,10 @@
         <v>9</v>
       </c>
       <c r="D527" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E527" t="s">
         <v>1230</v>
-      </c>
-      <c r="E527" t="s">
-        <v>1139</v>
       </c>
       <c r="F527" t="s">
         <v>1231</v>
@@ -19095,10 +19095,10 @@
         <v>9</v>
       </c>
       <c r="D528" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E528" t="s">
         <v>1230</v>
-      </c>
-      <c r="E528" t="s">
-        <v>1241</v>
       </c>
       <c r="F528" t="s">
         <v>1231</v>
@@ -19118,13 +19118,13 @@
         <v>9</v>
       </c>
       <c r="D529" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F529" t="s">
         <v>1244</v>
-      </c>
-      <c r="E529" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F529" t="s">
-        <v>1231</v>
       </c>
       <c r="G529" t="s">
         <v>1232</v>
@@ -19141,10 +19141,10 @@
         <v>9</v>
       </c>
       <c r="D530" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E530" t="s">
         <v>1230</v>
-      </c>
-      <c r="E530" t="s">
-        <v>1139</v>
       </c>
       <c r="F530" t="s">
         <v>1231</v>
@@ -19164,10 +19164,10 @@
         <v>9</v>
       </c>
       <c r="D531" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E531" t="s">
         <v>1230</v>
-      </c>
-      <c r="E531" t="s">
-        <v>1139</v>
       </c>
       <c r="F531" t="s">
         <v>1231</v>
@@ -19187,10 +19187,10 @@
         <v>9</v>
       </c>
       <c r="D532" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E532" t="s">
         <v>1230</v>
-      </c>
-      <c r="E532" t="s">
-        <v>1139</v>
       </c>
       <c r="F532" t="s">
         <v>1231</v>
@@ -19210,10 +19210,10 @@
         <v>9</v>
       </c>
       <c r="D533" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E533" t="s">
         <v>1230</v>
-      </c>
-      <c r="E533" t="s">
-        <v>1139</v>
       </c>
       <c r="F533" t="s">
         <v>1231</v>
@@ -19233,10 +19233,10 @@
         <v>9</v>
       </c>
       <c r="D534" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E534" t="s">
         <v>1230</v>
-      </c>
-      <c r="E534" t="s">
-        <v>1139</v>
       </c>
       <c r="F534" t="s">
         <v>1231</v>
@@ -19256,10 +19256,10 @@
         <v>9</v>
       </c>
       <c r="D535" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E535" t="s">
         <v>1230</v>
-      </c>
-      <c r="E535" t="s">
-        <v>1257</v>
       </c>
       <c r="F535" t="s">
         <v>1231</v>
@@ -19279,10 +19279,10 @@
         <v>9</v>
       </c>
       <c r="D536" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E536" t="s">
         <v>1230</v>
-      </c>
-      <c r="E536" t="s">
-        <v>1260</v>
       </c>
       <c r="F536" t="s">
         <v>1231</v>
@@ -19302,10 +19302,10 @@
         <v>9</v>
       </c>
       <c r="D537" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E537" t="s">
         <v>1230</v>
-      </c>
-      <c r="E537" t="s">
-        <v>1139</v>
       </c>
       <c r="F537" t="s">
         <v>1231</v>
@@ -19325,10 +19325,10 @@
         <v>9</v>
       </c>
       <c r="D538" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E538" t="s">
         <v>1230</v>
-      </c>
-      <c r="E538" t="s">
-        <v>1139</v>
       </c>
       <c r="F538" t="s">
         <v>1231</v>
@@ -19348,13 +19348,13 @@
         <v>9</v>
       </c>
       <c r="D539" t="s">
-        <v>1193</v>
+        <v>1139</v>
       </c>
       <c r="E539" t="s">
-        <v>1139</v>
+        <v>1230</v>
       </c>
       <c r="F539" t="s">
-        <v>1231</v>
+        <v>1194</v>
       </c>
       <c r="G539" t="s">
         <v>1232</v>
@@ -19371,10 +19371,10 @@
         <v>9</v>
       </c>
       <c r="D540" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E540" t="s">
         <v>1230</v>
-      </c>
-      <c r="E540" t="s">
-        <v>1139</v>
       </c>
       <c r="F540" t="s">
         <v>1231</v>
@@ -19394,10 +19394,10 @@
         <v>9</v>
       </c>
       <c r="D541" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E541" t="s">
         <v>1230</v>
-      </c>
-      <c r="E541" t="s">
-        <v>1139</v>
       </c>
       <c r="F541" t="s">
         <v>1231</v>
@@ -19417,10 +19417,10 @@
         <v>9</v>
       </c>
       <c r="D542" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E542" t="s">
         <v>1230</v>
-      </c>
-      <c r="E542" t="s">
-        <v>1139</v>
       </c>
       <c r="F542" t="s">
         <v>1231</v>
@@ -19440,10 +19440,10 @@
         <v>9</v>
       </c>
       <c r="D543" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E543" t="s">
         <v>1230</v>
-      </c>
-      <c r="E543" t="s">
-        <v>1139</v>
       </c>
       <c r="F543" t="s">
         <v>1231</v>
@@ -19463,13 +19463,13 @@
         <v>9</v>
       </c>
       <c r="D544" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F544" t="s">
         <v>1277</v>
-      </c>
-      <c r="E544" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F544" t="s">
-        <v>1231</v>
       </c>
       <c r="G544" t="s">
         <v>16</v>
@@ -19486,10 +19486,10 @@
         <v>9</v>
       </c>
       <c r="D545" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E545" t="s">
         <v>1230</v>
-      </c>
-      <c r="E545" t="s">
-        <v>1139</v>
       </c>
       <c r="F545" t="s">
         <v>1231</v>
@@ -19509,10 +19509,10 @@
         <v>9</v>
       </c>
       <c r="D546" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E546" t="s">
         <v>1230</v>
-      </c>
-      <c r="E546" t="s">
-        <v>1139</v>
       </c>
       <c r="F546" t="s">
         <v>1231</v>
@@ -19555,10 +19555,10 @@
         <v>9</v>
       </c>
       <c r="D548" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="E548" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F548" t="s">
         <v>1286</v>
@@ -19578,10 +19578,10 @@
         <v>9</v>
       </c>
       <c r="D549" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="E549" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="F549" t="s">
         <v>1286</v>
@@ -19670,13 +19670,13 @@
         <v>9</v>
       </c>
       <c r="D553" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="E553" t="s">
         <v>1285</v>
       </c>
       <c r="F553" t="s">
-        <v>1286</v>
+        <v>1301</v>
       </c>
       <c r="G553" t="s">
         <v>1232</v>
@@ -19765,10 +19765,10 @@
         <v>1310</v>
       </c>
       <c r="E557" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F557" t="s">
         <v>1311</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1286</v>
       </c>
       <c r="G557" t="s">
         <v>34</v>
@@ -19808,10 +19808,10 @@
         <v>9</v>
       </c>
       <c r="D559" t="s">
-        <v>1284</v>
+        <v>1316</v>
       </c>
       <c r="E559" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="F559" t="s">
         <v>1286</v>
@@ -19831,10 +19831,10 @@
         <v>9</v>
       </c>
       <c r="D560" t="s">
-        <v>1284</v>
+        <v>1316</v>
       </c>
       <c r="E560" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="F560" t="s">
         <v>1286</v>
@@ -19877,13 +19877,13 @@
         <v>9</v>
       </c>
       <c r="D562" t="s">
-        <v>1323</v>
+        <v>1284</v>
       </c>
       <c r="E562" t="s">
         <v>1285</v>
       </c>
       <c r="F562" t="s">
-        <v>1286</v>
+        <v>1323</v>
       </c>
       <c r="G562" t="s">
         <v>20</v>
@@ -20018,10 +20018,10 @@
         <v>1336</v>
       </c>
       <c r="E568" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F568" t="s">
         <v>1337</v>
-      </c>
-      <c r="F568" t="s">
-        <v>1286</v>
       </c>
       <c r="G568" t="s">
         <v>1232</v>
@@ -20107,13 +20107,13 @@
         <v>9</v>
       </c>
       <c r="D572" t="s">
-        <v>1230</v>
+        <v>1346</v>
       </c>
       <c r="E572" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F572" t="s">
-        <v>1347</v>
+        <v>1231</v>
       </c>
       <c r="G572" t="s">
         <v>1232</v>
@@ -20130,13 +20130,13 @@
         <v>9</v>
       </c>
       <c r="D573" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F573" t="s">
         <v>1350</v>
-      </c>
-      <c r="E573" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F573" t="s">
-        <v>1347</v>
       </c>
       <c r="G573" t="s">
         <v>1232</v>
@@ -20153,13 +20153,13 @@
         <v>9</v>
       </c>
       <c r="D574" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F574" t="s">
         <v>1350</v>
-      </c>
-      <c r="E574" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F574" t="s">
-        <v>1347</v>
       </c>
       <c r="G574" t="s">
         <v>1232</v>
@@ -20176,13 +20176,13 @@
         <v>9</v>
       </c>
       <c r="D575" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F575" t="s">
         <v>1350</v>
-      </c>
-      <c r="E575" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F575" t="s">
-        <v>1347</v>
       </c>
       <c r="G575" t="s">
         <v>1232</v>
@@ -20199,13 +20199,13 @@
         <v>9</v>
       </c>
       <c r="D576" t="s">
-        <v>1284</v>
+        <v>1346</v>
       </c>
       <c r="E576" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F576" t="s">
-        <v>1347</v>
+        <v>1286</v>
       </c>
       <c r="G576" t="s">
         <v>1232</v>
@@ -20222,13 +20222,13 @@
         <v>9</v>
       </c>
       <c r="D577" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F577" t="s">
         <v>1350</v>
-      </c>
-      <c r="E577" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F577" t="s">
-        <v>1347</v>
       </c>
       <c r="G577" t="s">
         <v>1232</v>
@@ -20248,10 +20248,10 @@
         <v>1362</v>
       </c>
       <c r="E578" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F578" t="s">
         <v>1363</v>
-      </c>
-      <c r="F578" t="s">
-        <v>1347</v>
       </c>
       <c r="G578" t="s">
         <v>34</v>
@@ -20268,13 +20268,13 @@
         <v>9</v>
       </c>
       <c r="D579" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F579" t="s">
         <v>1350</v>
-      </c>
-      <c r="E579" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F579" t="s">
-        <v>1347</v>
       </c>
       <c r="G579" t="s">
         <v>1232</v>
@@ -20291,13 +20291,13 @@
         <v>9</v>
       </c>
       <c r="D580" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F580" t="s">
         <v>1350</v>
-      </c>
-      <c r="E580" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F580" t="s">
-        <v>1347</v>
       </c>
       <c r="G580" t="s">
         <v>20</v>
@@ -20314,13 +20314,13 @@
         <v>9</v>
       </c>
       <c r="D581" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F581" t="s">
         <v>1350</v>
-      </c>
-      <c r="E581" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1347</v>
       </c>
       <c r="G581" t="s">
         <v>20</v>
@@ -20340,10 +20340,10 @@
         <v>1374</v>
       </c>
       <c r="E582" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F582" t="s">
         <v>1375</v>
-      </c>
-      <c r="F582" t="s">
-        <v>1347</v>
       </c>
       <c r="G582" t="s">
         <v>34</v>
@@ -20363,10 +20363,10 @@
         <v>1378</v>
       </c>
       <c r="E583" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F583" t="s">
         <v>1379</v>
-      </c>
-      <c r="F583" t="s">
-        <v>1347</v>
       </c>
       <c r="G583" t="s">
         <v>34</v>
@@ -20383,13 +20383,13 @@
         <v>9</v>
       </c>
       <c r="D584" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F584" t="s">
         <v>1350</v>
-      </c>
-      <c r="E584" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F584" t="s">
-        <v>1347</v>
       </c>
       <c r="G584" t="s">
         <v>1232</v>
@@ -20409,10 +20409,10 @@
         <v>1384</v>
       </c>
       <c r="E585" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F585" t="s">
         <v>1385</v>
-      </c>
-      <c r="F585" t="s">
-        <v>1347</v>
       </c>
       <c r="G585" t="s">
         <v>34</v>
@@ -20429,13 +20429,13 @@
         <v>9</v>
       </c>
       <c r="D586" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F586" t="s">
         <v>1350</v>
-      </c>
-      <c r="E586" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F586" t="s">
-        <v>1347</v>
       </c>
       <c r="G586" t="s">
         <v>16</v>
@@ -20452,13 +20452,13 @@
         <v>9</v>
       </c>
       <c r="D587" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F587" t="s">
         <v>1350</v>
-      </c>
-      <c r="E587" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F587" t="s">
-        <v>1347</v>
       </c>
       <c r="G587" t="s">
         <v>1232</v>
@@ -20475,13 +20475,13 @@
         <v>9</v>
       </c>
       <c r="D588" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F588" t="s">
         <v>1350</v>
-      </c>
-      <c r="E588" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F588" t="s">
-        <v>1347</v>
       </c>
       <c r="G588" t="s">
         <v>1232</v>
@@ -20498,13 +20498,13 @@
         <v>9</v>
       </c>
       <c r="D589" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F589" t="s">
         <v>1350</v>
-      </c>
-      <c r="E589" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F589" t="s">
-        <v>1347</v>
       </c>
       <c r="G589" t="s">
         <v>34</v>
@@ -20521,13 +20521,13 @@
         <v>9</v>
       </c>
       <c r="D590" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F590" t="s">
         <v>1350</v>
-      </c>
-      <c r="E590" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1347</v>
       </c>
       <c r="G590" t="s">
         <v>20</v>
@@ -20544,13 +20544,13 @@
         <v>9</v>
       </c>
       <c r="D591" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F591" t="s">
         <v>1400</v>
-      </c>
-      <c r="E591" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F591" t="s">
-        <v>1347</v>
       </c>
       <c r="G591" t="s">
         <v>1232</v>
@@ -20567,13 +20567,13 @@
         <v>9</v>
       </c>
       <c r="D592" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F592" t="s">
         <v>1350</v>
-      </c>
-      <c r="E592" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F592" t="s">
-        <v>1347</v>
       </c>
       <c r="G592" t="s">
         <v>16</v>
@@ -20590,13 +20590,13 @@
         <v>9</v>
       </c>
       <c r="D593" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F593" t="s">
         <v>1350</v>
-      </c>
-      <c r="E593" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F593" t="s">
-        <v>1347</v>
       </c>
       <c r="G593" t="s">
         <v>1232</v>
@@ -20613,13 +20613,13 @@
         <v>9</v>
       </c>
       <c r="D594" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F594" t="s">
         <v>1350</v>
-      </c>
-      <c r="E594" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1347</v>
       </c>
       <c r="G594" t="s">
         <v>1232</v>
@@ -20636,13 +20636,13 @@
         <v>9</v>
       </c>
       <c r="D595" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F595" t="s">
         <v>1350</v>
-      </c>
-      <c r="E595" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F595" t="s">
-        <v>1347</v>
       </c>
       <c r="G595" t="s">
         <v>1232</v>
@@ -20685,10 +20685,10 @@
         <v>1416</v>
       </c>
       <c r="E597" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F597" t="s">
         <v>1417</v>
-      </c>
-      <c r="F597" t="s">
-        <v>1413</v>
       </c>
       <c r="G597" t="s">
         <v>20</v>
@@ -20777,10 +20777,10 @@
         <v>1426</v>
       </c>
       <c r="E601" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F601" t="s">
         <v>1427</v>
-      </c>
-      <c r="F601" t="s">
-        <v>1413</v>
       </c>
       <c r="G601" t="s">
         <v>34</v>
@@ -20800,10 +20800,10 @@
         <v>1430</v>
       </c>
       <c r="E602" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F602" t="s">
         <v>1431</v>
-      </c>
-      <c r="F602" t="s">
-        <v>1413</v>
       </c>
       <c r="G602" t="s">
         <v>34</v>
@@ -20823,10 +20823,10 @@
         <v>1434</v>
       </c>
       <c r="E603" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F603" t="s">
         <v>1435</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1413</v>
       </c>
       <c r="G603" t="s">
         <v>1232</v>
@@ -20843,10 +20843,10 @@
         <v>9</v>
       </c>
       <c r="D604" t="s">
-        <v>1411</v>
+        <v>1438</v>
       </c>
       <c r="E604" t="s">
-        <v>1438</v>
+        <v>1412</v>
       </c>
       <c r="F604" t="s">
         <v>1413</v>
@@ -20915,10 +20915,10 @@
         <v>1445</v>
       </c>
       <c r="E607" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F607" t="s">
         <v>1446</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1413</v>
       </c>
       <c r="G607" t="s">
         <v>34</v>
@@ -20935,13 +20935,13 @@
         <v>9</v>
       </c>
       <c r="D608" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F608" t="s">
         <v>1388</v>
-      </c>
-      <c r="E608" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F608" t="s">
-        <v>1413</v>
       </c>
       <c r="G608" t="s">
         <v>1232</v>
@@ -20981,13 +20981,13 @@
         <v>9</v>
       </c>
       <c r="D610" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F610" t="s">
         <v>1454</v>
-      </c>
-      <c r="E610" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F610" t="s">
-        <v>1413</v>
       </c>
       <c r="G610" t="s">
         <v>34</v>
@@ -21004,10 +21004,10 @@
         <v>9</v>
       </c>
       <c r="D611" t="s">
-        <v>1411</v>
+        <v>1457</v>
       </c>
       <c r="E611" t="s">
-        <v>1457</v>
+        <v>1412</v>
       </c>
       <c r="F611" t="s">
         <v>1413</v>
@@ -21050,10 +21050,10 @@
         <v>9</v>
       </c>
       <c r="D613" t="s">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="E613" t="s">
-        <v>1462</v>
+        <v>1412</v>
       </c>
       <c r="F613" t="s">
         <v>1413</v>
@@ -21283,10 +21283,10 @@
         <v>1486</v>
       </c>
       <c r="E623" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F623" t="s">
         <v>1487</v>
-      </c>
-      <c r="F623" t="s">
-        <v>1483</v>
       </c>
       <c r="G623" t="s">
         <v>34</v>
@@ -21372,13 +21372,13 @@
         <v>9</v>
       </c>
       <c r="D627" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="E627" t="s">
         <v>1482</v>
       </c>
       <c r="F627" t="s">
-        <v>1483</v>
+        <v>1496</v>
       </c>
       <c r="G627" t="s">
         <v>1232</v>
@@ -21395,10 +21395,10 @@
         <v>9</v>
       </c>
       <c r="D628" t="s">
-        <v>1481</v>
+        <v>1499</v>
       </c>
       <c r="E628" t="s">
-        <v>1499</v>
+        <v>1482</v>
       </c>
       <c r="F628" t="s">
         <v>1483</v>
@@ -21464,13 +21464,13 @@
         <v>9</v>
       </c>
       <c r="D631" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F631" t="s">
         <v>1506</v>
-      </c>
-      <c r="E631" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F631" t="s">
-        <v>1483</v>
       </c>
       <c r="G631" t="s">
         <v>34</v>
@@ -21490,10 +21490,10 @@
         <v>1509</v>
       </c>
       <c r="E632" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F632" t="s">
         <v>1510</v>
-      </c>
-      <c r="F632" t="s">
-        <v>1483</v>
       </c>
       <c r="G632" t="s">
         <v>34</v>
@@ -21513,10 +21513,10 @@
         <v>1513</v>
       </c>
       <c r="E633" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F633" t="s">
         <v>1514</v>
-      </c>
-      <c r="F633" t="s">
-        <v>1483</v>
       </c>
       <c r="G633" t="s">
         <v>34</v>
@@ -21556,10 +21556,10 @@
         <v>9</v>
       </c>
       <c r="D635" t="s">
-        <v>1481</v>
+        <v>1519</v>
       </c>
       <c r="E635" t="s">
-        <v>1519</v>
+        <v>1482</v>
       </c>
       <c r="F635" t="s">
         <v>1483</v>
@@ -21582,10 +21582,10 @@
         <v>1522</v>
       </c>
       <c r="E636" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F636" t="s">
         <v>1523</v>
-      </c>
-      <c r="F636" t="s">
-        <v>1483</v>
       </c>
       <c r="G636" t="s">
         <v>34</v>
@@ -21674,10 +21674,10 @@
         <v>1532</v>
       </c>
       <c r="E640" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F640" t="s">
         <v>1533</v>
-      </c>
-      <c r="F640" t="s">
-        <v>1483</v>
       </c>
       <c r="G640" t="s">
         <v>20</v>
@@ -21694,10 +21694,10 @@
         <v>9</v>
       </c>
       <c r="D641" t="s">
-        <v>1481</v>
+        <v>1536</v>
       </c>
       <c r="E641" t="s">
-        <v>1536</v>
+        <v>1482</v>
       </c>
       <c r="F641" t="s">
         <v>1483</v>
@@ -21717,10 +21717,10 @@
         <v>9</v>
       </c>
       <c r="D642" t="s">
-        <v>1481</v>
+        <v>1539</v>
       </c>
       <c r="E642" t="s">
-        <v>1539</v>
+        <v>1482</v>
       </c>
       <c r="F642" t="s">
         <v>1483</v>
@@ -21786,10 +21786,10 @@
         <v>9</v>
       </c>
       <c r="D645" t="s">
-        <v>1481</v>
+        <v>1546</v>
       </c>
       <c r="E645" t="s">
-        <v>1546</v>
+        <v>1482</v>
       </c>
       <c r="F645" t="s">
         <v>1483</v>
@@ -21881,10 +21881,10 @@
         <v>1558</v>
       </c>
       <c r="E649" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F649" t="s">
         <v>1559</v>
-      </c>
-      <c r="F649" t="s">
-        <v>1555</v>
       </c>
       <c r="G649" t="s">
         <v>20</v>
@@ -21901,13 +21901,13 @@
         <v>9</v>
       </c>
       <c r="D650" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="E650" t="s">
         <v>1554</v>
       </c>
       <c r="F650" t="s">
-        <v>1555</v>
+        <v>1562</v>
       </c>
       <c r="G650" t="s">
         <v>34</v>
@@ -21927,10 +21927,10 @@
         <v>1565</v>
       </c>
       <c r="E651" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F651" t="s">
         <v>1566</v>
-      </c>
-      <c r="F651" t="s">
-        <v>1555</v>
       </c>
       <c r="G651" t="s">
         <v>1232</v>
@@ -21950,10 +21950,10 @@
         <v>1565</v>
       </c>
       <c r="E652" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F652" t="s">
         <v>1566</v>
-      </c>
-      <c r="F652" t="s">
-        <v>1555</v>
       </c>
       <c r="G652" t="s">
         <v>1232</v>
@@ -21970,13 +21970,13 @@
         <v>9</v>
       </c>
       <c r="D653" t="s">
-        <v>1481</v>
+        <v>1539</v>
       </c>
       <c r="E653" t="s">
-        <v>1539</v>
+        <v>1554</v>
       </c>
       <c r="F653" t="s">
-        <v>1555</v>
+        <v>1483</v>
       </c>
       <c r="G653" t="s">
         <v>20</v>
@@ -21996,10 +21996,10 @@
         <v>1565</v>
       </c>
       <c r="E654" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F654" t="s">
         <v>1566</v>
-      </c>
-      <c r="F654" t="s">
-        <v>1555</v>
       </c>
       <c r="G654" t="s">
         <v>1232</v>
@@ -22019,10 +22019,10 @@
         <v>1565</v>
       </c>
       <c r="E655" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F655" t="s">
         <v>1566</v>
-      </c>
-      <c r="F655" t="s">
-        <v>1555</v>
       </c>
       <c r="G655" t="s">
         <v>1232</v>
@@ -22042,10 +22042,10 @@
         <v>1577</v>
       </c>
       <c r="E656" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F656" t="s">
         <v>1578</v>
-      </c>
-      <c r="F656" t="s">
-        <v>1555</v>
       </c>
       <c r="G656" t="s">
         <v>20</v>
@@ -22065,10 +22065,10 @@
         <v>1581</v>
       </c>
       <c r="E657" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F657" t="s">
         <v>1582</v>
-      </c>
-      <c r="F657" t="s">
-        <v>1555</v>
       </c>
       <c r="G657" t="s">
         <v>34</v>
@@ -22085,13 +22085,13 @@
         <v>9</v>
       </c>
       <c r="D658" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F658" t="s">
         <v>1585</v>
-      </c>
-      <c r="E658" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F658" t="s">
-        <v>1555</v>
       </c>
       <c r="G658" t="s">
         <v>34</v>
@@ -22111,10 +22111,10 @@
         <v>1588</v>
       </c>
       <c r="E659" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F659" t="s">
         <v>1589</v>
-      </c>
-      <c r="F659" t="s">
-        <v>1555</v>
       </c>
       <c r="G659" t="s">
         <v>34</v>
@@ -22134,10 +22134,10 @@
         <v>1565</v>
       </c>
       <c r="E660" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F660" t="s">
         <v>1566</v>
-      </c>
-      <c r="F660" t="s">
-        <v>1555</v>
       </c>
       <c r="G660" t="s">
         <v>1232</v>
@@ -22154,13 +22154,13 @@
         <v>9</v>
       </c>
       <c r="D661" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="E661" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="F661" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="G661" t="s">
         <v>34</v>
@@ -22180,10 +22180,10 @@
         <v>1596</v>
       </c>
       <c r="E662" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F662" t="s">
         <v>1597</v>
-      </c>
-      <c r="F662" t="s">
-        <v>1555</v>
       </c>
       <c r="G662" t="s">
         <v>34</v>
@@ -22200,13 +22200,13 @@
         <v>9</v>
       </c>
       <c r="D663" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F663" t="s">
         <v>1600</v>
-      </c>
-      <c r="E663" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F663" t="s">
-        <v>1555</v>
       </c>
       <c r="G663" t="s">
         <v>20</v>
@@ -22223,13 +22223,13 @@
         <v>9</v>
       </c>
       <c r="D664" t="s">
-        <v>1565</v>
+        <v>1603</v>
       </c>
       <c r="E664" t="s">
-        <v>1603</v>
+        <v>1554</v>
       </c>
       <c r="F664" t="s">
-        <v>1555</v>
+        <v>1566</v>
       </c>
       <c r="G664" t="s">
         <v>1232</v>
@@ -22246,10 +22246,10 @@
         <v>9</v>
       </c>
       <c r="D665" t="s">
-        <v>1553</v>
+        <v>1603</v>
       </c>
       <c r="E665" t="s">
-        <v>1603</v>
+        <v>1554</v>
       </c>
       <c r="F665" t="s">
         <v>1555</v>
@@ -22272,10 +22272,10 @@
         <v>1608</v>
       </c>
       <c r="E666" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F666" t="s">
         <v>1609</v>
-      </c>
-      <c r="F666" t="s">
-        <v>1555</v>
       </c>
       <c r="G666" t="s">
         <v>34</v>
@@ -22295,10 +22295,10 @@
         <v>1565</v>
       </c>
       <c r="E667" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F667" t="s">
         <v>1566</v>
-      </c>
-      <c r="F667" t="s">
-        <v>1555</v>
       </c>
       <c r="G667" t="s">
         <v>20</v>
@@ -22315,13 +22315,13 @@
         <v>9</v>
       </c>
       <c r="D668" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F668" t="s">
         <v>1585</v>
-      </c>
-      <c r="E668" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F668" t="s">
-        <v>1555</v>
       </c>
       <c r="G668" t="s">
         <v>20</v>
@@ -22341,10 +22341,10 @@
         <v>1565</v>
       </c>
       <c r="E669" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F669" t="s">
         <v>1566</v>
-      </c>
-      <c r="F669" t="s">
-        <v>1555</v>
       </c>
       <c r="G669" t="s">
         <v>1232</v>
@@ -22361,13 +22361,13 @@
         <v>9</v>
       </c>
       <c r="D670" t="s">
-        <v>1618</v>
+        <v>1553</v>
       </c>
       <c r="E670" t="s">
         <v>1554</v>
       </c>
       <c r="F670" t="s">
-        <v>1555</v>
+        <v>1618</v>
       </c>
       <c r="G670" t="s">
         <v>34</v>
@@ -22387,10 +22387,10 @@
         <v>1565</v>
       </c>
       <c r="E671" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F671" t="s">
         <v>1566</v>
-      </c>
-      <c r="F671" t="s">
-        <v>1555</v>
       </c>
       <c r="G671" t="s">
         <v>20</v>
@@ -22410,10 +22410,10 @@
         <v>1565</v>
       </c>
       <c r="E672" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F672" t="s">
         <v>1566</v>
-      </c>
-      <c r="F672" t="s">
-        <v>1555</v>
       </c>
       <c r="G672" t="s">
         <v>1232</v>
@@ -22430,13 +22430,13 @@
         <v>9</v>
       </c>
       <c r="D673" t="s">
-        <v>1588</v>
+        <v>1539</v>
       </c>
       <c r="E673" t="s">
-        <v>1539</v>
+        <v>1554</v>
       </c>
       <c r="F673" t="s">
-        <v>1555</v>
+        <v>1589</v>
       </c>
       <c r="G673" t="s">
         <v>20</v>
@@ -22453,13 +22453,13 @@
         <v>9</v>
       </c>
       <c r="D674" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="E674" t="s">
         <v>1554</v>
       </c>
       <c r="F674" t="s">
-        <v>1555</v>
+        <v>1562</v>
       </c>
       <c r="G674" t="s">
         <v>34</v>
@@ -22476,13 +22476,13 @@
         <v>9</v>
       </c>
       <c r="D675" t="s">
-        <v>1565</v>
+        <v>1629</v>
       </c>
       <c r="E675" t="s">
-        <v>1629</v>
+        <v>1554</v>
       </c>
       <c r="F675" t="s">
-        <v>1555</v>
+        <v>1566</v>
       </c>
       <c r="G675" t="s">
         <v>20</v>
@@ -22502,10 +22502,10 @@
         <v>1565</v>
       </c>
       <c r="E676" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F676" t="s">
         <v>1566</v>
-      </c>
-      <c r="F676" t="s">
-        <v>1555</v>
       </c>
       <c r="G676" t="s">
         <v>1232</v>
@@ -22525,10 +22525,10 @@
         <v>1565</v>
       </c>
       <c r="E677" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F677" t="s">
         <v>1566</v>
-      </c>
-      <c r="F677" t="s">
-        <v>1555</v>
       </c>
       <c r="G677" t="s">
         <v>1232</v>
@@ -22548,10 +22548,10 @@
         <v>1588</v>
       </c>
       <c r="E678" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F678" t="s">
         <v>1589</v>
-      </c>
-      <c r="F678" t="s">
-        <v>1555</v>
       </c>
       <c r="G678" t="s">
         <v>34</v>
@@ -22571,10 +22571,10 @@
         <v>1565</v>
       </c>
       <c r="E679" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F679" t="s">
         <v>1566</v>
-      </c>
-      <c r="F679" t="s">
-        <v>1555</v>
       </c>
       <c r="G679" t="s">
         <v>1232</v>
@@ -22594,10 +22594,10 @@
         <v>1565</v>
       </c>
       <c r="E680" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F680" t="s">
         <v>1566</v>
-      </c>
-      <c r="F680" t="s">
-        <v>1555</v>
       </c>
       <c r="G680" t="s">
         <v>1232</v>
@@ -22640,10 +22640,10 @@
         <v>1647</v>
       </c>
       <c r="E682" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F682" t="s">
         <v>1648</v>
-      </c>
-      <c r="F682" t="s">
-        <v>1644</v>
       </c>
       <c r="G682" t="s">
         <v>34</v>
@@ -22663,10 +22663,10 @@
         <v>1651</v>
       </c>
       <c r="E683" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F683" t="s">
         <v>1652</v>
-      </c>
-      <c r="F683" t="s">
-        <v>1644</v>
       </c>
       <c r="G683" t="s">
         <v>1232</v>
@@ -22686,10 +22686,10 @@
         <v>1651</v>
       </c>
       <c r="E684" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F684" t="s">
         <v>1652</v>
-      </c>
-      <c r="F684" t="s">
-        <v>1644</v>
       </c>
       <c r="G684" t="s">
         <v>1232</v>
@@ -22709,10 +22709,10 @@
         <v>1651</v>
       </c>
       <c r="E685" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F685" t="s">
         <v>1652</v>
-      </c>
-      <c r="F685" t="s">
-        <v>1644</v>
       </c>
       <c r="G685" t="s">
         <v>1232</v>
@@ -22732,10 +22732,10 @@
         <v>1651</v>
       </c>
       <c r="E686" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F686" t="s">
         <v>1652</v>
-      </c>
-      <c r="F686" t="s">
-        <v>1644</v>
       </c>
       <c r="G686" t="s">
         <v>1232</v>
@@ -22755,10 +22755,10 @@
         <v>1651</v>
       </c>
       <c r="E687" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F687" t="s">
         <v>1652</v>
-      </c>
-      <c r="F687" t="s">
-        <v>1644</v>
       </c>
       <c r="G687" t="s">
         <v>1232</v>
@@ -22775,13 +22775,13 @@
         <v>9</v>
       </c>
       <c r="D688" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F688" t="s">
         <v>1663</v>
-      </c>
-      <c r="E688" t="s">
-        <v>1648</v>
-      </c>
-      <c r="F688" t="s">
-        <v>1644</v>
       </c>
       <c r="G688" t="s">
         <v>34</v>
@@ -22801,10 +22801,10 @@
         <v>1666</v>
       </c>
       <c r="E689" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F689" t="s">
         <v>1667</v>
-      </c>
-      <c r="F689" t="s">
-        <v>1644</v>
       </c>
       <c r="G689" t="s">
         <v>34</v>
@@ -22824,10 +22824,10 @@
         <v>1651</v>
       </c>
       <c r="E690" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F690" t="s">
         <v>1652</v>
-      </c>
-      <c r="F690" t="s">
-        <v>1644</v>
       </c>
       <c r="G690" t="s">
         <v>16</v>
@@ -22844,13 +22844,13 @@
         <v>9</v>
       </c>
       <c r="D691" t="s">
-        <v>1565</v>
+        <v>1672</v>
       </c>
       <c r="E691" t="s">
-        <v>1672</v>
+        <v>1643</v>
       </c>
       <c r="F691" t="s">
-        <v>1644</v>
+        <v>1566</v>
       </c>
       <c r="G691" t="s">
         <v>20</v>
@@ -22870,10 +22870,10 @@
         <v>1675</v>
       </c>
       <c r="E692" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F692" t="s">
         <v>1676</v>
-      </c>
-      <c r="F692" t="s">
-        <v>1644</v>
       </c>
       <c r="G692" t="s">
         <v>34</v>
@@ -22893,10 +22893,10 @@
         <v>1679</v>
       </c>
       <c r="E693" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F693" t="s">
         <v>1680</v>
-      </c>
-      <c r="F693" t="s">
-        <v>1644</v>
       </c>
       <c r="G693" t="s">
         <v>20</v>
@@ -22916,10 +22916,10 @@
         <v>1683</v>
       </c>
       <c r="E694" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F694" t="s">
         <v>1684</v>
-      </c>
-      <c r="F694" t="s">
-        <v>1644</v>
       </c>
       <c r="G694" t="s">
         <v>34</v>
@@ -22939,10 +22939,10 @@
         <v>1651</v>
       </c>
       <c r="E695" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F695" t="s">
         <v>1652</v>
-      </c>
-      <c r="F695" t="s">
-        <v>1644</v>
       </c>
       <c r="G695" t="s">
         <v>1232</v>
@@ -22962,10 +22962,10 @@
         <v>1689</v>
       </c>
       <c r="E696" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F696" t="s">
         <v>1690</v>
-      </c>
-      <c r="F696" t="s">
-        <v>1644</v>
       </c>
       <c r="G696" t="s">
         <v>34</v>
@@ -22985,10 +22985,10 @@
         <v>1693</v>
       </c>
       <c r="E697" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F697" t="s">
         <v>1694</v>
-      </c>
-      <c r="F697" t="s">
-        <v>1644</v>
       </c>
       <c r="G697" t="s">
         <v>34</v>
@@ -23008,10 +23008,10 @@
         <v>1651</v>
       </c>
       <c r="E698" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F698" t="s">
         <v>1652</v>
-      </c>
-      <c r="F698" t="s">
-        <v>1644</v>
       </c>
       <c r="G698" t="s">
         <v>20</v>
@@ -23031,10 +23031,10 @@
         <v>1699</v>
       </c>
       <c r="E699" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F699" t="s">
         <v>1700</v>
-      </c>
-      <c r="F699" t="s">
-        <v>1644</v>
       </c>
       <c r="G699" t="s">
         <v>34</v>
@@ -23054,10 +23054,10 @@
         <v>1651</v>
       </c>
       <c r="E700" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F700" t="s">
         <v>1652</v>
-      </c>
-      <c r="F700" t="s">
-        <v>1644</v>
       </c>
       <c r="G700" t="s">
         <v>20</v>
@@ -23077,10 +23077,10 @@
         <v>1705</v>
       </c>
       <c r="E701" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F701" t="s">
         <v>1706</v>
-      </c>
-      <c r="F701" t="s">
-        <v>1644</v>
       </c>
       <c r="G701" t="s">
         <v>34</v>
@@ -23097,13 +23097,13 @@
         <v>9</v>
       </c>
       <c r="D702" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="E702" t="s">
-        <v>1709</v>
+        <v>1643</v>
       </c>
       <c r="F702" t="s">
-        <v>1644</v>
+        <v>1700</v>
       </c>
       <c r="G702" t="s">
         <v>34</v>
@@ -23123,10 +23123,10 @@
         <v>1651</v>
       </c>
       <c r="E703" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F703" t="s">
         <v>1652</v>
-      </c>
-      <c r="F703" t="s">
-        <v>1644</v>
       </c>
       <c r="G703" t="s">
         <v>1232</v>
@@ -23143,13 +23143,13 @@
         <v>9</v>
       </c>
       <c r="D704" t="s">
-        <v>1693</v>
+        <v>1714</v>
       </c>
       <c r="E704" t="s">
-        <v>1714</v>
+        <v>1643</v>
       </c>
       <c r="F704" t="s">
-        <v>1644</v>
+        <v>1694</v>
       </c>
       <c r="G704" t="s">
         <v>20</v>
@@ -23169,10 +23169,10 @@
         <v>1651</v>
       </c>
       <c r="E705" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F705" t="s">
         <v>1652</v>
-      </c>
-      <c r="F705" t="s">
-        <v>1644</v>
       </c>
       <c r="G705" t="s">
         <v>1232</v>
@@ -23189,13 +23189,13 @@
         <v>9</v>
       </c>
       <c r="D706" t="s">
-        <v>1693</v>
+        <v>1651</v>
       </c>
       <c r="E706" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="F706" t="s">
-        <v>1644</v>
+        <v>1694</v>
       </c>
       <c r="G706" t="s">
         <v>20</v>
@@ -23212,13 +23212,13 @@
         <v>9</v>
       </c>
       <c r="D707" t="s">
-        <v>1647</v>
+        <v>1721</v>
       </c>
       <c r="E707" t="s">
-        <v>1721</v>
+        <v>1643</v>
       </c>
       <c r="F707" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="G707" t="s">
         <v>34</v>
@@ -23238,10 +23238,10 @@
         <v>1651</v>
       </c>
       <c r="E708" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F708" t="s">
         <v>1652</v>
-      </c>
-      <c r="F708" t="s">
-        <v>1644</v>
       </c>
       <c r="G708" t="s">
         <v>1232</v>
@@ -23261,10 +23261,10 @@
         <v>1726</v>
       </c>
       <c r="E709" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F709" t="s">
         <v>1727</v>
-      </c>
-      <c r="F709" t="s">
-        <v>1644</v>
       </c>
       <c r="G709" t="s">
         <v>34</v>
@@ -23281,13 +23281,13 @@
         <v>9</v>
       </c>
       <c r="D710" t="s">
-        <v>1693</v>
+        <v>1651</v>
       </c>
       <c r="E710" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="F710" t="s">
-        <v>1644</v>
+        <v>1694</v>
       </c>
       <c r="G710" t="s">
         <v>1232</v>
@@ -23307,10 +23307,10 @@
         <v>1651</v>
       </c>
       <c r="E711" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F711" t="s">
         <v>1652</v>
-      </c>
-      <c r="F711" t="s">
-        <v>1644</v>
       </c>
       <c r="G711" t="s">
         <v>1232</v>
@@ -23330,10 +23330,10 @@
         <v>1666</v>
       </c>
       <c r="E712" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F712" t="s">
         <v>1667</v>
-      </c>
-      <c r="F712" t="s">
-        <v>1644</v>
       </c>
       <c r="G712" t="s">
         <v>34</v>
@@ -23353,10 +23353,10 @@
         <v>1651</v>
       </c>
       <c r="E713" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F713" t="s">
         <v>1652</v>
-      </c>
-      <c r="F713" t="s">
-        <v>1644</v>
       </c>
       <c r="G713" t="s">
         <v>1232</v>
@@ -23373,13 +23373,13 @@
         <v>9</v>
       </c>
       <c r="D714" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="E714" t="s">
-        <v>1690</v>
+        <v>1643</v>
       </c>
       <c r="F714" t="s">
-        <v>1644</v>
+        <v>1694</v>
       </c>
       <c r="G714" t="s">
         <v>34</v>
@@ -23399,10 +23399,10 @@
         <v>1651</v>
       </c>
       <c r="E715" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F715" t="s">
         <v>1652</v>
-      </c>
-      <c r="F715" t="s">
-        <v>1644</v>
       </c>
       <c r="G715" t="s">
         <v>1232</v>
@@ -23422,10 +23422,10 @@
         <v>1651</v>
       </c>
       <c r="E716" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F716" t="s">
         <v>1652</v>
-      </c>
-      <c r="F716" t="s">
-        <v>1644</v>
       </c>
       <c r="G716" t="s">
         <v>1232</v>
@@ -23465,10 +23465,10 @@
         <v>9</v>
       </c>
       <c r="D718" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E718" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F718" t="s">
         <v>1746</v>
@@ -23488,10 +23488,10 @@
         <v>9</v>
       </c>
       <c r="D719" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E719" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F719" t="s">
         <v>1746</v>
@@ -23511,10 +23511,10 @@
         <v>9</v>
       </c>
       <c r="D720" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E720" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F720" t="s">
         <v>1746</v>
@@ -23534,10 +23534,10 @@
         <v>9</v>
       </c>
       <c r="D721" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E721" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F721" t="s">
         <v>1746</v>
@@ -23557,10 +23557,10 @@
         <v>9</v>
       </c>
       <c r="D722" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E722" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F722" t="s">
         <v>1746</v>
@@ -23580,10 +23580,10 @@
         <v>9</v>
       </c>
       <c r="D723" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E723" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F723" t="s">
         <v>1746</v>
@@ -23606,10 +23606,10 @@
         <v>1762</v>
       </c>
       <c r="E724" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F724" t="s">
         <v>1763</v>
-      </c>
-      <c r="F724" t="s">
-        <v>1746</v>
       </c>
       <c r="G724" t="s">
         <v>20</v>
@@ -23629,10 +23629,10 @@
         <v>1766</v>
       </c>
       <c r="E725" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F725" t="s">
         <v>1767</v>
-      </c>
-      <c r="F725" t="s">
-        <v>1746</v>
       </c>
       <c r="G725" t="s">
         <v>20</v>
@@ -23649,10 +23649,10 @@
         <v>9</v>
       </c>
       <c r="D726" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E726" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F726" t="s">
         <v>1746</v>
@@ -23672,10 +23672,10 @@
         <v>9</v>
       </c>
       <c r="D727" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E727" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F727" t="s">
         <v>1746</v>
@@ -23698,10 +23698,10 @@
         <v>1774</v>
       </c>
       <c r="E728" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F728" t="s">
         <v>1775</v>
-      </c>
-      <c r="F728" t="s">
-        <v>1746</v>
       </c>
       <c r="G728" t="s">
         <v>34</v>
@@ -23718,10 +23718,10 @@
         <v>9</v>
       </c>
       <c r="D729" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E729" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F729" t="s">
         <v>1746</v>
@@ -23744,10 +23744,10 @@
         <v>1774</v>
       </c>
       <c r="E730" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F730" t="s">
         <v>1775</v>
-      </c>
-      <c r="F730" t="s">
-        <v>1746</v>
       </c>
       <c r="G730" t="s">
         <v>34</v>
@@ -23767,10 +23767,10 @@
         <v>1782</v>
       </c>
       <c r="E731" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F731" t="s">
         <v>1783</v>
-      </c>
-      <c r="F731" t="s">
-        <v>1746</v>
       </c>
       <c r="G731" t="s">
         <v>34</v>
@@ -23787,10 +23787,10 @@
         <v>9</v>
       </c>
       <c r="D732" t="s">
-        <v>1744</v>
+        <v>1786</v>
       </c>
       <c r="E732" t="s">
-        <v>1786</v>
+        <v>1745</v>
       </c>
       <c r="F732" t="s">
         <v>1746</v>
@@ -23813,10 +23813,10 @@
         <v>1789</v>
       </c>
       <c r="E733" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F733" t="s">
         <v>1790</v>
-      </c>
-      <c r="F733" t="s">
-        <v>1746</v>
       </c>
       <c r="G733" t="s">
         <v>34</v>
@@ -23833,10 +23833,10 @@
         <v>9</v>
       </c>
       <c r="D734" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E734" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F734" t="s">
         <v>1746</v>
@@ -23856,10 +23856,10 @@
         <v>9</v>
       </c>
       <c r="D735" t="s">
-        <v>1744</v>
+        <v>1795</v>
       </c>
       <c r="E735" t="s">
-        <v>1795</v>
+        <v>1745</v>
       </c>
       <c r="F735" t="s">
         <v>1746</v>
@@ -23879,10 +23879,10 @@
         <v>9</v>
       </c>
       <c r="D736" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E736" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F736" t="s">
         <v>1746</v>
@@ -23902,13 +23902,13 @@
         <v>9</v>
       </c>
       <c r="D737" t="s">
-        <v>1651</v>
+        <v>1800</v>
       </c>
       <c r="E737" t="s">
-        <v>1800</v>
+        <v>1745</v>
       </c>
       <c r="F737" t="s">
-        <v>1746</v>
+        <v>1652</v>
       </c>
       <c r="G737" t="s">
         <v>20</v>
@@ -23925,10 +23925,10 @@
         <v>9</v>
       </c>
       <c r="D738" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E738" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F738" t="s">
         <v>1746</v>
@@ -23948,10 +23948,10 @@
         <v>9</v>
       </c>
       <c r="D739" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E739" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F739" t="s">
         <v>1746</v>
@@ -23974,10 +23974,10 @@
         <v>1807</v>
       </c>
       <c r="E740" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F740" t="s">
         <v>1808</v>
-      </c>
-      <c r="F740" t="s">
-        <v>1746</v>
       </c>
       <c r="G740" t="s">
         <v>34</v>
@@ -23994,10 +23994,10 @@
         <v>9</v>
       </c>
       <c r="D741" t="s">
-        <v>1744</v>
+        <v>1811</v>
       </c>
       <c r="E741" t="s">
-        <v>1811</v>
+        <v>1745</v>
       </c>
       <c r="F741" t="s">
         <v>1746</v>
@@ -24017,10 +24017,10 @@
         <v>9</v>
       </c>
       <c r="D742" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E742" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F742" t="s">
         <v>1746</v>
@@ -24063,10 +24063,10 @@
         <v>9</v>
       </c>
       <c r="D744" t="s">
-        <v>1744</v>
+        <v>1818</v>
       </c>
       <c r="E744" t="s">
-        <v>1818</v>
+        <v>1745</v>
       </c>
       <c r="F744" t="s">
         <v>1746</v>
@@ -24086,10 +24086,10 @@
         <v>9</v>
       </c>
       <c r="D745" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E745" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F745" t="s">
         <v>1746</v>
@@ -24109,10 +24109,10 @@
         <v>9</v>
       </c>
       <c r="D746" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E746" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F746" t="s">
         <v>1746</v>
@@ -24132,10 +24132,10 @@
         <v>9</v>
       </c>
       <c r="D747" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E747" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F747" t="s">
         <v>1746</v>
@@ -24155,10 +24155,10 @@
         <v>9</v>
       </c>
       <c r="D748" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E748" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F748" t="s">
         <v>1746</v>
@@ -24204,10 +24204,10 @@
         <v>1834</v>
       </c>
       <c r="E750" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F750" t="s">
         <v>1835</v>
-      </c>
-      <c r="F750" t="s">
-        <v>1831</v>
       </c>
       <c r="G750" t="s">
         <v>34</v>
@@ -24227,10 +24227,10 @@
         <v>1838</v>
       </c>
       <c r="E751" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F751" t="s">
         <v>1839</v>
-      </c>
-      <c r="F751" t="s">
-        <v>1831</v>
       </c>
       <c r="G751" t="s">
         <v>1232</v>
@@ -24250,10 +24250,10 @@
         <v>1838</v>
       </c>
       <c r="E752" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F752" t="s">
         <v>1839</v>
-      </c>
-      <c r="F752" t="s">
-        <v>1831</v>
       </c>
       <c r="G752" t="s">
         <v>1232</v>
@@ -24273,10 +24273,10 @@
         <v>1838</v>
       </c>
       <c r="E753" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F753" t="s">
         <v>1839</v>
-      </c>
-      <c r="F753" t="s">
-        <v>1831</v>
       </c>
       <c r="G753" t="s">
         <v>1232</v>
@@ -24296,10 +24296,10 @@
         <v>1838</v>
       </c>
       <c r="E754" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F754" t="s">
         <v>1839</v>
-      </c>
-      <c r="F754" t="s">
-        <v>1831</v>
       </c>
       <c r="G754" t="s">
         <v>1232</v>
@@ -24319,10 +24319,10 @@
         <v>1838</v>
       </c>
       <c r="E755" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F755" t="s">
         <v>1839</v>
-      </c>
-      <c r="F755" t="s">
-        <v>1831</v>
       </c>
       <c r="G755" t="s">
         <v>1232</v>
@@ -24342,10 +24342,10 @@
         <v>1838</v>
       </c>
       <c r="E756" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F756" t="s">
         <v>1839</v>
-      </c>
-      <c r="F756" t="s">
-        <v>1831</v>
       </c>
       <c r="G756" t="s">
         <v>1232</v>
@@ -24362,13 +24362,13 @@
         <v>9</v>
       </c>
       <c r="D757" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="E757" t="s">
         <v>1830</v>
       </c>
       <c r="F757" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="G757" t="s">
         <v>34</v>
@@ -24385,13 +24385,13 @@
         <v>9</v>
       </c>
       <c r="D758" t="s">
-        <v>1838</v>
+        <v>1795</v>
       </c>
       <c r="E758" t="s">
-        <v>1795</v>
+        <v>1830</v>
       </c>
       <c r="F758" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="G758" t="s">
         <v>20</v>
@@ -24411,10 +24411,10 @@
         <v>1838</v>
       </c>
       <c r="E759" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F759" t="s">
         <v>1839</v>
-      </c>
-      <c r="F759" t="s">
-        <v>1831</v>
       </c>
       <c r="G759" t="s">
         <v>1232</v>
@@ -24434,10 +24434,10 @@
         <v>1838</v>
       </c>
       <c r="E760" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F760" t="s">
         <v>1839</v>
-      </c>
-      <c r="F760" t="s">
-        <v>1831</v>
       </c>
       <c r="G760" t="s">
         <v>1232</v>
@@ -24454,13 +24454,13 @@
         <v>9</v>
       </c>
       <c r="D761" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F761" t="s">
         <v>1860</v>
-      </c>
-      <c r="E761" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F761" t="s">
-        <v>1831</v>
       </c>
       <c r="G761" t="s">
         <v>34</v>
@@ -24480,10 +24480,10 @@
         <v>1838</v>
       </c>
       <c r="E762" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F762" t="s">
         <v>1839</v>
-      </c>
-      <c r="F762" t="s">
-        <v>1831</v>
       </c>
       <c r="G762" t="s">
         <v>1232</v>
@@ -24503,10 +24503,10 @@
         <v>1865</v>
       </c>
       <c r="E763" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F763" t="s">
         <v>1866</v>
-      </c>
-      <c r="F763" t="s">
-        <v>1831</v>
       </c>
       <c r="G763" t="s">
         <v>34</v>
@@ -24523,10 +24523,10 @@
         <v>9</v>
       </c>
       <c r="D764" t="s">
-        <v>1829</v>
+        <v>1838</v>
       </c>
       <c r="E764" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
       <c r="F764" t="s">
         <v>1831</v>
@@ -24546,13 +24546,13 @@
         <v>9</v>
       </c>
       <c r="D765" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F765" t="s">
         <v>1860</v>
-      </c>
-      <c r="E765" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F765" t="s">
-        <v>1831</v>
       </c>
       <c r="G765" t="s">
         <v>34</v>
@@ -24572,10 +24572,10 @@
         <v>1874</v>
       </c>
       <c r="E766" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F766" t="s">
         <v>1875</v>
-      </c>
-      <c r="F766" t="s">
-        <v>1831</v>
       </c>
       <c r="G766" t="s">
         <v>34</v>
@@ -24595,10 +24595,10 @@
         <v>1838</v>
       </c>
       <c r="E767" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F767" t="s">
         <v>1839</v>
-      </c>
-      <c r="F767" t="s">
-        <v>1831</v>
       </c>
       <c r="G767" t="s">
         <v>1232</v>
@@ -24618,10 +24618,10 @@
         <v>1838</v>
       </c>
       <c r="E768" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F768" t="s">
         <v>1839</v>
-      </c>
-      <c r="F768" t="s">
-        <v>1831</v>
       </c>
       <c r="G768" t="s">
         <v>1232</v>
@@ -24641,10 +24641,10 @@
         <v>1882</v>
       </c>
       <c r="E769" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F769" t="s">
         <v>1883</v>
-      </c>
-      <c r="F769" t="s">
-        <v>1831</v>
       </c>
       <c r="G769" t="s">
         <v>34</v>
@@ -24664,10 +24664,10 @@
         <v>1838</v>
       </c>
       <c r="E770" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F770" t="s">
         <v>1839</v>
-      </c>
-      <c r="F770" t="s">
-        <v>1831</v>
       </c>
       <c r="G770" t="s">
         <v>1232</v>
@@ -24687,10 +24687,10 @@
         <v>1838</v>
       </c>
       <c r="E771" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F771" t="s">
         <v>1839</v>
-      </c>
-      <c r="F771" t="s">
-        <v>1831</v>
       </c>
       <c r="G771" t="s">
         <v>1232</v>
@@ -24710,10 +24710,10 @@
         <v>1838</v>
       </c>
       <c r="E772" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F772" t="s">
         <v>1839</v>
-      </c>
-      <c r="F772" t="s">
-        <v>1831</v>
       </c>
       <c r="G772" t="s">
         <v>1232</v>
@@ -24733,10 +24733,10 @@
         <v>1892</v>
       </c>
       <c r="E773" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F773" t="s">
         <v>1893</v>
-      </c>
-      <c r="F773" t="s">
-        <v>1831</v>
       </c>
       <c r="G773" t="s">
         <v>34</v>
@@ -24756,10 +24756,10 @@
         <v>1838</v>
       </c>
       <c r="E774" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F774" t="s">
         <v>1839</v>
-      </c>
-      <c r="F774" t="s">
-        <v>1831</v>
       </c>
       <c r="G774" t="s">
         <v>1232</v>
@@ -24799,10 +24799,10 @@
         <v>9</v>
       </c>
       <c r="D776" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E776" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F776" t="s">
         <v>1900</v>
@@ -24825,10 +24825,10 @@
         <v>1906</v>
       </c>
       <c r="E777" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F777" t="s">
         <v>1907</v>
-      </c>
-      <c r="F777" t="s">
-        <v>1900</v>
       </c>
       <c r="G777" t="s">
         <v>34</v>
@@ -24848,10 +24848,10 @@
         <v>1910</v>
       </c>
       <c r="E778" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F778" t="s">
         <v>1911</v>
-      </c>
-      <c r="F778" t="s">
-        <v>1900</v>
       </c>
       <c r="G778" t="s">
         <v>34</v>
@@ -24868,10 +24868,10 @@
         <v>9</v>
       </c>
       <c r="D779" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E779" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F779" t="s">
         <v>1900</v>
@@ -24891,10 +24891,10 @@
         <v>9</v>
       </c>
       <c r="D780" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E780" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F780" t="s">
         <v>1900</v>
@@ -24914,10 +24914,10 @@
         <v>9</v>
       </c>
       <c r="D781" t="s">
-        <v>1898</v>
+        <v>1918</v>
       </c>
       <c r="E781" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="F781" t="s">
         <v>1900</v>
@@ -24937,10 +24937,10 @@
         <v>9</v>
       </c>
       <c r="D782" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E782" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F782" t="s">
         <v>1900</v>
@@ -24960,10 +24960,10 @@
         <v>9</v>
       </c>
       <c r="D783" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E783" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F783" t="s">
         <v>1900</v>
@@ -24983,10 +24983,10 @@
         <v>9</v>
       </c>
       <c r="D784" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E784" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F784" t="s">
         <v>1900</v>
@@ -25006,10 +25006,10 @@
         <v>9</v>
       </c>
       <c r="D785" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E785" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F785" t="s">
         <v>1900</v>
@@ -25029,10 +25029,10 @@
         <v>9</v>
       </c>
       <c r="D786" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E786" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F786" t="s">
         <v>1900</v>
@@ -25052,10 +25052,10 @@
         <v>9</v>
       </c>
       <c r="D787" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E787" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F787" t="s">
         <v>1900</v>
@@ -25075,13 +25075,13 @@
         <v>9</v>
       </c>
       <c r="D788" t="s">
-        <v>1933</v>
+        <v>1898</v>
       </c>
       <c r="E788" t="s">
         <v>1899</v>
       </c>
       <c r="F788" t="s">
-        <v>1900</v>
+        <v>1933</v>
       </c>
       <c r="G788" t="s">
         <v>34</v>
@@ -25098,10 +25098,10 @@
         <v>9</v>
       </c>
       <c r="D789" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E789" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F789" t="s">
         <v>1900</v>
@@ -25121,13 +25121,13 @@
         <v>9</v>
       </c>
       <c r="D790" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F790" t="s">
         <v>1938</v>
-      </c>
-      <c r="E790" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F790" t="s">
-        <v>1900</v>
       </c>
       <c r="G790" t="s">
         <v>34</v>
@@ -25144,13 +25144,13 @@
         <v>9</v>
       </c>
       <c r="D791" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F791" t="s">
         <v>1933</v>
-      </c>
-      <c r="E791" t="s">
-        <v>1941</v>
-      </c>
-      <c r="F791" t="s">
-        <v>1900</v>
       </c>
       <c r="G791" t="s">
         <v>34</v>
@@ -25167,10 +25167,10 @@
         <v>9</v>
       </c>
       <c r="D792" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E792" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F792" t="s">
         <v>1900</v>
@@ -25190,13 +25190,13 @@
         <v>9</v>
       </c>
       <c r="D793" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F793" t="s">
         <v>1946</v>
-      </c>
-      <c r="E793" t="s">
-        <v>1903</v>
-      </c>
-      <c r="F793" t="s">
-        <v>1900</v>
       </c>
       <c r="G793" t="s">
         <v>34</v>
@@ -25213,10 +25213,10 @@
         <v>9</v>
       </c>
       <c r="D794" t="s">
-        <v>1898</v>
+        <v>1949</v>
       </c>
       <c r="E794" t="s">
-        <v>1949</v>
+        <v>1899</v>
       </c>
       <c r="F794" t="s">
         <v>1900</v>
@@ -25236,10 +25236,10 @@
         <v>9</v>
       </c>
       <c r="D795" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E795" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F795" t="s">
         <v>1900</v>
@@ -25262,10 +25262,10 @@
         <v>1954</v>
       </c>
       <c r="E796" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F796" t="s">
         <v>1955</v>
-      </c>
-      <c r="F796" t="s">
-        <v>1900</v>
       </c>
       <c r="G796" t="s">
         <v>34</v>
@@ -25285,10 +25285,10 @@
         <v>1958</v>
       </c>
       <c r="E797" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F797" t="s">
         <v>1959</v>
-      </c>
-      <c r="F797" t="s">
-        <v>1900</v>
       </c>
       <c r="G797" t="s">
         <v>34</v>
@@ -25305,10 +25305,10 @@
         <v>9</v>
       </c>
       <c r="D798" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E798" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F798" t="s">
         <v>1900</v>
@@ -25328,10 +25328,10 @@
         <v>9</v>
       </c>
       <c r="D799" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E799" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F799" t="s">
         <v>1900</v>
@@ -25351,10 +25351,10 @@
         <v>9</v>
       </c>
       <c r="D800" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E800" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F800" t="s">
         <v>1900</v>
@@ -25374,10 +25374,10 @@
         <v>9</v>
       </c>
       <c r="D801" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E801" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F801" t="s">
         <v>1900</v>
@@ -25397,10 +25397,10 @@
         <v>9</v>
       </c>
       <c r="D802" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E802" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F802" t="s">
         <v>1900</v>
@@ -25420,10 +25420,10 @@
         <v>9</v>
       </c>
       <c r="D803" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E803" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F803" t="s">
         <v>1900</v>
@@ -25443,10 +25443,10 @@
         <v>9</v>
       </c>
       <c r="D804" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E804" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F804" t="s">
         <v>1900</v>
@@ -25466,10 +25466,10 @@
         <v>9</v>
       </c>
       <c r="D805" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E805" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F805" t="s">
         <v>1900</v>
@@ -25489,10 +25489,10 @@
         <v>9</v>
       </c>
       <c r="D806" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E806" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F806" t="s">
         <v>1900</v>
@@ -25584,10 +25584,10 @@
         <v>1989</v>
       </c>
       <c r="E810" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F810" t="s">
         <v>1990</v>
-      </c>
-      <c r="F810" t="s">
-        <v>1982</v>
       </c>
       <c r="G810" t="s">
         <v>34</v>
@@ -25650,10 +25650,10 @@
         <v>9</v>
       </c>
       <c r="D813" t="s">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="E813" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="F813" t="s">
         <v>1982</v>
@@ -25676,10 +25676,10 @@
         <v>1999</v>
       </c>
       <c r="E814" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F814" t="s">
         <v>2000</v>
-      </c>
-      <c r="F814" t="s">
-        <v>1982</v>
       </c>
       <c r="G814" t="s">
         <v>34</v>
@@ -25814,10 +25814,10 @@
         <v>2013</v>
       </c>
       <c r="E820" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F820" t="s">
         <v>2014</v>
-      </c>
-      <c r="F820" t="s">
-        <v>1982</v>
       </c>
       <c r="G820" t="s">
         <v>20</v>
@@ -25837,10 +25837,10 @@
         <v>2017</v>
       </c>
       <c r="E821" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F821" t="s">
         <v>2018</v>
-      </c>
-      <c r="F821" t="s">
-        <v>1982</v>
       </c>
       <c r="G821" t="s">
         <v>1232</v>
@@ -25857,10 +25857,10 @@
         <v>9</v>
       </c>
       <c r="D822" t="s">
-        <v>1980</v>
+        <v>2017</v>
       </c>
       <c r="E822" t="s">
-        <v>2018</v>
+        <v>1981</v>
       </c>
       <c r="F822" t="s">
         <v>1982</v>
@@ -25883,10 +25883,10 @@
         <v>2017</v>
       </c>
       <c r="E823" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F823" t="s">
         <v>2018</v>
-      </c>
-      <c r="F823" t="s">
-        <v>1982</v>
       </c>
       <c r="G823" t="s">
         <v>1232</v>
@@ -25906,10 +25906,10 @@
         <v>2017</v>
       </c>
       <c r="E824" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F824" t="s">
         <v>2018</v>
-      </c>
-      <c r="F824" t="s">
-        <v>1982</v>
       </c>
       <c r="G824" t="s">
         <v>1232</v>
@@ -25929,10 +25929,10 @@
         <v>2017</v>
       </c>
       <c r="E825" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F825" t="s">
         <v>2018</v>
-      </c>
-      <c r="F825" t="s">
-        <v>1982</v>
       </c>
       <c r="G825" t="s">
         <v>1232</v>
@@ -25952,10 +25952,10 @@
         <v>2017</v>
       </c>
       <c r="E826" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F826" t="s">
         <v>2018</v>
-      </c>
-      <c r="F826" t="s">
-        <v>1982</v>
       </c>
       <c r="G826" t="s">
         <v>1232</v>
@@ -25972,10 +25972,10 @@
         <v>9</v>
       </c>
       <c r="D827" t="s">
-        <v>1980</v>
+        <v>2017</v>
       </c>
       <c r="E827" t="s">
-        <v>2018</v>
+        <v>1981</v>
       </c>
       <c r="F827" t="s">
         <v>1982</v>
@@ -26018,10 +26018,10 @@
         <v>9</v>
       </c>
       <c r="D829" t="s">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="E829" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="F829" t="s">
         <v>1982</v>
@@ -26248,10 +26248,10 @@
         <v>9</v>
       </c>
       <c r="D839" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E839" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F839" t="s">
         <v>2055</v>
@@ -26271,10 +26271,10 @@
         <v>9</v>
       </c>
       <c r="D840" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E840" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F840" t="s">
         <v>2055</v>
@@ -26294,10 +26294,10 @@
         <v>9</v>
       </c>
       <c r="D841" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E841" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F841" t="s">
         <v>2055</v>
@@ -26317,10 +26317,10 @@
         <v>9</v>
       </c>
       <c r="D842" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E842" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F842" t="s">
         <v>2055</v>
@@ -26340,10 +26340,10 @@
         <v>9</v>
       </c>
       <c r="D843" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E843" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F843" t="s">
         <v>2055</v>
@@ -26363,10 +26363,10 @@
         <v>9</v>
       </c>
       <c r="D844" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E844" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F844" t="s">
         <v>2055</v>
@@ -26386,10 +26386,10 @@
         <v>9</v>
       </c>
       <c r="D845" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E845" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F845" t="s">
         <v>2055</v>
@@ -26409,13 +26409,13 @@
         <v>9</v>
       </c>
       <c r="D846" t="s">
-        <v>1989</v>
+        <v>2073</v>
       </c>
       <c r="E846" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="F846" t="s">
-        <v>2055</v>
+        <v>1990</v>
       </c>
       <c r="G846" t="s">
         <v>1232</v>
@@ -26432,13 +26432,13 @@
         <v>9</v>
       </c>
       <c r="D847" t="s">
-        <v>1989</v>
+        <v>2073</v>
       </c>
       <c r="E847" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="F847" t="s">
-        <v>2055</v>
+        <v>1990</v>
       </c>
       <c r="G847" t="s">
         <v>1232</v>
@@ -26455,13 +26455,13 @@
         <v>9</v>
       </c>
       <c r="D848" t="s">
-        <v>1989</v>
+        <v>2073</v>
       </c>
       <c r="E848" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="F848" t="s">
-        <v>2055</v>
+        <v>1990</v>
       </c>
       <c r="G848" t="s">
         <v>1232</v>
@@ -26478,13 +26478,13 @@
         <v>9</v>
       </c>
       <c r="D849" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E849" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F849" t="s">
         <v>2080</v>
-      </c>
-      <c r="E849" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F849" t="s">
-        <v>2055</v>
       </c>
       <c r="G849" t="s">
         <v>1232</v>
@@ -26501,13 +26501,13 @@
         <v>9</v>
       </c>
       <c r="D850" t="s">
-        <v>1989</v>
+        <v>2073</v>
       </c>
       <c r="E850" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="F850" t="s">
-        <v>2055</v>
+        <v>1990</v>
       </c>
       <c r="G850" t="s">
         <v>1232</v>
@@ -26524,13 +26524,13 @@
         <v>9</v>
       </c>
       <c r="D851" t="s">
-        <v>1989</v>
+        <v>2073</v>
       </c>
       <c r="E851" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="F851" t="s">
-        <v>2055</v>
+        <v>1990</v>
       </c>
       <c r="G851" t="s">
         <v>1232</v>
@@ -26547,10 +26547,10 @@
         <v>9</v>
       </c>
       <c r="D852" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E852" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F852" t="s">
         <v>2055</v>
@@ -26570,10 +26570,10 @@
         <v>9</v>
       </c>
       <c r="D853" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E853" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F853" t="s">
         <v>2055</v>
@@ -26593,10 +26593,10 @@
         <v>9</v>
       </c>
       <c r="D854" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E854" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F854" t="s">
         <v>2055</v>
@@ -26616,10 +26616,10 @@
         <v>9</v>
       </c>
       <c r="D855" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E855" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F855" t="s">
         <v>2055</v>
@@ -26639,10 +26639,10 @@
         <v>9</v>
       </c>
       <c r="D856" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E856" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F856" t="s">
         <v>2055</v>
@@ -26662,10 +26662,10 @@
         <v>9</v>
       </c>
       <c r="D857" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E857" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F857" t="s">
         <v>2055</v>
@@ -26685,10 +26685,10 @@
         <v>9</v>
       </c>
       <c r="D858" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E858" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F858" t="s">
         <v>2055</v>
@@ -26708,10 +26708,10 @@
         <v>9</v>
       </c>
       <c r="D859" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E859" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F859" t="s">
         <v>2055</v>
@@ -26731,10 +26731,10 @@
         <v>9</v>
       </c>
       <c r="D860" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E860" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F860" t="s">
         <v>2055</v>
@@ -26754,10 +26754,10 @@
         <v>9</v>
       </c>
       <c r="D861" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E861" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F861" t="s">
         <v>2055</v>
@@ -26777,10 +26777,10 @@
         <v>9</v>
       </c>
       <c r="D862" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E862" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F862" t="s">
         <v>2055</v>
@@ -26800,10 +26800,10 @@
         <v>9</v>
       </c>
       <c r="D863" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E863" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F863" t="s">
         <v>2055</v>
@@ -26823,10 +26823,10 @@
         <v>9</v>
       </c>
       <c r="D864" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E864" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F864" t="s">
         <v>2055</v>
@@ -26846,10 +26846,10 @@
         <v>9</v>
       </c>
       <c r="D865" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E865" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F865" t="s">
         <v>2055</v>
@@ -26892,13 +26892,13 @@
         <v>9</v>
       </c>
       <c r="D867" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E867" t="s">
         <v>2116</v>
       </c>
       <c r="F867" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G867" t="s">
         <v>1232</v>
@@ -26915,13 +26915,13 @@
         <v>9</v>
       </c>
       <c r="D868" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E868" t="s">
         <v>2116</v>
       </c>
       <c r="F868" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G868" t="s">
         <v>1232</v>
@@ -26938,13 +26938,13 @@
         <v>9</v>
       </c>
       <c r="D869" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E869" t="s">
         <v>2116</v>
       </c>
       <c r="F869" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G869" t="s">
         <v>1232</v>
@@ -26961,13 +26961,13 @@
         <v>9</v>
       </c>
       <c r="D870" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E870" t="s">
         <v>2116</v>
       </c>
       <c r="F870" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G870" t="s">
         <v>1232</v>
@@ -26984,13 +26984,13 @@
         <v>9</v>
       </c>
       <c r="D871" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E871" t="s">
         <v>2116</v>
       </c>
       <c r="F871" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G871" t="s">
         <v>20</v>
@@ -27007,13 +27007,13 @@
         <v>9</v>
       </c>
       <c r="D872" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E872" t="s">
         <v>2116</v>
       </c>
       <c r="F872" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G872" t="s">
         <v>20</v>
@@ -27030,13 +27030,13 @@
         <v>9</v>
       </c>
       <c r="D873" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E873" t="s">
         <v>2116</v>
       </c>
       <c r="F873" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G873" t="s">
         <v>1232</v>
@@ -27053,13 +27053,13 @@
         <v>9</v>
       </c>
       <c r="D874" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E874" t="s">
         <v>2116</v>
       </c>
       <c r="F874" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G874" t="s">
         <v>1232</v>
@@ -27076,13 +27076,13 @@
         <v>9</v>
       </c>
       <c r="D875" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E875" t="s">
         <v>2116</v>
       </c>
       <c r="F875" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G875" t="s">
         <v>1232</v>
@@ -27099,13 +27099,13 @@
         <v>9</v>
       </c>
       <c r="D876" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E876" t="s">
         <v>2116</v>
       </c>
       <c r="F876" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G876" t="s">
         <v>20</v>
@@ -27122,13 +27122,13 @@
         <v>9</v>
       </c>
       <c r="D877" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E877" t="s">
         <v>2116</v>
       </c>
       <c r="F877" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G877" t="s">
         <v>1232</v>
@@ -27145,13 +27145,13 @@
         <v>9</v>
       </c>
       <c r="D878" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E878" t="s">
         <v>2116</v>
       </c>
       <c r="F878" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G878" t="s">
         <v>1232</v>
@@ -27168,13 +27168,13 @@
         <v>9</v>
       </c>
       <c r="D879" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E879" t="s">
         <v>2116</v>
       </c>
       <c r="F879" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G879" t="s">
         <v>1232</v>
@@ -27191,13 +27191,13 @@
         <v>9</v>
       </c>
       <c r="D880" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E880" t="s">
         <v>2116</v>
       </c>
       <c r="F880" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G880" t="s">
         <v>1232</v>
@@ -27214,13 +27214,13 @@
         <v>9</v>
       </c>
       <c r="D881" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E881" t="s">
         <v>2116</v>
       </c>
       <c r="F881" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G881" t="s">
         <v>1232</v>
@@ -27237,13 +27237,13 @@
         <v>9</v>
       </c>
       <c r="D882" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E882" t="s">
         <v>2116</v>
       </c>
       <c r="F882" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G882" t="s">
         <v>1232</v>
@@ -27260,13 +27260,13 @@
         <v>9</v>
       </c>
       <c r="D883" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E883" t="s">
         <v>2116</v>
       </c>
       <c r="F883" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G883" t="s">
         <v>1232</v>
@@ -27283,13 +27283,13 @@
         <v>9</v>
       </c>
       <c r="D884" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E884" t="s">
         <v>2116</v>
       </c>
       <c r="F884" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G884" t="s">
         <v>1232</v>
@@ -27306,13 +27306,13 @@
         <v>9</v>
       </c>
       <c r="D885" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E885" t="s">
         <v>2116</v>
       </c>
       <c r="F885" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G885" t="s">
         <v>1232</v>
@@ -27329,13 +27329,13 @@
         <v>9</v>
       </c>
       <c r="D886" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E886" t="s">
         <v>2116</v>
       </c>
       <c r="F886" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G886" t="s">
         <v>20</v>
@@ -27352,13 +27352,13 @@
         <v>9</v>
       </c>
       <c r="D887" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E887" t="s">
         <v>2116</v>
       </c>
       <c r="F887" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G887" t="s">
         <v>1232</v>
@@ -27375,13 +27375,13 @@
         <v>9</v>
       </c>
       <c r="D888" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E888" t="s">
         <v>2116</v>
       </c>
       <c r="F888" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G888" t="s">
         <v>1232</v>
@@ -27513,10 +27513,10 @@
         <v>9</v>
       </c>
       <c r="D894" t="s">
-        <v>2165</v>
+        <v>2178</v>
       </c>
       <c r="E894" t="s">
-        <v>2178</v>
+        <v>2166</v>
       </c>
       <c r="F894" t="s">
         <v>2167</v>
@@ -27720,13 +27720,13 @@
         <v>9</v>
       </c>
       <c r="D903" t="s">
-        <v>2165</v>
+        <v>2197</v>
       </c>
       <c r="E903" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="F903" t="s">
-        <v>2198</v>
+        <v>2167</v>
       </c>
       <c r="G903" t="s">
         <v>1232</v>
@@ -27743,13 +27743,13 @@
         <v>9</v>
       </c>
       <c r="D904" t="s">
-        <v>2165</v>
+        <v>2201</v>
       </c>
       <c r="E904" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="F904" t="s">
-        <v>2198</v>
+        <v>2167</v>
       </c>
       <c r="G904" t="s">
         <v>1232</v>
@@ -27766,13 +27766,13 @@
         <v>9</v>
       </c>
       <c r="D905" t="s">
-        <v>2165</v>
+        <v>2197</v>
       </c>
       <c r="E905" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="F905" t="s">
-        <v>2198</v>
+        <v>2167</v>
       </c>
       <c r="G905" t="s">
         <v>1232</v>

--- a/api/1/clv2/xlsx/en/HumanitarianPlan.xlsx
+++ b/api/1/clv2/xlsx/en/HumanitarianPlan.xlsx
@@ -25,15 +25,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:plan-end-date</t>
+  </si>
+  <si>
+    <t>codeforiati:plan-year</t>
+  </si>
+  <si>
     <t>codeforiati:plan-start-date</t>
   </si>
   <si>
-    <t>codeforiati:plan-year</t>
-  </si>
-  <si>
-    <t>codeforiati:plan-end-date</t>
-  </si>
-  <si>
     <t>codeforiati:plan-type</t>
   </si>
   <si>
@@ -46,15 +46,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>2025-01-01</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
     <t>Humanitarian needs and response plan</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>Afghanistan Humanitarian Needs and Response Plan 2024</t>
   </si>
   <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>2024-01-01</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2024-12-31</t>
-  </si>
-  <si>
     <t>RAFG_RRP24</t>
   </si>
   <si>
@@ -703,15 +703,15 @@
     <t>Afghanistan Humanitarian Response Plan 2023</t>
   </si>
   <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2023-01-01</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
     <t>RAFG23</t>
   </si>
   <si>
@@ -832,24 +832,24 @@
     <t>Mongolia Dzud Early Action and Response Plan 2023</t>
   </si>
   <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
     <t>2022-12-01</t>
   </si>
   <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
     <t>OMOZ23</t>
   </si>
   <si>
     <t>Mozambique Cyclone Freddy, Floods and Cholera Response Plan 2023</t>
   </si>
   <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
     <t>2023-03-01</t>
   </si>
   <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
     <t>HMOZ23</t>
   </si>
   <si>
@@ -937,12 +937,12 @@
     <t>Sudan Emergency: Regional Refugee Response Plan 2023</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-05-01</t>
   </si>
   <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
     <t>HSDN23</t>
   </si>
   <si>
@@ -1021,15 +1021,15 @@
     <t>Afghanistan Humanitarian Response Plan 2022</t>
   </si>
   <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>2022-01-01</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
     <t>RAFG22</t>
   </si>
   <si>
@@ -1072,12 +1072,12 @@
     <t>Cuba Hurricane Ian Response - Plan of Action 2022</t>
   </si>
   <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
     <t>2022-10-20</t>
   </si>
   <si>
-    <t>2023-03-31</t>
-  </si>
-  <si>
     <t>RDRCRRP22</t>
   </si>
   <si>
@@ -1108,12 +1108,12 @@
     <t>Haïti Choléra+ Appel Éclair 2022</t>
   </si>
   <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
     <t>2022-10-16</t>
   </si>
   <si>
-    <t>2023-04-15</t>
-  </si>
-  <si>
     <t>FHTI22</t>
   </si>
   <si>
@@ -1171,12 +1171,12 @@
     <t>Malawi Flash Appeal 2022</t>
   </si>
   <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
     <t>2022-02-26</t>
   </si>
   <si>
-    <t>2022-05-31</t>
-  </si>
-  <si>
     <t>HMLI22</t>
   </si>
   <si>
@@ -1189,12 +1189,12 @@
     <t>Mozambique Gombe Emergency Response Plan 2022</t>
   </si>
   <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
     <t>2022-04-01</t>
   </si>
   <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
     <t>HMOZ22</t>
   </si>
   <si>
@@ -1246,12 +1246,12 @@
     <t>Philippines Super Typhoon Rai (Odette) Humanitarian Needs and Priorities 2022</t>
   </si>
   <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
     <t>2021-12-24</t>
   </si>
   <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
     <t>RREG22</t>
   </si>
   <si>
@@ -1369,15 +1369,15 @@
     <t>Afghanistan Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>2021-09-01</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
     <t>HAFG21</t>
   </si>
   <si>
@@ -1468,12 +1468,12 @@
     <t>Escalation of Hostilities in the OPT Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
     <t>2021-05-27</t>
   </si>
   <si>
-    <t>2021-08-27</t>
-  </si>
-  <si>
     <t>HETH21</t>
   </si>
   <si>
@@ -1498,12 +1498,12 @@
     <t>Haiti Earthquake Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
     <t>2021-08-16</t>
   </si>
   <si>
-    <t>2022-02-15</t>
-  </si>
-  <si>
     <t>HHTI21</t>
   </si>
   <si>
@@ -1516,12 +1516,12 @@
     <t>Honduras Tropical Storm Eta Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
     <t>2020-11-15</t>
   </si>
   <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
     <t>HHND21</t>
   </si>
   <si>
@@ -1555,12 +1555,12 @@
     <t>Lebanon Emergency Response Plan 2021</t>
   </si>
   <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
     <t>2021-08-03</t>
   </si>
   <si>
-    <t>2022-07-31</t>
-  </si>
-  <si>
     <t>HLBY21</t>
   </si>
   <si>
@@ -1726,15 +1726,15 @@
     <t>Afghanistan Humanitarian Response Plan 2020</t>
   </si>
   <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
     <t>OBGD20</t>
   </si>
   <si>
@@ -1849,12 +1849,12 @@
     <t>Djibouti Flash Appeal 2020</t>
   </si>
   <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
     <t>2019-12-17</t>
   </si>
   <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
     <t>ODJI20</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>Lebanon Flash Appeal 2020</t>
   </si>
   <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
     <t>2020-08-05</t>
   </si>
   <si>
-    <t>2020-11-13</t>
-  </si>
-  <si>
     <t>OLBN20</t>
   </si>
   <si>
@@ -1966,12 +1966,12 @@
     <t>Lesotho Flash Appeal 2019-2020</t>
   </si>
   <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
     <t>2019-11-01</t>
   </si>
   <si>
-    <t>2020-04-30</t>
-  </si>
-  <si>
     <t>OLBR20</t>
   </si>
   <si>
@@ -2161,15 +2161,15 @@
     <t>Afghanistan Humanitarian Response Plan 2019</t>
   </si>
   <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2019-01-01</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>RBGD19</t>
   </si>
   <si>
@@ -2377,12 +2377,12 @@
     <t>Zimbabwe Flash Appeal 2019</t>
   </si>
   <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
     <t>2019-02-01</t>
   </si>
   <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
     <t>FZWE1820</t>
   </si>
   <si>
@@ -2398,15 +2398,15 @@
     <t>Afghanistan Humanitarian Response Plan 2018</t>
   </si>
   <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>2018-01-01</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
     <t>OBGD18</t>
   </si>
   <si>
@@ -2581,12 +2581,12 @@
     <t>Syrian Arab Republic Humanitarian Response Plan 2018</t>
   </si>
   <si>
+    <t>2018-12-30</t>
+  </si>
+  <si>
     <t>2018-11-30</t>
   </si>
   <si>
-    <t>2018-12-30</t>
-  </si>
-  <si>
     <t>RSYR18</t>
   </si>
   <si>
@@ -2623,15 +2623,15 @@
     <t>2017 Europe Situation - Regional Refugee and Migrant Response</t>
   </si>
   <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2017-01-01</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
     <t>HAFG17</t>
   </si>
   <si>
@@ -2707,12 +2707,12 @@
     <t>Dominica Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-12-29</t>
+  </si>
+  <si>
     <t>2017-09-28</t>
   </si>
   <si>
-    <t>2017-12-29</t>
-  </si>
-  <si>
     <t>OPRK17</t>
   </si>
   <si>
@@ -2752,12 +2752,12 @@
     <t>Kenya Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
     <t>2017-02-10</t>
   </si>
   <si>
-    <t>2017-11-30</t>
-  </si>
-  <si>
     <t>HLBY17</t>
   </si>
   <si>
@@ -2770,12 +2770,12 @@
     <t>Madagascar Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
     <t>2017-03-20</t>
   </si>
   <si>
-    <t>2017-06-20</t>
-  </si>
-  <si>
     <t>HMLI17</t>
   </si>
   <si>
@@ -2794,12 +2794,12 @@
     <t>Mozambique Cyclone Dineo Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
     <t>2017-02-28</t>
   </si>
   <si>
-    <t>2017-05-31</t>
-  </si>
-  <si>
     <t>HMMR17</t>
   </si>
   <si>
@@ -2836,12 +2836,12 @@
     <t>Peru Flash Appeal 2017</t>
   </si>
   <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
     <t>2017-04-01</t>
   </si>
   <si>
-    <t>2017-10-31</t>
-  </si>
-  <si>
     <t>HCOG17</t>
   </si>
   <si>
@@ -2911,15 +2911,15 @@
     <t>2016 Europe Situation -Regional Refugee and Migrant Response</t>
   </si>
   <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2016-01-01</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2016-12-31</t>
-  </si>
-  <si>
     <t>HAFG16</t>
   </si>
   <si>
@@ -2992,24 +2992,24 @@
     <t>Ecuador Earthquake Flash Appeal 2016</t>
   </si>
   <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
     <t>2016-04-16</t>
   </si>
   <si>
-    <t>2016-10-31</t>
-  </si>
-  <si>
     <t>FFJI16</t>
   </si>
   <si>
     <t>Fiji Tropical Cyclone Flash Appeal 2016</t>
   </si>
   <si>
+    <t>2016-05-30</t>
+  </si>
+  <si>
     <t>2016-02-20</t>
   </si>
   <si>
-    <t>2016-05-30</t>
-  </si>
-  <si>
     <t>HGMB16</t>
   </si>
   <si>
@@ -3085,12 +3085,12 @@
     <t>Mosul Flash Appeal 2016</t>
   </si>
   <si>
+    <t>2016-10-01</t>
+  </si>
+  <si>
     <t>2016-07-20</t>
   </si>
   <si>
-    <t>2016-10-01</t>
-  </si>
-  <si>
     <t>HMMR16</t>
   </si>
   <si>
@@ -3175,27 +3175,27 @@
     <t>Zimbabwe Humanitarian Response Plan 2016</t>
   </si>
   <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
     <t>2016-04-01</t>
   </si>
   <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
     <t>HAFG15</t>
   </si>
   <si>
     <t>Afghanistan Strategic Response Plan 2015</t>
   </si>
   <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2015-01-01</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2015-12-31</t>
-  </si>
-  <si>
     <t>Strategic response plan</t>
   </si>
   <si>
@@ -3253,12 +3253,12 @@
     <t>Guatemala Plan de Respuesta Sequia 2015</t>
   </si>
   <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
     <t>2014-11-03</t>
   </si>
   <si>
-    <t>2015-09-30</t>
-  </si>
-  <si>
     <t>FHTI15</t>
   </si>
   <si>
@@ -3283,12 +3283,12 @@
     <t>Vanuatu Emergency Response Plan for Tropical Cyclone PAM 2015</t>
   </si>
   <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
     <t>2015-03-24</t>
   </si>
   <si>
-    <t>2015-10-31</t>
-  </si>
-  <si>
     <t>HIRQ15</t>
   </si>
   <si>
@@ -3301,12 +3301,12 @@
     <t>Libya Humanitarian Appeal 2014- 2015</t>
   </si>
   <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
     <t>2014-10-01</t>
   </si>
   <si>
-    <t>2015-05-31</t>
-  </si>
-  <si>
     <t>HMLI15</t>
   </si>
   <si>
@@ -3418,15 +3418,15 @@
     <t>Afghanistan Strategic Response Plan 2014</t>
   </si>
   <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>2014-01-01</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2014-12-31</t>
-  </si>
-  <si>
     <t>HBFA1314</t>
   </si>
   <si>
@@ -3562,24 +3562,24 @@
     <t>Philippines Bohol Earthquake Flash Appeal 2014</t>
   </si>
   <si>
+    <t>2014-04-22</t>
+  </si>
+  <si>
     <t>2013-10-22</t>
   </si>
   <si>
-    <t>2014-04-22</t>
-  </si>
-  <si>
     <t>SPHL1314</t>
   </si>
   <si>
     <t>Philippines Typhoon Haiyan Strategic Response Plan 2014</t>
   </si>
   <si>
+    <t>2014-11-07</t>
+  </si>
+  <si>
     <t>2013-11-08</t>
   </si>
   <si>
-    <t>2014-11-07</t>
-  </si>
-  <si>
     <t>HPHL1314</t>
   </si>
   <si>
@@ -3595,12 +3595,12 @@
     <t>Philippines Zamboanga Crisis Flash Appeal 2014</t>
   </si>
   <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
     <t>2013-10-01</t>
   </si>
   <si>
-    <t>2014-08-31</t>
-  </si>
-  <si>
     <t>SCOD14</t>
   </si>
   <si>
@@ -3706,12 +3706,12 @@
     <t>Afghanistan 2013</t>
   </si>
   <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
     <t>Consolidated appeals process</t>
   </si>
   <si>
@@ -3868,15 +3868,15 @@
     <t>2012+ Kenya Emergency Humanitarian Response Plan</t>
   </si>
   <si>
+    <t>2012-12-31</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2012-01-01</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2012-12-31</t>
-  </si>
-  <si>
     <t>CAFG1112</t>
   </si>
   <si>
@@ -3946,12 +3946,12 @@
     <t>Lesotho Food Insecurity (September 2012 - March 2013)</t>
   </si>
   <si>
+    <t>2013-03-25</t>
+  </si>
+  <si>
     <t>2012-09-18</t>
   </si>
   <si>
-    <t>2013-03-25</t>
-  </si>
-  <si>
     <t>CLBR12</t>
   </si>
   <si>
@@ -4024,12 +4024,12 @@
     <t>Syria Humanitarian Assistance Response Plan (SHARP) 2012</t>
   </si>
   <si>
+    <t>2012-12-05</t>
+  </si>
+  <si>
     <t>2012-06-05</t>
   </si>
   <si>
-    <t>2012-12-05</t>
-  </si>
-  <si>
     <t>CYEM12</t>
   </si>
   <si>
@@ -4054,12 +4054,12 @@
     <t>2011+ Kenya Emergency Humanitarian Response Plan</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2011-01-01</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>CAFG11</t>
   </si>
   <si>
@@ -4102,12 +4102,12 @@
     <t>El Salvador Flash Appeal (October 2011 - April 2012)</t>
   </si>
   <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
     <t>2011-10-25</t>
   </si>
   <si>
-    <t>2012-04-25</t>
-  </si>
-  <si>
     <t>CHTI1011</t>
   </si>
   <si>
@@ -4138,24 +4138,24 @@
     <t>Namibia Flash Appeal (April - October 2011)</t>
   </si>
   <si>
+    <t>2011-10-11</t>
+  </si>
+  <si>
     <t>2011-04-11</t>
   </si>
   <si>
-    <t>2011-10-11</t>
-  </si>
-  <si>
     <t>FNIC1112</t>
   </si>
   <si>
     <t>Nicaragua Flash Appeal (October 2011 - April 2012)</t>
   </si>
   <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
     <t>2011-10-27</t>
   </si>
   <si>
-    <t>2012-04-26</t>
-  </si>
-  <si>
     <t>CNER11</t>
   </si>
   <si>
@@ -4168,12 +4168,12 @@
     <t>Pakistan Rapid Response Plan Floods 2011 (September - March 2012)</t>
   </si>
   <si>
+    <t>2012-06-30</t>
+  </si>
+  <si>
     <t>2011-09-15</t>
   </si>
   <si>
-    <t>2012-06-30</t>
-  </si>
-  <si>
     <t>FXLBYREG11</t>
   </si>
   <si>
@@ -4249,27 +4249,27 @@
     <t>Afghanistan Humanitarian Action Plan 2010</t>
   </si>
   <si>
+    <t>2010-12-31</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2010-01-01</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2010-12-31</t>
-  </si>
-  <si>
     <t>OBFA1011</t>
   </si>
   <si>
     <t>Burkina Faso Emergency Humanitarian Action Plan 2010</t>
   </si>
   <si>
+    <t>2011-01-31</t>
+  </si>
+  <si>
     <t>2010-08-01</t>
   </si>
   <si>
-    <t>2011-01-31</t>
-  </si>
-  <si>
     <t>CCAF10</t>
   </si>
   <si>
@@ -4294,36 +4294,36 @@
     <t>El Salvador Flash Appeal (Revised) (November 2009 - May 2010)</t>
   </si>
   <si>
+    <t>2010-05-31</t>
+  </si>
+  <si>
     <t>2009-11-01</t>
   </si>
   <si>
-    <t>2010-05-31</t>
-  </si>
-  <si>
     <t>FGTM10</t>
   </si>
   <si>
     <t>Guatemala Flash Appeal (Revised) (June - December 2010)</t>
   </si>
   <si>
+    <t>2010-12-09</t>
+  </si>
+  <si>
     <t>2010-06-10</t>
   </si>
   <si>
-    <t>2010-12-09</t>
-  </si>
-  <si>
     <t>CGTM10</t>
   </si>
   <si>
     <t>Guatemala Food Insecurity and Acute Malnutrition Appeal 2010</t>
   </si>
   <si>
+    <t>2010-08-11</t>
+  </si>
+  <si>
     <t>2010-02-12</t>
   </si>
   <si>
-    <t>2010-08-11</t>
-  </si>
-  <si>
     <t>FHTI10</t>
   </si>
   <si>
@@ -4351,12 +4351,12 @@
     <t>Kyrgyzstan Flash Appeal (Revised) (June 2010 - June 2011)</t>
   </si>
   <si>
+    <t>2011-06-30</t>
+  </si>
+  <si>
     <t>2010-06-01</t>
   </si>
   <si>
-    <t>2011-06-30</t>
-  </si>
-  <si>
     <t>CMNG1011</t>
   </si>
   <si>
@@ -4459,27 +4459,27 @@
     <t>Afghanistan Humanitarian Action Plan 2009</t>
   </si>
   <si>
+    <t>2009-12-31</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2009-01-01</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2009-12-31</t>
-  </si>
-  <si>
     <t>FBFA0910</t>
   </si>
   <si>
     <t>Burkina Faso Flash Appeal (September 2009 - February 2010)</t>
   </si>
   <si>
+    <t>2010-03-09</t>
+  </si>
+  <si>
     <t>2009-09-10</t>
   </si>
   <si>
-    <t>2010-03-09</t>
-  </si>
-  <si>
     <t>CCAF09</t>
   </si>
   <si>
@@ -4543,24 +4543,24 @@
     <t>Madagascar Flash Appeal (Revised) (April - October 2009)</t>
   </si>
   <si>
+    <t>2009-10-31</t>
+  </si>
+  <si>
     <t>2009-04-01</t>
   </si>
   <si>
-    <t>2009-10-31</t>
-  </si>
-  <si>
     <t>FNAM09</t>
   </si>
   <si>
     <t>Namibia Flash Appeal (Revised) (March - November 2009)</t>
   </si>
   <si>
+    <t>2009-09-30</t>
+  </si>
+  <si>
     <t>2009-03-20</t>
   </si>
   <si>
-    <t>2009-09-30</t>
-  </si>
-  <si>
     <t>ONPL09</t>
   </si>
   <si>
@@ -4582,12 +4582,12 @@
     <t>Philippines Flash Appeal (Revised) (October 2009 - March 2010)</t>
   </si>
   <si>
+    <t>2010-03-31</t>
+  </si>
+  <si>
     <t>2009-10-03</t>
   </si>
   <si>
-    <t>2010-03-31</t>
-  </si>
-  <si>
     <t>CSOM09</t>
   </si>
   <si>
@@ -4612,12 +4612,12 @@
     <t>Syria Drought Response Plan (Revised) (July 2009 - June 2010)</t>
   </si>
   <si>
+    <t>2010-06-14</t>
+  </si>
+  <si>
     <t>2009-07-15</t>
   </si>
   <si>
-    <t>2010-06-14</t>
-  </si>
-  <si>
     <t>OTJK09</t>
   </si>
   <si>
@@ -4675,27 +4675,27 @@
     <t>Afghanistan Joint Appeal 2008: Humanitarian Consequences of Rise in Food Prices (February - June 2008)</t>
   </si>
   <si>
+    <t>2008-06-30</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2008-02-01</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2008-06-30</t>
-  </si>
-  <si>
     <t>OAFG0809</t>
   </si>
   <si>
     <t>Afghanistan Joint Emergency Appeal 2008: High Food Price and Drought Crisis (July 2008 - June 2009)</t>
   </si>
   <si>
+    <t>2009-06-30</t>
+  </si>
+  <si>
     <t>2008-07-01</t>
   </si>
   <si>
-    <t>2009-06-30</t>
-  </si>
-  <si>
     <t>FBOL08</t>
   </si>
   <si>
@@ -4711,12 +4711,12 @@
     <t>Central African Republic 2008</t>
   </si>
   <si>
+    <t>2008-12-31</t>
+  </si>
+  <si>
     <t>2008-01-01</t>
   </si>
   <si>
-    <t>2008-12-31</t>
-  </si>
-  <si>
     <t>CTCD08</t>
   </si>
   <si>
@@ -4747,24 +4747,24 @@
     <t>Djibouti Joint Appeal 2008: Response Plan for Drought, Food and Nutrition Crisis</t>
   </si>
   <si>
+    <t>2009-02-28</t>
+  </si>
+  <si>
     <t>2008-08-01</t>
   </si>
   <si>
-    <t>2009-02-28</t>
-  </si>
-  <si>
     <t>FGEO0809</t>
   </si>
   <si>
     <t>Georgia Crisis Flash Appeal (Revised) 2008</t>
   </si>
   <si>
+    <t>2009-02-09</t>
+  </si>
+  <si>
     <t>2008-08-09</t>
   </si>
   <si>
-    <t>2009-02-09</t>
-  </si>
-  <si>
     <t>FHTI0809</t>
   </si>
   <si>
@@ -4780,12 +4780,12 @@
     <t>Honduras Flash Appeal (Updated) (November - April) 2008</t>
   </si>
   <si>
+    <t>2009-04-30</t>
+  </si>
+  <si>
     <t>2008-11-01</t>
   </si>
   <si>
-    <t>2009-04-30</t>
-  </si>
-  <si>
     <t>CIRQ08</t>
   </si>
   <si>
@@ -4804,12 +4804,12 @@
     <t>Kyrgyzstan Flash Appeal (Revised) 2008</t>
   </si>
   <si>
+    <t>2009-05-31</t>
+  </si>
+  <si>
     <t>2008-12-01</t>
   </si>
   <si>
-    <t>2009-05-31</t>
-  </si>
-  <si>
     <t>OLAO0809</t>
   </si>
   <si>
@@ -4840,12 +4840,12 @@
     <t>Myanmar Flash Appeal (Revised) 2008</t>
   </si>
   <si>
+    <t>2008-11-30</t>
+  </si>
+  <si>
     <t>2008-05-01</t>
   </si>
   <si>
-    <t>2008-11-30</t>
-  </si>
-  <si>
     <t>ONPL08</t>
   </si>
   <si>
@@ -4942,39 +4942,39 @@
     <t>Bolivia Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-08-21</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2007-02-22</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2007-08-21</t>
-  </si>
-  <si>
     <t>FBFA0708</t>
   </si>
   <si>
     <t>Burkina Faso Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
     <t>2007-11-01</t>
   </si>
   <si>
-    <t>2008-01-31</t>
-  </si>
-  <si>
     <t>CBDI07</t>
   </si>
   <si>
     <t>Burundi 2007</t>
   </si>
   <si>
+    <t>2007-12-31</t>
+  </si>
+  <si>
     <t>2007-01-01</t>
   </si>
   <si>
-    <t>2007-12-31</t>
-  </si>
-  <si>
     <t>CCAF07</t>
   </si>
   <si>
@@ -5014,12 +5014,12 @@
     <t>Ghana Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2008-03-31</t>
+  </si>
+  <si>
     <t>2007-09-01</t>
   </si>
   <si>
-    <t>2008-03-31</t>
-  </si>
-  <si>
     <t>CXGLR07</t>
   </si>
   <si>
@@ -5041,36 +5041,36 @@
     <t>Korea DPR Flash Appeal: Floods Emergency 2007</t>
   </si>
   <si>
+    <t>2007-11-30</t>
+  </si>
+  <si>
     <t>2007-08-28</t>
   </si>
   <si>
-    <t>2007-11-30</t>
-  </si>
-  <si>
     <t>OLBN07</t>
   </si>
   <si>
     <t>Lebanon Crisis Appeal 2007</t>
   </si>
   <si>
+    <t>2007-09-03</t>
+  </si>
+  <si>
     <t>2007-06-04</t>
   </si>
   <si>
-    <t>2007-09-03</t>
-  </si>
-  <si>
     <t>FLSO0708</t>
   </si>
   <si>
     <t>Lesotho Drought Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2008-01-28</t>
+  </si>
+  <si>
     <t>2007-07-28</t>
   </si>
   <si>
-    <t>2008-01-28</t>
-  </si>
-  <si>
     <t>CLBR07</t>
   </si>
   <si>
@@ -5083,24 +5083,24 @@
     <t>Madagascar Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-09-15</t>
+  </si>
+  <si>
     <t>2007-03-15</t>
   </si>
   <si>
-    <t>2007-09-15</t>
-  </si>
-  <si>
     <t>FMOZ07</t>
   </si>
   <si>
     <t>Mozambique Floods and Cyclone Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-06-30</t>
+  </si>
+  <si>
     <t>2007-03-01</t>
   </si>
   <si>
-    <t>2007-06-30</t>
-  </si>
-  <si>
     <t>ONPL07</t>
   </si>
   <si>
@@ -5113,12 +5113,12 @@
     <t>Nicaragua Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2008-02-28</t>
+  </si>
+  <si>
     <t>2007-09-07</t>
   </si>
   <si>
-    <t>2008-02-28</t>
-  </si>
-  <si>
     <t>ORUS07</t>
   </si>
   <si>
@@ -5131,12 +5131,12 @@
     <t>Pakistan Cyclone and Floods Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007-10-31</t>
+  </si>
+  <si>
     <t>2007-07-15</t>
   </si>
   <si>
-    <t>2007-10-31</t>
-  </si>
-  <si>
     <t>FPER0708</t>
   </si>
   <si>
@@ -5194,12 +5194,12 @@
     <t>Swaziland Drought Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2008-01-20</t>
+  </si>
+  <si>
     <t>2007-07-20</t>
   </si>
   <si>
-    <t>2008-01-20</t>
-  </si>
-  <si>
     <t>CTLS07</t>
   </si>
   <si>
@@ -5248,15 +5248,15 @@
     <t>Afghanistan Drought Joint Appeal 2006</t>
   </si>
   <si>
+    <t>2006-12-31</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2006-07-01</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2006-12-31</t>
-  </si>
-  <si>
     <t>CBDI06</t>
   </si>
   <si>
@@ -5302,24 +5302,24 @@
     <t>Ethiopia Floods Joint Appeal 2006</t>
   </si>
   <si>
+    <t>2006-11-25</t>
+  </si>
+  <si>
     <t>2006-08-25</t>
   </si>
   <si>
-    <t>2006-11-25</t>
-  </si>
-  <si>
     <t>OETH0607</t>
   </si>
   <si>
     <t>Ethiopia: 2006 Govt-UN Joint Emergency Flood Appeal for Somali Region</t>
   </si>
   <si>
+    <t>2007-01-22</t>
+  </si>
+  <si>
     <t>2006-11-23</t>
   </si>
   <si>
-    <t>2007-01-22</t>
-  </si>
-  <si>
     <t>CXGLR06</t>
   </si>
   <si>
@@ -5338,12 +5338,12 @@
     <t>Guinea-Bissau 2006</t>
   </si>
   <si>
+    <t>2006-11-30</t>
+  </si>
+  <si>
     <t>2006-05-01</t>
   </si>
   <si>
-    <t>2006-11-30</t>
-  </si>
-  <si>
     <t>CXHAF06</t>
   </si>
   <si>
@@ -5362,12 +5362,12 @@
     <t>Kenya 2006</t>
   </si>
   <si>
+    <t>2007-04-15</t>
+  </si>
+  <si>
     <t>2006-10-16</t>
   </si>
   <si>
-    <t>2007-04-15</t>
-  </si>
-  <si>
     <t>FKEN06</t>
   </si>
   <si>
@@ -5383,12 +5383,12 @@
     <t>Lebanon Crisis 2006</t>
   </si>
   <si>
+    <t>2006-10-23</t>
+  </si>
+  <si>
     <t>2006-07-24</t>
   </si>
   <si>
-    <t>2006-10-23</t>
-  </si>
-  <si>
     <t>CLBR06</t>
   </si>
   <si>
@@ -5437,12 +5437,12 @@
     <t>Somalia: 2006 Flood Response Plan</t>
   </si>
   <si>
+    <t>2007-03-05</t>
+  </si>
+  <si>
     <t>2006-12-05</t>
   </si>
   <si>
-    <t>2007-03-05</t>
-  </si>
-  <si>
     <t>OLKA06</t>
   </si>
   <si>
@@ -5503,39 +5503,39 @@
     <t>Angola Marburg VHF 2005</t>
   </si>
   <si>
+    <t>2005-06-30</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2005-04-01</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2005-06-30</t>
-  </si>
-  <si>
     <t>FBEN05</t>
   </si>
   <si>
     <t>Benin 2005</t>
   </si>
   <si>
+    <t>2005-10-31</t>
+  </si>
+  <si>
     <t>2005-05-01</t>
   </si>
   <si>
-    <t>2005-10-31</t>
-  </si>
-  <si>
     <t>CBDI05</t>
   </si>
   <si>
     <t>Burundi 2005</t>
   </si>
   <si>
+    <t>2005-12-31</t>
+  </si>
+  <si>
     <t>2005-01-01</t>
   </si>
   <si>
-    <t>2005-12-31</t>
-  </si>
-  <si>
     <t>CCAF05</t>
   </si>
   <si>
@@ -5611,12 +5611,12 @@
     <t>Guyana 2005</t>
   </si>
   <si>
+    <t>2005-08-01</t>
+  </si>
+  <si>
     <t>2005-02-01</t>
   </si>
   <si>
-    <t>2005-08-01</t>
-  </si>
-  <si>
     <t>FXINDTSU05</t>
   </si>
   <si>
@@ -5638,12 +5638,12 @@
     <t>Niger 2005</t>
   </si>
   <si>
+    <t>2005-09-30</t>
+  </si>
+  <si>
     <t>2005-06-01</t>
   </si>
   <si>
-    <t>2005-09-30</t>
-  </si>
-  <si>
     <t>CCOG05</t>
   </si>
   <si>
@@ -5662,12 +5662,12 @@
     <t>South Asia Earthquake 2005</t>
   </si>
   <si>
+    <t>2006-04-10</t>
+  </si>
+  <si>
     <t>2005-10-11</t>
   </si>
   <si>
-    <t>2006-04-10</t>
-  </si>
-  <si>
     <t>CSDN05</t>
   </si>
   <si>
@@ -5692,12 +5692,12 @@
     <t>West and Central Africa Region Cholera 2005</t>
   </si>
   <si>
+    <t>2006-05-31</t>
+  </si>
+  <si>
     <t>2005-11-01</t>
   </si>
   <si>
-    <t>2006-05-31</t>
-  </si>
-  <si>
     <t>CPSE05</t>
   </si>
   <si>
@@ -5710,15 +5710,15 @@
     <t>Afghanistan UN-Government Drought Appeal 2004</t>
   </si>
   <si>
+    <t>2004-12-31</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2004-09-01</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2004-12-31</t>
-  </si>
-  <si>
     <t>CAGO04</t>
   </si>
   <si>
@@ -5734,24 +5734,24 @@
     <t>Bangladesh 2004</t>
   </si>
   <si>
+    <t>2005-01-31</t>
+  </si>
+  <si>
     <t>2004-08-01</t>
   </si>
   <si>
-    <t>2005-01-31</t>
-  </si>
-  <si>
     <t>FBOL0405</t>
   </si>
   <si>
     <t>Bolivia 2004</t>
   </si>
   <si>
+    <t>2005-05-31</t>
+  </si>
+  <si>
     <t>2004-11-01</t>
   </si>
   <si>
-    <t>2005-05-31</t>
-  </si>
-  <si>
     <t>CBDI04</t>
   </si>
   <si>
@@ -5878,24 +5878,24 @@
     <t>Madagascar 2004</t>
   </si>
   <si>
+    <t>2004-06-19</t>
+  </si>
+  <si>
     <t>2004-03-19</t>
   </si>
   <si>
-    <t>2004-06-19</t>
-  </si>
-  <si>
     <t>FPHL0405</t>
   </si>
   <si>
     <t>Philippines 2004</t>
   </si>
   <si>
+    <t>2005-03-15</t>
+  </si>
+  <si>
     <t>2004-12-15</t>
   </si>
   <si>
-    <t>2005-03-15</t>
-  </si>
-  <si>
     <t>CSLE04</t>
   </si>
   <si>
@@ -5956,15 +5956,15 @@
     <t>Afghanistan TAPA 2003</t>
   </si>
   <si>
+    <t>2003-12-31</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2003-01-01</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2003-12-31</t>
-  </si>
-  <si>
     <t>CAGO03</t>
   </si>
   <si>
@@ -5983,12 +5983,12 @@
     <t>Central African Republic 2003</t>
   </si>
   <si>
+    <t>2003-06-30</t>
+  </si>
+  <si>
     <t>2003-04-01</t>
   </si>
   <si>
-    <t>2003-06-30</t>
-  </si>
-  <si>
     <t>CRUS03</t>
   </si>
   <si>
@@ -6013,12 +6013,12 @@
     <t>Côte d'Ivoire and the West Africa Sub-Region 2002-2003</t>
   </si>
   <si>
+    <t>2003-01-31</t>
+  </si>
+  <si>
     <t>2002-11-01</t>
   </si>
   <si>
-    <t>2003-01-31</t>
-  </si>
-  <si>
     <t>CPRK03</t>
   </si>
   <si>
@@ -6055,24 +6055,24 @@
     <t>Haiti (PIR) 2003</t>
   </si>
   <si>
+    <t>2003-08-31</t>
+  </si>
+  <si>
     <t>2003-03-01</t>
   </si>
   <si>
-    <t>2003-08-31</t>
-  </si>
-  <si>
     <t>CLSO0304</t>
   </si>
   <si>
     <t>Humanitarian Crisis in Southern Africa - LESOTHO (July 2003 - June 2004)</t>
   </si>
   <si>
+    <t>2004-06-30</t>
+  </si>
+  <si>
     <t>2003-07-01</t>
   </si>
   <si>
-    <t>2004-06-30</t>
-  </si>
-  <si>
     <t>CMWI03</t>
   </si>
   <si>
@@ -6175,15 +6175,15 @@
     <t>Afghanistan 2002 (ITAP for the Afghan People)</t>
   </si>
   <si>
+    <t>2002-12-31</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2001-10-01</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2002-12-31</t>
-  </si>
-  <si>
     <t>CAGO02</t>
   </si>
   <si>
@@ -6361,15 +6361,15 @@
     <t>Afghanistan 2001</t>
   </si>
   <si>
+    <t>2001-09-30</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2001-01-01</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2001-09-30</t>
-  </si>
-  <si>
     <t>CAGO01</t>
   </si>
   <si>
@@ -6511,15 +6511,15 @@
     <t>Angola 2000</t>
   </si>
   <si>
+    <t>2000-12-31</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2000-01-01</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2000-12-31</t>
-  </si>
-  <si>
     <t>CBDI00</t>
   </si>
   <si>
@@ -6607,10 +6607,10 @@
     <t>East Timor 1999</t>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
     <t>1999-10-01</t>
-  </si>
-  <si>
-    <t>1999</t>
   </si>
   <si>
     <t>CRUS9900</t>
@@ -7043,13 +7043,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -7273,13 +7273,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
@@ -7296,13 +7296,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -7342,13 +7342,13 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -7388,13 +7388,13 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
@@ -7411,13 +7411,13 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -7503,13 +7503,13 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -7894,13 +7894,13 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -7940,13 +7940,13 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -7963,13 +7963,13 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
@@ -8032,13 +8032,13 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>111</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -8078,13 +8078,13 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -8239,13 +8239,13 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -8331,13 +8331,13 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -8354,13 +8354,13 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G61" t="s">
         <v>34</v>
@@ -8377,13 +8377,13 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
         <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
         <v>34</v>
@@ -8400,13 +8400,13 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
         <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
         <v>34</v>
@@ -8423,13 +8423,13 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
@@ -8469,13 +8469,13 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
         <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
@@ -8492,13 +8492,13 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
         <v>111</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="G67" t="s">
         <v>34</v>
@@ -8561,13 +8561,13 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
         <v>111</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -8630,13 +8630,13 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
         <v>111</v>
       </c>
       <c r="F73" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
@@ -8768,13 +8768,13 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G79" t="s">
         <v>34</v>
@@ -9067,13 +9067,13 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="G92" t="s">
         <v>20</v>
@@ -9113,13 +9113,13 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>111</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -9136,13 +9136,13 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
         <v>111</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -9343,13 +9343,13 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s">
         <v>230</v>
       </c>
       <c r="F104" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -9527,13 +9527,13 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="E112" t="s">
         <v>230</v>
       </c>
       <c r="F112" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="G112" t="s">
         <v>34</v>
@@ -9734,13 +9734,13 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="E121" t="s">
         <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="G121" t="s">
         <v>25</v>
@@ -9757,13 +9757,13 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="E122" t="s">
         <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
@@ -10010,13 +10010,13 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="E133" t="s">
         <v>230</v>
       </c>
       <c r="F133" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -10056,13 +10056,13 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="E135" t="s">
         <v>230</v>
       </c>
       <c r="F135" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -10539,13 +10539,13 @@
         <v>182</v>
       </c>
       <c r="D156" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="E156" t="s">
         <v>336</v>
       </c>
       <c r="F156" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="G156" t="s">
         <v>34</v>
@@ -10631,13 +10631,13 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="E160" t="s">
         <v>336</v>
       </c>
       <c r="F160" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -10907,13 +10907,13 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="E172" t="s">
         <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="G172" t="s">
         <v>20</v>
@@ -10930,13 +10930,13 @@
         <v>182</v>
       </c>
       <c r="D173" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E173" t="s">
         <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G173" t="s">
         <v>20</v>
@@ -11137,13 +11137,13 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="E182" t="s">
         <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="G182" t="s">
         <v>20</v>
@@ -11252,13 +11252,13 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>439</v>
+        <v>335</v>
       </c>
       <c r="E187" t="s">
         <v>336</v>
       </c>
       <c r="F187" t="s">
-        <v>337</v>
+        <v>439</v>
       </c>
       <c r="G187" t="s">
         <v>34</v>
@@ -11298,13 +11298,13 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E189" t="s">
         <v>336</v>
       </c>
       <c r="F189" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
@@ -11390,13 +11390,13 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E193" t="s">
         <v>452</v>
       </c>
       <c r="F193" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G193" t="s">
         <v>25</v>
@@ -11413,13 +11413,13 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E194" t="s">
         <v>452</v>
       </c>
       <c r="F194" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G194" t="s">
         <v>16</v>
@@ -11436,13 +11436,13 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E195" t="s">
         <v>452</v>
       </c>
       <c r="F195" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G195" t="s">
         <v>25</v>
@@ -11459,13 +11459,13 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E196" t="s">
         <v>452</v>
       </c>
       <c r="F196" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G196" t="s">
         <v>25</v>
@@ -11482,13 +11482,13 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E197" t="s">
         <v>452</v>
       </c>
       <c r="F197" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G197" t="s">
         <v>16</v>
@@ -11505,13 +11505,13 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E198" t="s">
         <v>452</v>
       </c>
       <c r="F198" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G198" t="s">
         <v>25</v>
@@ -11528,13 +11528,13 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E199" t="s">
         <v>452</v>
       </c>
       <c r="F199" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G199" t="s">
         <v>25</v>
@@ -11551,13 +11551,13 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E200" t="s">
         <v>452</v>
       </c>
       <c r="F200" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G200" t="s">
         <v>25</v>
@@ -11574,13 +11574,13 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E201" t="s">
         <v>452</v>
       </c>
       <c r="F201" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G201" t="s">
         <v>25</v>
@@ -11597,13 +11597,13 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E202" t="s">
         <v>452</v>
       </c>
       <c r="F202" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G202" t="s">
         <v>25</v>
@@ -11620,13 +11620,13 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E203" t="s">
         <v>452</v>
       </c>
       <c r="F203" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G203" t="s">
         <v>16</v>
@@ -11643,13 +11643,13 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="E204" t="s">
         <v>452</v>
       </c>
       <c r="F204" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="G204" t="s">
         <v>25</v>
@@ -11666,13 +11666,13 @@
         <v>182</v>
       </c>
       <c r="D205" t="s">
-        <v>479</v>
+        <v>335</v>
       </c>
       <c r="E205" t="s">
         <v>452</v>
       </c>
       <c r="F205" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="G205" t="s">
         <v>25</v>
@@ -11712,13 +11712,13 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E207" t="s">
         <v>452</v>
       </c>
       <c r="F207" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G207" t="s">
         <v>25</v>
@@ -11735,13 +11735,13 @@
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="E208" t="s">
         <v>452</v>
       </c>
       <c r="F208" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="G208" t="s">
         <v>25</v>
@@ -11758,13 +11758,13 @@
         <v>182</v>
       </c>
       <c r="D209" t="s">
-        <v>479</v>
+        <v>335</v>
       </c>
       <c r="E209" t="s">
         <v>452</v>
       </c>
       <c r="F209" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="G209" t="s">
         <v>25</v>
@@ -11804,13 +11804,13 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E211" t="s">
         <v>452</v>
       </c>
       <c r="F211" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G211" t="s">
         <v>25</v>
@@ -11850,13 +11850,13 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="E213" t="s">
         <v>452</v>
       </c>
       <c r="F213" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="G213" t="s">
         <v>25</v>
@@ -11873,13 +11873,13 @@
         <v>182</v>
       </c>
       <c r="D214" t="s">
-        <v>479</v>
+        <v>335</v>
       </c>
       <c r="E214" t="s">
         <v>452</v>
       </c>
       <c r="F214" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="G214" t="s">
         <v>25</v>
@@ -11896,13 +11896,13 @@
         <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E215" t="s">
         <v>452</v>
       </c>
       <c r="F215" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G215" t="s">
         <v>25</v>
@@ -11919,13 +11919,13 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="E216" t="s">
         <v>452</v>
       </c>
       <c r="F216" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -11965,13 +11965,13 @@
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E218" t="s">
         <v>452</v>
       </c>
       <c r="F218" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G218" t="s">
         <v>25</v>
@@ -11988,13 +11988,13 @@
         <v>182</v>
       </c>
       <c r="D219" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="E219" t="s">
         <v>452</v>
       </c>
       <c r="F219" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="G219" t="s">
         <v>34</v>
@@ -12011,13 +12011,13 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E220" t="s">
         <v>452</v>
       </c>
       <c r="F220" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G220" t="s">
         <v>34</v>
@@ -12034,13 +12034,13 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E221" t="s">
         <v>452</v>
       </c>
       <c r="F221" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G221" t="s">
         <v>25</v>
@@ -12057,13 +12057,13 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E222" t="s">
         <v>452</v>
       </c>
       <c r="F222" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G222" t="s">
         <v>25</v>
@@ -12080,13 +12080,13 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E223" t="s">
         <v>452</v>
       </c>
       <c r="F223" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G223" t="s">
         <v>25</v>
@@ -12103,13 +12103,13 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>529</v>
+        <v>451</v>
       </c>
       <c r="E224" t="s">
         <v>452</v>
       </c>
       <c r="F224" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
       <c r="G224" t="s">
         <v>20</v>
@@ -12126,13 +12126,13 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>532</v>
+        <v>451</v>
       </c>
       <c r="E225" t="s">
         <v>452</v>
       </c>
       <c r="F225" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="G225" t="s">
         <v>20</v>
@@ -12149,13 +12149,13 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E226" t="s">
         <v>452</v>
       </c>
       <c r="F226" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G226" t="s">
         <v>25</v>
@@ -12172,13 +12172,13 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E227" t="s">
         <v>452</v>
       </c>
       <c r="F227" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G227" t="s">
         <v>25</v>
@@ -12195,13 +12195,13 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>532</v>
+        <v>451</v>
       </c>
       <c r="E228" t="s">
         <v>452</v>
       </c>
       <c r="F228" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -12218,13 +12218,13 @@
         <v>182</v>
       </c>
       <c r="D229" t="s">
-        <v>532</v>
+        <v>451</v>
       </c>
       <c r="E229" t="s">
         <v>452</v>
       </c>
       <c r="F229" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="G229" t="s">
         <v>20</v>
@@ -12241,13 +12241,13 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E230" t="s">
         <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G230" t="s">
         <v>25</v>
@@ -12264,13 +12264,13 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E231" t="s">
         <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G231" t="s">
         <v>25</v>
@@ -12287,13 +12287,13 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E232" t="s">
         <v>452</v>
       </c>
       <c r="F232" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G232" t="s">
         <v>16</v>
@@ -12310,13 +12310,13 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E233" t="s">
         <v>452</v>
       </c>
       <c r="F233" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G233" t="s">
         <v>16</v>
@@ -12333,13 +12333,13 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E234" t="s">
         <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G234" t="s">
         <v>25</v>
@@ -12356,13 +12356,13 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E235" t="s">
         <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G235" t="s">
         <v>25</v>
@@ -12379,13 +12379,13 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E236" t="s">
         <v>452</v>
       </c>
       <c r="F236" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G236" t="s">
         <v>16</v>
@@ -12402,13 +12402,13 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E237" t="s">
         <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G237" t="s">
         <v>25</v>
@@ -12425,13 +12425,13 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E238" t="s">
         <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G238" t="s">
         <v>25</v>
@@ -12448,13 +12448,13 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E239" t="s">
         <v>452</v>
       </c>
       <c r="F239" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G239" t="s">
         <v>16</v>
@@ -12471,13 +12471,13 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E240" t="s">
         <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G240" t="s">
         <v>25</v>
@@ -12494,13 +12494,13 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E241" t="s">
         <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G241" t="s">
         <v>25</v>
@@ -12517,13 +12517,13 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E242" t="s">
         <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G242" t="s">
         <v>25</v>
@@ -12540,13 +12540,13 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E243" t="s">
         <v>452</v>
       </c>
       <c r="F243" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G243" t="s">
         <v>25</v>
@@ -12586,13 +12586,13 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E245" t="s">
         <v>571</v>
       </c>
       <c r="F245" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G245" t="s">
         <v>20</v>
@@ -12632,13 +12632,13 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E247" t="s">
         <v>571</v>
       </c>
       <c r="F247" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G247" t="s">
         <v>20</v>
@@ -12724,13 +12724,13 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="E251" t="s">
         <v>571</v>
       </c>
       <c r="F251" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="G251" t="s">
         <v>20</v>
@@ -12770,13 +12770,13 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>593</v>
+        <v>456</v>
       </c>
       <c r="E253" t="s">
         <v>571</v>
       </c>
       <c r="F253" t="s">
-        <v>456</v>
+        <v>593</v>
       </c>
       <c r="G253" t="s">
         <v>25</v>
@@ -12839,13 +12839,13 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E256" t="s">
         <v>571</v>
       </c>
       <c r="F256" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G256" t="s">
         <v>20</v>
@@ -12862,13 +12862,13 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E257" t="s">
         <v>571</v>
       </c>
       <c r="F257" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G257" t="s">
         <v>20</v>
@@ -12885,13 +12885,13 @@
         <v>182</v>
       </c>
       <c r="D258" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="E258" t="s">
         <v>571</v>
       </c>
       <c r="F258" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="G258" t="s">
         <v>25</v>
@@ -12977,13 +12977,13 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E262" t="s">
         <v>571</v>
       </c>
       <c r="F262" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G262" t="s">
         <v>20</v>
@@ -13000,13 +13000,13 @@
         <v>182</v>
       </c>
       <c r="D263" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E263" t="s">
         <v>571</v>
       </c>
       <c r="F263" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G263" t="s">
         <v>20</v>
@@ -13046,13 +13046,13 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E265" t="s">
         <v>571</v>
       </c>
       <c r="F265" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G265" t="s">
         <v>20</v>
@@ -13092,13 +13092,13 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E267" t="s">
         <v>571</v>
       </c>
       <c r="F267" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G267" t="s">
         <v>20</v>
@@ -13115,13 +13115,13 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="E268" t="s">
         <v>571</v>
       </c>
       <c r="F268" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="G268" t="s">
         <v>20</v>
@@ -13138,13 +13138,13 @@
         <v>182</v>
       </c>
       <c r="D269" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E269" t="s">
         <v>571</v>
       </c>
       <c r="F269" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G269" t="s">
         <v>20</v>
@@ -13161,13 +13161,13 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E270" t="s">
         <v>571</v>
       </c>
       <c r="F270" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G270" t="s">
         <v>20</v>
@@ -13207,13 +13207,13 @@
         <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E272" t="s">
         <v>571</v>
       </c>
       <c r="F272" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G272" t="s">
         <v>20</v>
@@ -13253,13 +13253,13 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E274" t="s">
         <v>571</v>
       </c>
       <c r="F274" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G274" t="s">
         <v>20</v>
@@ -13276,13 +13276,13 @@
         <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="E275" t="s">
         <v>571</v>
       </c>
       <c r="F275" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="G275" t="s">
         <v>20</v>
@@ -13322,13 +13322,13 @@
         <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E277" t="s">
         <v>571</v>
       </c>
       <c r="F277" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G277" t="s">
         <v>20</v>
@@ -13368,13 +13368,13 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E279" t="s">
         <v>571</v>
       </c>
       <c r="F279" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G279" t="s">
         <v>20</v>
@@ -13437,13 +13437,13 @@
         <v>9</v>
       </c>
       <c r="D282" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E282" t="s">
         <v>571</v>
       </c>
       <c r="F282" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G282" t="s">
         <v>20</v>
@@ -13552,13 +13552,13 @@
         <v>9</v>
       </c>
       <c r="D287" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="E287" t="s">
         <v>571</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="G287" t="s">
         <v>20</v>
@@ -13575,13 +13575,13 @@
         <v>9</v>
       </c>
       <c r="D288" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E288" t="s">
         <v>571</v>
       </c>
       <c r="F288" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G288" t="s">
         <v>20</v>
@@ -13644,13 +13644,13 @@
         <v>9</v>
       </c>
       <c r="D291" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="E291" t="s">
         <v>571</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="G291" t="s">
         <v>20</v>
@@ -13667,13 +13667,13 @@
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E292" t="s">
         <v>571</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G292" t="s">
         <v>20</v>
@@ -13828,13 +13828,13 @@
         <v>9</v>
       </c>
       <c r="D299" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E299" t="s">
         <v>571</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G299" t="s">
         <v>20</v>
@@ -13851,13 +13851,13 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E300" t="s">
         <v>571</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G300" t="s">
         <v>20</v>
@@ -13874,13 +13874,13 @@
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E301" t="s">
         <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G301" t="s">
         <v>20</v>
@@ -13920,13 +13920,13 @@
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E303" t="s">
         <v>571</v>
       </c>
       <c r="F303" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G303" t="s">
         <v>20</v>
@@ -13989,13 +13989,13 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>708</v>
+        <v>611</v>
       </c>
       <c r="E306" t="s">
         <v>571</v>
       </c>
       <c r="F306" t="s">
-        <v>612</v>
+        <v>708</v>
       </c>
       <c r="G306" t="s">
         <v>20</v>
@@ -14012,13 +14012,13 @@
         <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E307" t="s">
         <v>571</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G307" t="s">
         <v>20</v>
@@ -14357,13 +14357,13 @@
         <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="E322" t="s">
         <v>716</v>
       </c>
       <c r="F322" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
       <c r="G322" t="s">
         <v>20</v>
@@ -14403,13 +14403,13 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="E324" t="s">
         <v>716</v>
       </c>
       <c r="F324" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="G324" t="s">
         <v>34</v>
@@ -14541,13 +14541,13 @@
         <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>715</v>
+        <v>762</v>
       </c>
       <c r="E330" t="s">
         <v>716</v>
       </c>
       <c r="F330" t="s">
-        <v>762</v>
+        <v>717</v>
       </c>
       <c r="G330" t="s">
         <v>25</v>
@@ -14840,13 +14840,13 @@
         <v>182</v>
       </c>
       <c r="D343" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E343" t="s">
         <v>716</v>
       </c>
       <c r="F343" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="G343" t="s">
         <v>34</v>
@@ -14886,13 +14886,13 @@
         <v>182</v>
       </c>
       <c r="D345" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E345" t="s">
         <v>795</v>
       </c>
       <c r="F345" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G345" t="s">
         <v>20</v>
@@ -15116,13 +15116,13 @@
         <v>9</v>
       </c>
       <c r="D355" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="E355" t="s">
         <v>795</v>
       </c>
       <c r="F355" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="G355" t="s">
         <v>20</v>
@@ -15346,13 +15346,13 @@
         <v>9</v>
       </c>
       <c r="D365" t="s">
-        <v>841</v>
+        <v>794</v>
       </c>
       <c r="E365" t="s">
         <v>795</v>
       </c>
       <c r="F365" t="s">
-        <v>796</v>
+        <v>841</v>
       </c>
       <c r="G365" t="s">
         <v>20</v>
@@ -15369,13 +15369,13 @@
         <v>9</v>
       </c>
       <c r="D366" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E366" t="s">
         <v>795</v>
       </c>
       <c r="F366" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G366" t="s">
         <v>16</v>
@@ -15461,13 +15461,13 @@
         <v>9</v>
       </c>
       <c r="D370" t="s">
-        <v>794</v>
+        <v>852</v>
       </c>
       <c r="E370" t="s">
         <v>795</v>
       </c>
       <c r="F370" t="s">
-        <v>852</v>
+        <v>796</v>
       </c>
       <c r="G370" t="s">
         <v>25</v>
@@ -15668,13 +15668,13 @@
         <v>9</v>
       </c>
       <c r="D379" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="E379" t="s">
         <v>870</v>
       </c>
       <c r="F379" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="G379" t="s">
         <v>16</v>
@@ -15806,13 +15806,13 @@
         <v>9</v>
       </c>
       <c r="D385" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="E385" t="s">
         <v>870</v>
       </c>
       <c r="F385" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="G385" t="s">
         <v>20</v>
@@ -15829,13 +15829,13 @@
         <v>9</v>
       </c>
       <c r="D386" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="E386" t="s">
         <v>870</v>
       </c>
       <c r="F386" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="G386" t="s">
         <v>25</v>
@@ -15967,13 +15967,13 @@
         <v>9</v>
       </c>
       <c r="D392" t="s">
-        <v>907</v>
+        <v>869</v>
       </c>
       <c r="E392" t="s">
         <v>870</v>
       </c>
       <c r="F392" t="s">
-        <v>871</v>
+        <v>907</v>
       </c>
       <c r="G392" t="s">
         <v>20</v>
@@ -16289,13 +16289,13 @@
         <v>9</v>
       </c>
       <c r="D406" t="s">
-        <v>944</v>
+        <v>869</v>
       </c>
       <c r="E406" t="s">
         <v>870</v>
       </c>
       <c r="F406" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="G406" t="s">
         <v>25</v>
@@ -16565,13 +16565,13 @@
         <v>9</v>
       </c>
       <c r="D418" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="E418" t="s">
         <v>966</v>
       </c>
       <c r="F418" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="G418" t="s">
         <v>34</v>
@@ -16611,13 +16611,13 @@
         <v>9</v>
       </c>
       <c r="D420" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="E420" t="s">
         <v>966</v>
       </c>
       <c r="F420" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="G420" t="s">
         <v>25</v>
@@ -16887,13 +16887,13 @@
         <v>9</v>
       </c>
       <c r="D432" t="s">
-        <v>1006</v>
+        <v>965</v>
       </c>
       <c r="E432" t="s">
         <v>966</v>
       </c>
       <c r="F432" t="s">
-        <v>967</v>
+        <v>1006</v>
       </c>
       <c r="G432" t="s">
         <v>34</v>
@@ -16956,13 +16956,13 @@
         <v>9</v>
       </c>
       <c r="D435" t="s">
-        <v>1013</v>
+        <v>965</v>
       </c>
       <c r="E435" t="s">
         <v>966</v>
       </c>
       <c r="F435" t="s">
-        <v>967</v>
+        <v>1013</v>
       </c>
       <c r="G435" t="s">
         <v>34</v>
@@ -16979,13 +16979,13 @@
         <v>9</v>
       </c>
       <c r="D436" t="s">
-        <v>1016</v>
+        <v>965</v>
       </c>
       <c r="E436" t="s">
         <v>966</v>
       </c>
       <c r="F436" t="s">
-        <v>967</v>
+        <v>1016</v>
       </c>
       <c r="G436" t="s">
         <v>25</v>
@@ -17623,13 +17623,13 @@
         <v>9</v>
       </c>
       <c r="D464" t="s">
-        <v>1083</v>
+        <v>1057</v>
       </c>
       <c r="E464" t="s">
         <v>1058</v>
       </c>
       <c r="F464" t="s">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="G464" t="s">
         <v>34</v>
@@ -17646,13 +17646,13 @@
         <v>9</v>
       </c>
       <c r="D465" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="E465" t="s">
         <v>1058</v>
       </c>
       <c r="F465" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="G465" t="s">
         <v>34</v>
@@ -17807,13 +17807,13 @@
         <v>9</v>
       </c>
       <c r="D472" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="E472" t="s">
         <v>1058</v>
       </c>
       <c r="F472" t="s">
-        <v>1080</v>
+        <v>1105</v>
       </c>
       <c r="G472" t="s">
         <v>34</v>
@@ -18152,13 +18152,13 @@
         <v>9</v>
       </c>
       <c r="D487" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E487" t="s">
         <v>1135</v>
       </c>
       <c r="F487" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="G487" t="s">
         <v>1060</v>
@@ -18244,13 +18244,13 @@
         <v>182</v>
       </c>
       <c r="D491" t="s">
-        <v>1134</v>
+        <v>1148</v>
       </c>
       <c r="E491" t="s">
         <v>1135</v>
       </c>
       <c r="F491" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="G491" t="s">
         <v>25</v>
@@ -18290,13 +18290,13 @@
         <v>9</v>
       </c>
       <c r="D493" t="s">
-        <v>1095</v>
+        <v>1153</v>
       </c>
       <c r="E493" t="s">
         <v>1135</v>
       </c>
       <c r="F493" t="s">
-        <v>1153</v>
+        <v>1096</v>
       </c>
       <c r="G493" t="s">
         <v>16</v>
@@ -18313,13 +18313,13 @@
         <v>182</v>
       </c>
       <c r="D494" t="s">
-        <v>1095</v>
+        <v>1153</v>
       </c>
       <c r="E494" t="s">
         <v>1135</v>
       </c>
       <c r="F494" t="s">
-        <v>1153</v>
+        <v>1096</v>
       </c>
       <c r="G494" t="s">
         <v>20</v>
@@ -18382,13 +18382,13 @@
         <v>9</v>
       </c>
       <c r="D497" t="s">
-        <v>1162</v>
+        <v>1134</v>
       </c>
       <c r="E497" t="s">
         <v>1135</v>
       </c>
       <c r="F497" t="s">
-        <v>1136</v>
+        <v>1162</v>
       </c>
       <c r="G497" t="s">
         <v>1060</v>
@@ -18474,13 +18474,13 @@
         <v>182</v>
       </c>
       <c r="D501" t="s">
-        <v>1171</v>
+        <v>1134</v>
       </c>
       <c r="E501" t="s">
         <v>1135</v>
       </c>
       <c r="F501" t="s">
-        <v>1136</v>
+        <v>1171</v>
       </c>
       <c r="G501" t="s">
         <v>25</v>
@@ -18635,13 +18635,13 @@
         <v>182</v>
       </c>
       <c r="D508" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="E508" t="s">
         <v>1135</v>
       </c>
       <c r="F508" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="G508" t="s">
         <v>25</v>
@@ -18704,13 +18704,13 @@
         <v>9</v>
       </c>
       <c r="D511" t="s">
-        <v>1199</v>
+        <v>1134</v>
       </c>
       <c r="E511" t="s">
         <v>1135</v>
       </c>
       <c r="F511" t="s">
-        <v>1136</v>
+        <v>1199</v>
       </c>
       <c r="G511" t="s">
         <v>20</v>
@@ -18727,13 +18727,13 @@
         <v>182</v>
       </c>
       <c r="D512" t="s">
-        <v>1134</v>
+        <v>1202</v>
       </c>
       <c r="E512" t="s">
         <v>1135</v>
       </c>
       <c r="F512" t="s">
-        <v>1202</v>
+        <v>1136</v>
       </c>
       <c r="G512" t="s">
         <v>25</v>
@@ -18911,13 +18911,13 @@
         <v>182</v>
       </c>
       <c r="D520" t="s">
-        <v>1219</v>
+        <v>1134</v>
       </c>
       <c r="E520" t="s">
         <v>1135</v>
       </c>
       <c r="F520" t="s">
-        <v>1136</v>
+        <v>1219</v>
       </c>
       <c r="G520" t="s">
         <v>25</v>
@@ -18934,13 +18934,13 @@
         <v>182</v>
       </c>
       <c r="D521" t="s">
-        <v>1222</v>
+        <v>1134</v>
       </c>
       <c r="E521" t="s">
         <v>1135</v>
       </c>
       <c r="F521" t="s">
-        <v>1136</v>
+        <v>1222</v>
       </c>
       <c r="G521" t="s">
         <v>16</v>
@@ -18957,13 +18957,13 @@
         <v>9</v>
       </c>
       <c r="D522" t="s">
-        <v>1225</v>
+        <v>1134</v>
       </c>
       <c r="E522" t="s">
         <v>1135</v>
       </c>
       <c r="F522" t="s">
-        <v>1136</v>
+        <v>1225</v>
       </c>
       <c r="G522" t="s">
         <v>34</v>
@@ -19003,13 +19003,13 @@
         <v>9</v>
       </c>
       <c r="D524" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F524" t="s">
         <v>1139</v>
-      </c>
-      <c r="E524" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F524" t="s">
-        <v>1231</v>
       </c>
       <c r="G524" t="s">
         <v>1232</v>
@@ -19026,13 +19026,13 @@
         <v>9</v>
       </c>
       <c r="D525" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F525" t="s">
         <v>1139</v>
-      </c>
-      <c r="E525" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F525" t="s">
-        <v>1231</v>
       </c>
       <c r="G525" t="s">
         <v>1232</v>
@@ -19049,13 +19049,13 @@
         <v>9</v>
       </c>
       <c r="D526" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F526" t="s">
         <v>1139</v>
-      </c>
-      <c r="E526" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F526" t="s">
-        <v>1231</v>
       </c>
       <c r="G526" t="s">
         <v>1232</v>
@@ -19072,13 +19072,13 @@
         <v>9</v>
       </c>
       <c r="D527" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F527" t="s">
         <v>1139</v>
-      </c>
-      <c r="E527" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F527" t="s">
-        <v>1231</v>
       </c>
       <c r="G527" t="s">
         <v>1232</v>
@@ -19095,13 +19095,13 @@
         <v>9</v>
       </c>
       <c r="D528" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F528" t="s">
         <v>1241</v>
-      </c>
-      <c r="E528" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F528" t="s">
-        <v>1231</v>
       </c>
       <c r="G528" t="s">
         <v>20</v>
@@ -19118,13 +19118,13 @@
         <v>9</v>
       </c>
       <c r="D529" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F529" t="s">
         <v>1139</v>
-      </c>
-      <c r="E529" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F529" t="s">
-        <v>1244</v>
       </c>
       <c r="G529" t="s">
         <v>1232</v>
@@ -19141,13 +19141,13 @@
         <v>9</v>
       </c>
       <c r="D530" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F530" t="s">
         <v>1139</v>
-      </c>
-      <c r="E530" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F530" t="s">
-        <v>1231</v>
       </c>
       <c r="G530" t="s">
         <v>1232</v>
@@ -19164,13 +19164,13 @@
         <v>9</v>
       </c>
       <c r="D531" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F531" t="s">
         <v>1139</v>
-      </c>
-      <c r="E531" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F531" t="s">
-        <v>1231</v>
       </c>
       <c r="G531" t="s">
         <v>1232</v>
@@ -19187,13 +19187,13 @@
         <v>9</v>
       </c>
       <c r="D532" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F532" t="s">
         <v>1139</v>
-      </c>
-      <c r="E532" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F532" t="s">
-        <v>1231</v>
       </c>
       <c r="G532" t="s">
         <v>1232</v>
@@ -19210,13 +19210,13 @@
         <v>9</v>
       </c>
       <c r="D533" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F533" t="s">
         <v>1139</v>
-      </c>
-      <c r="E533" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F533" t="s">
-        <v>1231</v>
       </c>
       <c r="G533" t="s">
         <v>1232</v>
@@ -19233,13 +19233,13 @@
         <v>9</v>
       </c>
       <c r="D534" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F534" t="s">
         <v>1139</v>
-      </c>
-      <c r="E534" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F534" t="s">
-        <v>1231</v>
       </c>
       <c r="G534" t="s">
         <v>1232</v>
@@ -19256,13 +19256,13 @@
         <v>9</v>
       </c>
       <c r="D535" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F535" t="s">
         <v>1257</v>
-      </c>
-      <c r="E535" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F535" t="s">
-        <v>1231</v>
       </c>
       <c r="G535" t="s">
         <v>20</v>
@@ -19279,13 +19279,13 @@
         <v>9</v>
       </c>
       <c r="D536" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F536" t="s">
         <v>1260</v>
-      </c>
-      <c r="E536" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F536" t="s">
-        <v>1231</v>
       </c>
       <c r="G536" t="s">
         <v>20</v>
@@ -19302,13 +19302,13 @@
         <v>9</v>
       </c>
       <c r="D537" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F537" t="s">
         <v>1139</v>
-      </c>
-      <c r="E537" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F537" t="s">
-        <v>1231</v>
       </c>
       <c r="G537" t="s">
         <v>1232</v>
@@ -19325,13 +19325,13 @@
         <v>9</v>
       </c>
       <c r="D538" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F538" t="s">
         <v>1139</v>
-      </c>
-      <c r="E538" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F538" t="s">
-        <v>1231</v>
       </c>
       <c r="G538" t="s">
         <v>1232</v>
@@ -19348,13 +19348,13 @@
         <v>9</v>
       </c>
       <c r="D539" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F539" t="s">
         <v>1139</v>
-      </c>
-      <c r="E539" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F539" t="s">
-        <v>1194</v>
       </c>
       <c r="G539" t="s">
         <v>1232</v>
@@ -19371,13 +19371,13 @@
         <v>9</v>
       </c>
       <c r="D540" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F540" t="s">
         <v>1139</v>
-      </c>
-      <c r="E540" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F540" t="s">
-        <v>1231</v>
       </c>
       <c r="G540" t="s">
         <v>1232</v>
@@ -19394,13 +19394,13 @@
         <v>9</v>
       </c>
       <c r="D541" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F541" t="s">
         <v>1139</v>
-      </c>
-      <c r="E541" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F541" t="s">
-        <v>1231</v>
       </c>
       <c r="G541" t="s">
         <v>1232</v>
@@ -19417,13 +19417,13 @@
         <v>9</v>
       </c>
       <c r="D542" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F542" t="s">
         <v>1139</v>
-      </c>
-      <c r="E542" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F542" t="s">
-        <v>1231</v>
       </c>
       <c r="G542" t="s">
         <v>1232</v>
@@ -19440,13 +19440,13 @@
         <v>9</v>
       </c>
       <c r="D543" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F543" t="s">
         <v>1139</v>
-      </c>
-      <c r="E543" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F543" t="s">
-        <v>1231</v>
       </c>
       <c r="G543" t="s">
         <v>1232</v>
@@ -19463,13 +19463,13 @@
         <v>9</v>
       </c>
       <c r="D544" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F544" t="s">
         <v>1139</v>
-      </c>
-      <c r="E544" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F544" t="s">
-        <v>1277</v>
       </c>
       <c r="G544" t="s">
         <v>16</v>
@@ -19486,13 +19486,13 @@
         <v>9</v>
       </c>
       <c r="D545" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F545" t="s">
         <v>1139</v>
-      </c>
-      <c r="E545" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F545" t="s">
-        <v>1231</v>
       </c>
       <c r="G545" t="s">
         <v>1232</v>
@@ -19509,13 +19509,13 @@
         <v>9</v>
       </c>
       <c r="D546" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F546" t="s">
         <v>1139</v>
-      </c>
-      <c r="E546" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F546" t="s">
-        <v>1231</v>
       </c>
       <c r="G546" t="s">
         <v>20</v>
@@ -19555,13 +19555,13 @@
         <v>9</v>
       </c>
       <c r="D548" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="E548" t="s">
         <v>1285</v>
       </c>
       <c r="F548" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="G548" t="s">
         <v>1232</v>
@@ -19578,13 +19578,13 @@
         <v>9</v>
       </c>
       <c r="D549" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="E549" t="s">
         <v>1285</v>
       </c>
       <c r="F549" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="G549" t="s">
         <v>1232</v>
@@ -19670,13 +19670,13 @@
         <v>9</v>
       </c>
       <c r="D553" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
       <c r="E553" t="s">
         <v>1285</v>
       </c>
       <c r="F553" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="G553" t="s">
         <v>1232</v>
@@ -19808,13 +19808,13 @@
         <v>9</v>
       </c>
       <c r="D559" t="s">
-        <v>1316</v>
+        <v>1284</v>
       </c>
       <c r="E559" t="s">
         <v>1285</v>
       </c>
       <c r="F559" t="s">
-        <v>1286</v>
+        <v>1316</v>
       </c>
       <c r="G559" t="s">
         <v>1232</v>
@@ -19831,13 +19831,13 @@
         <v>9</v>
       </c>
       <c r="D560" t="s">
-        <v>1316</v>
+        <v>1284</v>
       </c>
       <c r="E560" t="s">
         <v>1285</v>
       </c>
       <c r="F560" t="s">
-        <v>1286</v>
+        <v>1316</v>
       </c>
       <c r="G560" t="s">
         <v>1232</v>
@@ -19877,13 +19877,13 @@
         <v>9</v>
       </c>
       <c r="D562" t="s">
-        <v>1284</v>
+        <v>1323</v>
       </c>
       <c r="E562" t="s">
         <v>1285</v>
       </c>
       <c r="F562" t="s">
-        <v>1323</v>
+        <v>1286</v>
       </c>
       <c r="G562" t="s">
         <v>20</v>
@@ -20107,13 +20107,13 @@
         <v>9</v>
       </c>
       <c r="D572" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E572" t="s">
         <v>1346</v>
       </c>
-      <c r="E572" t="s">
+      <c r="F572" t="s">
         <v>1347</v>
-      </c>
-      <c r="F572" t="s">
-        <v>1231</v>
       </c>
       <c r="G572" t="s">
         <v>1232</v>
@@ -20130,13 +20130,13 @@
         <v>9</v>
       </c>
       <c r="D573" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E573" t="s">
         <v>1346</v>
       </c>
-      <c r="E573" t="s">
+      <c r="F573" t="s">
         <v>1347</v>
-      </c>
-      <c r="F573" t="s">
-        <v>1350</v>
       </c>
       <c r="G573" t="s">
         <v>1232</v>
@@ -20153,13 +20153,13 @@
         <v>9</v>
       </c>
       <c r="D574" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E574" t="s">
         <v>1346</v>
       </c>
-      <c r="E574" t="s">
+      <c r="F574" t="s">
         <v>1347</v>
-      </c>
-      <c r="F574" t="s">
-        <v>1350</v>
       </c>
       <c r="G574" t="s">
         <v>1232</v>
@@ -20176,13 +20176,13 @@
         <v>9</v>
       </c>
       <c r="D575" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E575" t="s">
         <v>1346</v>
       </c>
-      <c r="E575" t="s">
+      <c r="F575" t="s">
         <v>1347</v>
-      </c>
-      <c r="F575" t="s">
-        <v>1350</v>
       </c>
       <c r="G575" t="s">
         <v>1232</v>
@@ -20199,13 +20199,13 @@
         <v>9</v>
       </c>
       <c r="D576" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E576" t="s">
         <v>1346</v>
       </c>
-      <c r="E576" t="s">
+      <c r="F576" t="s">
         <v>1347</v>
-      </c>
-      <c r="F576" t="s">
-        <v>1286</v>
       </c>
       <c r="G576" t="s">
         <v>1232</v>
@@ -20222,13 +20222,13 @@
         <v>9</v>
       </c>
       <c r="D577" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F577" t="s">
         <v>1359</v>
-      </c>
-      <c r="E577" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F577" t="s">
-        <v>1350</v>
       </c>
       <c r="G577" t="s">
         <v>1232</v>
@@ -20248,7 +20248,7 @@
         <v>1362</v>
       </c>
       <c r="E578" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F578" t="s">
         <v>1363</v>
@@ -20268,13 +20268,13 @@
         <v>9</v>
       </c>
       <c r="D579" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F579" t="s">
         <v>1366</v>
-      </c>
-      <c r="E579" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F579" t="s">
-        <v>1350</v>
       </c>
       <c r="G579" t="s">
         <v>1232</v>
@@ -20291,13 +20291,13 @@
         <v>9</v>
       </c>
       <c r="D580" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F580" t="s">
         <v>1369</v>
-      </c>
-      <c r="E580" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F580" t="s">
-        <v>1350</v>
       </c>
       <c r="G580" t="s">
         <v>20</v>
@@ -20314,13 +20314,13 @@
         <v>9</v>
       </c>
       <c r="D581" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E581" t="s">
         <v>1346</v>
       </c>
-      <c r="E581" t="s">
+      <c r="F581" t="s">
         <v>1347</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1350</v>
       </c>
       <c r="G581" t="s">
         <v>20</v>
@@ -20340,7 +20340,7 @@
         <v>1374</v>
       </c>
       <c r="E582" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F582" t="s">
         <v>1375</v>
@@ -20363,7 +20363,7 @@
         <v>1378</v>
       </c>
       <c r="E583" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F583" t="s">
         <v>1379</v>
@@ -20383,13 +20383,13 @@
         <v>9</v>
       </c>
       <c r="D584" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E584" t="s">
         <v>1346</v>
       </c>
-      <c r="E584" t="s">
+      <c r="F584" t="s">
         <v>1347</v>
-      </c>
-      <c r="F584" t="s">
-        <v>1350</v>
       </c>
       <c r="G584" t="s">
         <v>1232</v>
@@ -20409,7 +20409,7 @@
         <v>1384</v>
       </c>
       <c r="E585" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F585" t="s">
         <v>1385</v>
@@ -20429,13 +20429,13 @@
         <v>9</v>
       </c>
       <c r="D586" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F586" t="s">
         <v>1388</v>
-      </c>
-      <c r="E586" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F586" t="s">
-        <v>1350</v>
       </c>
       <c r="G586" t="s">
         <v>16</v>
@@ -20452,13 +20452,13 @@
         <v>9</v>
       </c>
       <c r="D587" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F587" t="s">
         <v>1391</v>
-      </c>
-      <c r="E587" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F587" t="s">
-        <v>1350</v>
       </c>
       <c r="G587" t="s">
         <v>1232</v>
@@ -20475,13 +20475,13 @@
         <v>9</v>
       </c>
       <c r="D588" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E588" t="s">
         <v>1346</v>
       </c>
-      <c r="E588" t="s">
+      <c r="F588" t="s">
         <v>1347</v>
-      </c>
-      <c r="F588" t="s">
-        <v>1350</v>
       </c>
       <c r="G588" t="s">
         <v>1232</v>
@@ -20498,13 +20498,13 @@
         <v>9</v>
       </c>
       <c r="D589" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E589" t="s">
         <v>1346</v>
       </c>
-      <c r="E589" t="s">
+      <c r="F589" t="s">
         <v>1347</v>
-      </c>
-      <c r="F589" t="s">
-        <v>1350</v>
       </c>
       <c r="G589" t="s">
         <v>34</v>
@@ -20521,13 +20521,13 @@
         <v>9</v>
       </c>
       <c r="D590" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E590" t="s">
         <v>1346</v>
       </c>
-      <c r="E590" t="s">
+      <c r="F590" t="s">
         <v>1347</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1350</v>
       </c>
       <c r="G590" t="s">
         <v>20</v>
@@ -20544,13 +20544,13 @@
         <v>9</v>
       </c>
       <c r="D591" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E591" t="s">
         <v>1346</v>
       </c>
-      <c r="E591" t="s">
+      <c r="F591" t="s">
         <v>1347</v>
-      </c>
-      <c r="F591" t="s">
-        <v>1400</v>
       </c>
       <c r="G591" t="s">
         <v>1232</v>
@@ -20567,13 +20567,13 @@
         <v>9</v>
       </c>
       <c r="D592" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E592" t="s">
         <v>1346</v>
       </c>
-      <c r="E592" t="s">
+      <c r="F592" t="s">
         <v>1347</v>
-      </c>
-      <c r="F592" t="s">
-        <v>1350</v>
       </c>
       <c r="G592" t="s">
         <v>16</v>
@@ -20590,13 +20590,13 @@
         <v>9</v>
       </c>
       <c r="D593" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E593" t="s">
         <v>1346</v>
       </c>
-      <c r="E593" t="s">
+      <c r="F593" t="s">
         <v>1347</v>
-      </c>
-      <c r="F593" t="s">
-        <v>1350</v>
       </c>
       <c r="G593" t="s">
         <v>1232</v>
@@ -20613,13 +20613,13 @@
         <v>9</v>
       </c>
       <c r="D594" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E594" t="s">
         <v>1346</v>
       </c>
-      <c r="E594" t="s">
+      <c r="F594" t="s">
         <v>1347</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1350</v>
       </c>
       <c r="G594" t="s">
         <v>1232</v>
@@ -20636,13 +20636,13 @@
         <v>9</v>
       </c>
       <c r="D595" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E595" t="s">
         <v>1346</v>
       </c>
-      <c r="E595" t="s">
+      <c r="F595" t="s">
         <v>1347</v>
-      </c>
-      <c r="F595" t="s">
-        <v>1350</v>
       </c>
       <c r="G595" t="s">
         <v>1232</v>
@@ -20843,13 +20843,13 @@
         <v>9</v>
       </c>
       <c r="D604" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
       <c r="E604" t="s">
         <v>1412</v>
       </c>
       <c r="F604" t="s">
-        <v>1413</v>
+        <v>1438</v>
       </c>
       <c r="G604" t="s">
         <v>34</v>
@@ -20935,13 +20935,13 @@
         <v>9</v>
       </c>
       <c r="D608" t="s">
-        <v>1449</v>
+        <v>1388</v>
       </c>
       <c r="E608" t="s">
         <v>1412</v>
       </c>
       <c r="F608" t="s">
-        <v>1388</v>
+        <v>1449</v>
       </c>
       <c r="G608" t="s">
         <v>1232</v>
@@ -20981,13 +20981,13 @@
         <v>9</v>
       </c>
       <c r="D610" t="s">
-        <v>1416</v>
+        <v>1454</v>
       </c>
       <c r="E610" t="s">
         <v>1412</v>
       </c>
       <c r="F610" t="s">
-        <v>1454</v>
+        <v>1417</v>
       </c>
       <c r="G610" t="s">
         <v>34</v>
@@ -21004,13 +21004,13 @@
         <v>9</v>
       </c>
       <c r="D611" t="s">
-        <v>1457</v>
+        <v>1411</v>
       </c>
       <c r="E611" t="s">
         <v>1412</v>
       </c>
       <c r="F611" t="s">
-        <v>1413</v>
+        <v>1457</v>
       </c>
       <c r="G611" t="s">
         <v>20</v>
@@ -21050,13 +21050,13 @@
         <v>9</v>
       </c>
       <c r="D613" t="s">
-        <v>1462</v>
+        <v>1411</v>
       </c>
       <c r="E613" t="s">
         <v>1412</v>
       </c>
       <c r="F613" t="s">
-        <v>1413</v>
+        <v>1462</v>
       </c>
       <c r="G613" t="s">
         <v>1232</v>
@@ -21372,13 +21372,13 @@
         <v>9</v>
       </c>
       <c r="D627" t="s">
-        <v>1481</v>
+        <v>1496</v>
       </c>
       <c r="E627" t="s">
         <v>1482</v>
       </c>
       <c r="F627" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="G627" t="s">
         <v>1232</v>
@@ -21395,13 +21395,13 @@
         <v>9</v>
       </c>
       <c r="D628" t="s">
-        <v>1499</v>
+        <v>1481</v>
       </c>
       <c r="E628" t="s">
         <v>1482</v>
       </c>
       <c r="F628" t="s">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="G628" t="s">
         <v>34</v>
@@ -21464,13 +21464,13 @@
         <v>9</v>
       </c>
       <c r="D631" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
       <c r="E631" t="s">
         <v>1482</v>
       </c>
       <c r="F631" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="G631" t="s">
         <v>34</v>
@@ -21556,13 +21556,13 @@
         <v>9</v>
       </c>
       <c r="D635" t="s">
-        <v>1519</v>
+        <v>1481</v>
       </c>
       <c r="E635" t="s">
         <v>1482</v>
       </c>
       <c r="F635" t="s">
-        <v>1483</v>
+        <v>1519</v>
       </c>
       <c r="G635" t="s">
         <v>1232</v>
@@ -21694,13 +21694,13 @@
         <v>9</v>
       </c>
       <c r="D641" t="s">
-        <v>1536</v>
+        <v>1481</v>
       </c>
       <c r="E641" t="s">
         <v>1482</v>
       </c>
       <c r="F641" t="s">
-        <v>1483</v>
+        <v>1536</v>
       </c>
       <c r="G641" t="s">
         <v>20</v>
@@ -21717,13 +21717,13 @@
         <v>9</v>
       </c>
       <c r="D642" t="s">
-        <v>1539</v>
+        <v>1481</v>
       </c>
       <c r="E642" t="s">
         <v>1482</v>
       </c>
       <c r="F642" t="s">
-        <v>1483</v>
+        <v>1539</v>
       </c>
       <c r="G642" t="s">
         <v>20</v>
@@ -21786,13 +21786,13 @@
         <v>9</v>
       </c>
       <c r="D645" t="s">
-        <v>1546</v>
+        <v>1481</v>
       </c>
       <c r="E645" t="s">
         <v>1482</v>
       </c>
       <c r="F645" t="s">
-        <v>1483</v>
+        <v>1546</v>
       </c>
       <c r="G645" t="s">
         <v>34</v>
@@ -21901,13 +21901,13 @@
         <v>9</v>
       </c>
       <c r="D650" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="E650" t="s">
         <v>1554</v>
       </c>
       <c r="F650" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="G650" t="s">
         <v>34</v>
@@ -21970,13 +21970,13 @@
         <v>9</v>
       </c>
       <c r="D653" t="s">
-        <v>1539</v>
+        <v>1481</v>
       </c>
       <c r="E653" t="s">
         <v>1554</v>
       </c>
       <c r="F653" t="s">
-        <v>1483</v>
+        <v>1539</v>
       </c>
       <c r="G653" t="s">
         <v>20</v>
@@ -22085,13 +22085,13 @@
         <v>9</v>
       </c>
       <c r="D658" t="s">
-        <v>1519</v>
+        <v>1585</v>
       </c>
       <c r="E658" t="s">
         <v>1554</v>
       </c>
       <c r="F658" t="s">
-        <v>1585</v>
+        <v>1519</v>
       </c>
       <c r="G658" t="s">
         <v>34</v>
@@ -22154,13 +22154,13 @@
         <v>9</v>
       </c>
       <c r="D661" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="E661" t="s">
         <v>1554</v>
       </c>
       <c r="F661" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="G661" t="s">
         <v>34</v>
@@ -22200,13 +22200,13 @@
         <v>9</v>
       </c>
       <c r="D663" t="s">
-        <v>1539</v>
+        <v>1600</v>
       </c>
       <c r="E663" t="s">
         <v>1554</v>
       </c>
       <c r="F663" t="s">
-        <v>1600</v>
+        <v>1539</v>
       </c>
       <c r="G663" t="s">
         <v>20</v>
@@ -22223,13 +22223,13 @@
         <v>9</v>
       </c>
       <c r="D664" t="s">
-        <v>1603</v>
+        <v>1565</v>
       </c>
       <c r="E664" t="s">
         <v>1554</v>
       </c>
       <c r="F664" t="s">
-        <v>1566</v>
+        <v>1603</v>
       </c>
       <c r="G664" t="s">
         <v>1232</v>
@@ -22246,13 +22246,13 @@
         <v>9</v>
       </c>
       <c r="D665" t="s">
-        <v>1603</v>
+        <v>1553</v>
       </c>
       <c r="E665" t="s">
         <v>1554</v>
       </c>
       <c r="F665" t="s">
-        <v>1555</v>
+        <v>1603</v>
       </c>
       <c r="G665" t="s">
         <v>34</v>
@@ -22315,13 +22315,13 @@
         <v>9</v>
       </c>
       <c r="D668" t="s">
-        <v>1539</v>
+        <v>1585</v>
       </c>
       <c r="E668" t="s">
         <v>1554</v>
       </c>
       <c r="F668" t="s">
-        <v>1585</v>
+        <v>1539</v>
       </c>
       <c r="G668" t="s">
         <v>20</v>
@@ -22361,13 +22361,13 @@
         <v>9</v>
       </c>
       <c r="D670" t="s">
-        <v>1553</v>
+        <v>1618</v>
       </c>
       <c r="E670" t="s">
         <v>1554</v>
       </c>
       <c r="F670" t="s">
-        <v>1618</v>
+        <v>1555</v>
       </c>
       <c r="G670" t="s">
         <v>34</v>
@@ -22430,13 +22430,13 @@
         <v>9</v>
       </c>
       <c r="D673" t="s">
-        <v>1539</v>
+        <v>1588</v>
       </c>
       <c r="E673" t="s">
         <v>1554</v>
       </c>
       <c r="F673" t="s">
-        <v>1589</v>
+        <v>1539</v>
       </c>
       <c r="G673" t="s">
         <v>20</v>
@@ -22453,13 +22453,13 @@
         <v>9</v>
       </c>
       <c r="D674" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="E674" t="s">
         <v>1554</v>
       </c>
       <c r="F674" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="G674" t="s">
         <v>34</v>
@@ -22476,13 +22476,13 @@
         <v>9</v>
       </c>
       <c r="D675" t="s">
-        <v>1629</v>
+        <v>1565</v>
       </c>
       <c r="E675" t="s">
         <v>1554</v>
       </c>
       <c r="F675" t="s">
-        <v>1566</v>
+        <v>1629</v>
       </c>
       <c r="G675" t="s">
         <v>20</v>
@@ -22775,13 +22775,13 @@
         <v>9</v>
       </c>
       <c r="D688" t="s">
-        <v>1647</v>
+        <v>1663</v>
       </c>
       <c r="E688" t="s">
         <v>1643</v>
       </c>
       <c r="F688" t="s">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="G688" t="s">
         <v>34</v>
@@ -22844,13 +22844,13 @@
         <v>9</v>
       </c>
       <c r="D691" t="s">
-        <v>1672</v>
+        <v>1565</v>
       </c>
       <c r="E691" t="s">
         <v>1643</v>
       </c>
       <c r="F691" t="s">
-        <v>1566</v>
+        <v>1672</v>
       </c>
       <c r="G691" t="s">
         <v>20</v>
@@ -23097,13 +23097,13 @@
         <v>9</v>
       </c>
       <c r="D702" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="E702" t="s">
         <v>1643</v>
       </c>
       <c r="F702" t="s">
-        <v>1700</v>
+        <v>1709</v>
       </c>
       <c r="G702" t="s">
         <v>34</v>
@@ -23143,13 +23143,13 @@
         <v>9</v>
       </c>
       <c r="D704" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="E704" t="s">
         <v>1643</v>
       </c>
       <c r="F704" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="G704" t="s">
         <v>20</v>
@@ -23189,13 +23189,13 @@
         <v>9</v>
       </c>
       <c r="D706" t="s">
-        <v>1651</v>
+        <v>1693</v>
       </c>
       <c r="E706" t="s">
         <v>1643</v>
       </c>
       <c r="F706" t="s">
-        <v>1694</v>
+        <v>1652</v>
       </c>
       <c r="G706" t="s">
         <v>20</v>
@@ -23212,13 +23212,13 @@
         <v>9</v>
       </c>
       <c r="D707" t="s">
-        <v>1721</v>
+        <v>1647</v>
       </c>
       <c r="E707" t="s">
         <v>1643</v>
       </c>
       <c r="F707" t="s">
-        <v>1648</v>
+        <v>1721</v>
       </c>
       <c r="G707" t="s">
         <v>34</v>
@@ -23281,13 +23281,13 @@
         <v>9</v>
       </c>
       <c r="D710" t="s">
-        <v>1651</v>
+        <v>1693</v>
       </c>
       <c r="E710" t="s">
         <v>1643</v>
       </c>
       <c r="F710" t="s">
-        <v>1694</v>
+        <v>1652</v>
       </c>
       <c r="G710" t="s">
         <v>1232</v>
@@ -23373,13 +23373,13 @@
         <v>9</v>
       </c>
       <c r="D714" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="E714" t="s">
         <v>1643</v>
       </c>
       <c r="F714" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="G714" t="s">
         <v>34</v>
@@ -23465,13 +23465,13 @@
         <v>9</v>
       </c>
       <c r="D718" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E718" t="s">
         <v>1745</v>
       </c>
       <c r="F718" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G718" t="s">
         <v>1232</v>
@@ -23488,13 +23488,13 @@
         <v>9</v>
       </c>
       <c r="D719" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E719" t="s">
         <v>1745</v>
       </c>
       <c r="F719" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G719" t="s">
         <v>1232</v>
@@ -23511,13 +23511,13 @@
         <v>9</v>
       </c>
       <c r="D720" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E720" t="s">
         <v>1745</v>
       </c>
       <c r="F720" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G720" t="s">
         <v>1232</v>
@@ -23534,13 +23534,13 @@
         <v>9</v>
       </c>
       <c r="D721" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E721" t="s">
         <v>1745</v>
       </c>
       <c r="F721" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G721" t="s">
         <v>1232</v>
@@ -23557,13 +23557,13 @@
         <v>9</v>
       </c>
       <c r="D722" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E722" t="s">
         <v>1745</v>
       </c>
       <c r="F722" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G722" t="s">
         <v>1232</v>
@@ -23580,13 +23580,13 @@
         <v>9</v>
       </c>
       <c r="D723" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E723" t="s">
         <v>1745</v>
       </c>
       <c r="F723" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G723" t="s">
         <v>20</v>
@@ -23649,13 +23649,13 @@
         <v>9</v>
       </c>
       <c r="D726" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E726" t="s">
         <v>1745</v>
       </c>
       <c r="F726" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G726" t="s">
         <v>1232</v>
@@ -23672,13 +23672,13 @@
         <v>9</v>
       </c>
       <c r="D727" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E727" t="s">
         <v>1745</v>
       </c>
       <c r="F727" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G727" t="s">
         <v>1232</v>
@@ -23718,13 +23718,13 @@
         <v>9</v>
       </c>
       <c r="D729" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E729" t="s">
         <v>1745</v>
       </c>
       <c r="F729" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G729" t="s">
         <v>16</v>
@@ -23787,13 +23787,13 @@
         <v>9</v>
       </c>
       <c r="D732" t="s">
-        <v>1786</v>
+        <v>1744</v>
       </c>
       <c r="E732" t="s">
         <v>1745</v>
       </c>
       <c r="F732" t="s">
-        <v>1746</v>
+        <v>1786</v>
       </c>
       <c r="G732" t="s">
         <v>34</v>
@@ -23833,13 +23833,13 @@
         <v>9</v>
       </c>
       <c r="D734" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E734" t="s">
         <v>1745</v>
       </c>
       <c r="F734" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G734" t="s">
         <v>1232</v>
@@ -23856,13 +23856,13 @@
         <v>9</v>
       </c>
       <c r="D735" t="s">
-        <v>1795</v>
+        <v>1744</v>
       </c>
       <c r="E735" t="s">
         <v>1745</v>
       </c>
       <c r="F735" t="s">
-        <v>1746</v>
+        <v>1795</v>
       </c>
       <c r="G735" t="s">
         <v>1232</v>
@@ -23879,13 +23879,13 @@
         <v>9</v>
       </c>
       <c r="D736" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E736" t="s">
         <v>1745</v>
       </c>
       <c r="F736" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G736" t="s">
         <v>20</v>
@@ -23902,13 +23902,13 @@
         <v>9</v>
       </c>
       <c r="D737" t="s">
-        <v>1800</v>
+        <v>1651</v>
       </c>
       <c r="E737" t="s">
         <v>1745</v>
       </c>
       <c r="F737" t="s">
-        <v>1652</v>
+        <v>1800</v>
       </c>
       <c r="G737" t="s">
         <v>20</v>
@@ -23925,13 +23925,13 @@
         <v>9</v>
       </c>
       <c r="D738" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E738" t="s">
         <v>1745</v>
       </c>
       <c r="F738" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G738" t="s">
         <v>1232</v>
@@ -23948,13 +23948,13 @@
         <v>9</v>
       </c>
       <c r="D739" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E739" t="s">
         <v>1745</v>
       </c>
       <c r="F739" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G739" t="s">
         <v>1232</v>
@@ -23994,13 +23994,13 @@
         <v>9</v>
       </c>
       <c r="D741" t="s">
-        <v>1811</v>
+        <v>1744</v>
       </c>
       <c r="E741" t="s">
         <v>1745</v>
       </c>
       <c r="F741" t="s">
-        <v>1746</v>
+        <v>1811</v>
       </c>
       <c r="G741" t="s">
         <v>20</v>
@@ -24017,13 +24017,13 @@
         <v>9</v>
       </c>
       <c r="D742" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E742" t="s">
         <v>1745</v>
       </c>
       <c r="F742" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G742" t="s">
         <v>1232</v>
@@ -24063,13 +24063,13 @@
         <v>9</v>
       </c>
       <c r="D744" t="s">
-        <v>1818</v>
+        <v>1744</v>
       </c>
       <c r="E744" t="s">
         <v>1745</v>
       </c>
       <c r="F744" t="s">
-        <v>1746</v>
+        <v>1818</v>
       </c>
       <c r="G744" t="s">
         <v>34</v>
@@ -24086,13 +24086,13 @@
         <v>9</v>
       </c>
       <c r="D745" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E745" t="s">
         <v>1745</v>
       </c>
       <c r="F745" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G745" t="s">
         <v>1232</v>
@@ -24109,13 +24109,13 @@
         <v>9</v>
       </c>
       <c r="D746" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E746" t="s">
         <v>1745</v>
       </c>
       <c r="F746" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G746" t="s">
         <v>1232</v>
@@ -24132,13 +24132,13 @@
         <v>9</v>
       </c>
       <c r="D747" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E747" t="s">
         <v>1745</v>
       </c>
       <c r="F747" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G747" t="s">
         <v>1232</v>
@@ -24155,13 +24155,13 @@
         <v>9</v>
       </c>
       <c r="D748" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="E748" t="s">
         <v>1745</v>
       </c>
       <c r="F748" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="G748" t="s">
         <v>1232</v>
@@ -24362,13 +24362,13 @@
         <v>9</v>
       </c>
       <c r="D757" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="E757" t="s">
         <v>1830</v>
       </c>
       <c r="F757" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="G757" t="s">
         <v>34</v>
@@ -24385,13 +24385,13 @@
         <v>9</v>
       </c>
       <c r="D758" t="s">
-        <v>1795</v>
+        <v>1838</v>
       </c>
       <c r="E758" t="s">
         <v>1830</v>
       </c>
       <c r="F758" t="s">
-        <v>1839</v>
+        <v>1795</v>
       </c>
       <c r="G758" t="s">
         <v>20</v>
@@ -24454,13 +24454,13 @@
         <v>9</v>
       </c>
       <c r="D761" t="s">
-        <v>1795</v>
+        <v>1860</v>
       </c>
       <c r="E761" t="s">
         <v>1830</v>
       </c>
       <c r="F761" t="s">
-        <v>1860</v>
+        <v>1795</v>
       </c>
       <c r="G761" t="s">
         <v>34</v>
@@ -24523,13 +24523,13 @@
         <v>9</v>
       </c>
       <c r="D764" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E764" t="s">
         <v>1830</v>
       </c>
       <c r="F764" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="G764" t="s">
         <v>34</v>
@@ -24546,13 +24546,13 @@
         <v>9</v>
       </c>
       <c r="D765" t="s">
-        <v>1871</v>
+        <v>1860</v>
       </c>
       <c r="E765" t="s">
         <v>1830</v>
       </c>
       <c r="F765" t="s">
-        <v>1860</v>
+        <v>1871</v>
       </c>
       <c r="G765" t="s">
         <v>34</v>
@@ -24799,13 +24799,13 @@
         <v>9</v>
       </c>
       <c r="D776" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E776" t="s">
         <v>1899</v>
       </c>
       <c r="F776" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G776" t="s">
         <v>1232</v>
@@ -24868,13 +24868,13 @@
         <v>9</v>
       </c>
       <c r="D779" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E779" t="s">
         <v>1899</v>
       </c>
       <c r="F779" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G779" t="s">
         <v>1232</v>
@@ -24891,13 +24891,13 @@
         <v>9</v>
       </c>
       <c r="D780" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E780" t="s">
         <v>1899</v>
       </c>
       <c r="F780" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G780" t="s">
         <v>1232</v>
@@ -24914,13 +24914,13 @@
         <v>9</v>
       </c>
       <c r="D781" t="s">
-        <v>1918</v>
+        <v>1898</v>
       </c>
       <c r="E781" t="s">
         <v>1899</v>
       </c>
       <c r="F781" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="G781" t="s">
         <v>1232</v>
@@ -24937,13 +24937,13 @@
         <v>9</v>
       </c>
       <c r="D782" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E782" t="s">
         <v>1899</v>
       </c>
       <c r="F782" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G782" t="s">
         <v>1232</v>
@@ -24960,13 +24960,13 @@
         <v>9</v>
       </c>
       <c r="D783" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E783" t="s">
         <v>1899</v>
       </c>
       <c r="F783" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G783" t="s">
         <v>1232</v>
@@ -24983,13 +24983,13 @@
         <v>9</v>
       </c>
       <c r="D784" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E784" t="s">
         <v>1899</v>
       </c>
       <c r="F784" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G784" t="s">
         <v>1232</v>
@@ -25006,13 +25006,13 @@
         <v>9</v>
       </c>
       <c r="D785" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E785" t="s">
         <v>1899</v>
       </c>
       <c r="F785" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G785" t="s">
         <v>1232</v>
@@ -25029,13 +25029,13 @@
         <v>9</v>
       </c>
       <c r="D786" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E786" t="s">
         <v>1899</v>
       </c>
       <c r="F786" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G786" t="s">
         <v>1232</v>
@@ -25052,13 +25052,13 @@
         <v>9</v>
       </c>
       <c r="D787" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E787" t="s">
         <v>1899</v>
       </c>
       <c r="F787" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G787" t="s">
         <v>1232</v>
@@ -25075,13 +25075,13 @@
         <v>9</v>
       </c>
       <c r="D788" t="s">
-        <v>1898</v>
+        <v>1933</v>
       </c>
       <c r="E788" t="s">
         <v>1899</v>
       </c>
       <c r="F788" t="s">
-        <v>1933</v>
+        <v>1900</v>
       </c>
       <c r="G788" t="s">
         <v>34</v>
@@ -25098,13 +25098,13 @@
         <v>9</v>
       </c>
       <c r="D789" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E789" t="s">
         <v>1899</v>
       </c>
       <c r="F789" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G789" t="s">
         <v>1232</v>
@@ -25121,13 +25121,13 @@
         <v>9</v>
       </c>
       <c r="D790" t="s">
-        <v>1918</v>
+        <v>1938</v>
       </c>
       <c r="E790" t="s">
         <v>1899</v>
       </c>
       <c r="F790" t="s">
-        <v>1938</v>
+        <v>1918</v>
       </c>
       <c r="G790" t="s">
         <v>34</v>
@@ -25144,13 +25144,13 @@
         <v>9</v>
       </c>
       <c r="D791" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="E791" t="s">
         <v>1899</v>
       </c>
       <c r="F791" t="s">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="G791" t="s">
         <v>34</v>
@@ -25167,13 +25167,13 @@
         <v>9</v>
       </c>
       <c r="D792" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E792" t="s">
         <v>1899</v>
       </c>
       <c r="F792" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G792" t="s">
         <v>1232</v>
@@ -25190,13 +25190,13 @@
         <v>9</v>
       </c>
       <c r="D793" t="s">
-        <v>1903</v>
+        <v>1946</v>
       </c>
       <c r="E793" t="s">
         <v>1899</v>
       </c>
       <c r="F793" t="s">
-        <v>1946</v>
+        <v>1903</v>
       </c>
       <c r="G793" t="s">
         <v>34</v>
@@ -25213,13 +25213,13 @@
         <v>9</v>
       </c>
       <c r="D794" t="s">
-        <v>1949</v>
+        <v>1898</v>
       </c>
       <c r="E794" t="s">
         <v>1899</v>
       </c>
       <c r="F794" t="s">
-        <v>1900</v>
+        <v>1949</v>
       </c>
       <c r="G794" t="s">
         <v>34</v>
@@ -25236,13 +25236,13 @@
         <v>9</v>
       </c>
       <c r="D795" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E795" t="s">
         <v>1899</v>
       </c>
       <c r="F795" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G795" t="s">
         <v>1232</v>
@@ -25305,13 +25305,13 @@
         <v>9</v>
       </c>
       <c r="D798" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E798" t="s">
         <v>1899</v>
       </c>
       <c r="F798" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G798" t="s">
         <v>1232</v>
@@ -25328,13 +25328,13 @@
         <v>9</v>
       </c>
       <c r="D799" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E799" t="s">
         <v>1899</v>
       </c>
       <c r="F799" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G799" t="s">
         <v>1232</v>
@@ -25351,13 +25351,13 @@
         <v>9</v>
       </c>
       <c r="D800" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E800" t="s">
         <v>1899</v>
       </c>
       <c r="F800" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G800" t="s">
         <v>1232</v>
@@ -25374,13 +25374,13 @@
         <v>9</v>
       </c>
       <c r="D801" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E801" t="s">
         <v>1899</v>
       </c>
       <c r="F801" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G801" t="s">
         <v>1232</v>
@@ -25397,13 +25397,13 @@
         <v>9</v>
       </c>
       <c r="D802" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E802" t="s">
         <v>1899</v>
       </c>
       <c r="F802" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G802" t="s">
         <v>1232</v>
@@ -25420,13 +25420,13 @@
         <v>9</v>
       </c>
       <c r="D803" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E803" t="s">
         <v>1899</v>
       </c>
       <c r="F803" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G803" t="s">
         <v>1232</v>
@@ -25443,13 +25443,13 @@
         <v>9</v>
       </c>
       <c r="D804" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E804" t="s">
         <v>1899</v>
       </c>
       <c r="F804" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G804" t="s">
         <v>1232</v>
@@ -25466,13 +25466,13 @@
         <v>9</v>
       </c>
       <c r="D805" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E805" t="s">
         <v>1899</v>
       </c>
       <c r="F805" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G805" t="s">
         <v>1232</v>
@@ -25489,13 +25489,13 @@
         <v>9</v>
       </c>
       <c r="D806" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="E806" t="s">
         <v>1899</v>
       </c>
       <c r="F806" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G806" t="s">
         <v>1232</v>
@@ -25650,13 +25650,13 @@
         <v>9</v>
       </c>
       <c r="D813" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="E813" t="s">
         <v>1981</v>
       </c>
       <c r="F813" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="G813" t="s">
         <v>1232</v>
@@ -25857,13 +25857,13 @@
         <v>9</v>
       </c>
       <c r="D822" t="s">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="E822" t="s">
         <v>1981</v>
       </c>
       <c r="F822" t="s">
-        <v>1982</v>
+        <v>2018</v>
       </c>
       <c r="G822" t="s">
         <v>1232</v>
@@ -25972,13 +25972,13 @@
         <v>9</v>
       </c>
       <c r="D827" t="s">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="E827" t="s">
         <v>1981</v>
       </c>
       <c r="F827" t="s">
-        <v>1982</v>
+        <v>2018</v>
       </c>
       <c r="G827" t="s">
         <v>1232</v>
@@ -26018,13 +26018,13 @@
         <v>9</v>
       </c>
       <c r="D829" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="E829" t="s">
         <v>1981</v>
       </c>
       <c r="F829" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="G829" t="s">
         <v>1232</v>
@@ -26248,13 +26248,13 @@
         <v>9</v>
       </c>
       <c r="D839" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E839" t="s">
         <v>2054</v>
       </c>
       <c r="F839" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G839" t="s">
         <v>1232</v>
@@ -26271,13 +26271,13 @@
         <v>9</v>
       </c>
       <c r="D840" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E840" t="s">
         <v>2054</v>
       </c>
       <c r="F840" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G840" t="s">
         <v>1232</v>
@@ -26294,13 +26294,13 @@
         <v>9</v>
       </c>
       <c r="D841" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E841" t="s">
         <v>2054</v>
       </c>
       <c r="F841" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G841" t="s">
         <v>1232</v>
@@ -26317,13 +26317,13 @@
         <v>9</v>
       </c>
       <c r="D842" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E842" t="s">
         <v>2054</v>
       </c>
       <c r="F842" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G842" t="s">
         <v>1232</v>
@@ -26340,13 +26340,13 @@
         <v>9</v>
       </c>
       <c r="D843" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E843" t="s">
         <v>2054</v>
       </c>
       <c r="F843" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G843" t="s">
         <v>1232</v>
@@ -26363,13 +26363,13 @@
         <v>9</v>
       </c>
       <c r="D844" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E844" t="s">
         <v>2054</v>
       </c>
       <c r="F844" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G844" t="s">
         <v>1232</v>
@@ -26386,13 +26386,13 @@
         <v>9</v>
       </c>
       <c r="D845" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E845" t="s">
         <v>2054</v>
       </c>
       <c r="F845" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G845" t="s">
         <v>1232</v>
@@ -26409,13 +26409,13 @@
         <v>9</v>
       </c>
       <c r="D846" t="s">
-        <v>2073</v>
+        <v>1989</v>
       </c>
       <c r="E846" t="s">
         <v>2054</v>
       </c>
       <c r="F846" t="s">
-        <v>1990</v>
+        <v>2073</v>
       </c>
       <c r="G846" t="s">
         <v>1232</v>
@@ -26432,13 +26432,13 @@
         <v>9</v>
       </c>
       <c r="D847" t="s">
-        <v>2073</v>
+        <v>1989</v>
       </c>
       <c r="E847" t="s">
         <v>2054</v>
       </c>
       <c r="F847" t="s">
-        <v>1990</v>
+        <v>2073</v>
       </c>
       <c r="G847" t="s">
         <v>1232</v>
@@ -26455,13 +26455,13 @@
         <v>9</v>
       </c>
       <c r="D848" t="s">
-        <v>2073</v>
+        <v>1989</v>
       </c>
       <c r="E848" t="s">
         <v>2054</v>
       </c>
       <c r="F848" t="s">
-        <v>1990</v>
+        <v>2073</v>
       </c>
       <c r="G848" t="s">
         <v>1232</v>
@@ -26478,13 +26478,13 @@
         <v>9</v>
       </c>
       <c r="D849" t="s">
-        <v>2073</v>
+        <v>2080</v>
       </c>
       <c r="E849" t="s">
         <v>2054</v>
       </c>
       <c r="F849" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="G849" t="s">
         <v>1232</v>
@@ -26501,13 +26501,13 @@
         <v>9</v>
       </c>
       <c r="D850" t="s">
-        <v>2073</v>
+        <v>1989</v>
       </c>
       <c r="E850" t="s">
         <v>2054</v>
       </c>
       <c r="F850" t="s">
-        <v>1990</v>
+        <v>2073</v>
       </c>
       <c r="G850" t="s">
         <v>1232</v>
@@ -26524,13 +26524,13 @@
         <v>9</v>
       </c>
       <c r="D851" t="s">
-        <v>2073</v>
+        <v>1989</v>
       </c>
       <c r="E851" t="s">
         <v>2054</v>
       </c>
       <c r="F851" t="s">
-        <v>1990</v>
+        <v>2073</v>
       </c>
       <c r="G851" t="s">
         <v>1232</v>
@@ -26547,13 +26547,13 @@
         <v>9</v>
       </c>
       <c r="D852" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E852" t="s">
         <v>2054</v>
       </c>
       <c r="F852" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G852" t="s">
         <v>1232</v>
@@ -26570,13 +26570,13 @@
         <v>9</v>
       </c>
       <c r="D853" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E853" t="s">
         <v>2054</v>
       </c>
       <c r="F853" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G853" t="s">
         <v>20</v>
@@ -26593,13 +26593,13 @@
         <v>9</v>
       </c>
       <c r="D854" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E854" t="s">
         <v>2054</v>
       </c>
       <c r="F854" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G854" t="s">
         <v>20</v>
@@ -26616,13 +26616,13 @@
         <v>9</v>
       </c>
       <c r="D855" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E855" t="s">
         <v>2054</v>
       </c>
       <c r="F855" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G855" t="s">
         <v>20</v>
@@ -26639,13 +26639,13 @@
         <v>9</v>
       </c>
       <c r="D856" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E856" t="s">
         <v>2054</v>
       </c>
       <c r="F856" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G856" t="s">
         <v>1232</v>
@@ -26662,13 +26662,13 @@
         <v>9</v>
       </c>
       <c r="D857" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E857" t="s">
         <v>2054</v>
       </c>
       <c r="F857" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G857" t="s">
         <v>1232</v>
@@ -26685,13 +26685,13 @@
         <v>9</v>
       </c>
       <c r="D858" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E858" t="s">
         <v>2054</v>
       </c>
       <c r="F858" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G858" t="s">
         <v>20</v>
@@ -26708,13 +26708,13 @@
         <v>9</v>
       </c>
       <c r="D859" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E859" t="s">
         <v>2054</v>
       </c>
       <c r="F859" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G859" t="s">
         <v>1232</v>
@@ -26731,13 +26731,13 @@
         <v>9</v>
       </c>
       <c r="D860" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E860" t="s">
         <v>2054</v>
       </c>
       <c r="F860" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G860" t="s">
         <v>1232</v>
@@ -26754,13 +26754,13 @@
         <v>9</v>
       </c>
       <c r="D861" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E861" t="s">
         <v>2054</v>
       </c>
       <c r="F861" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G861" t="s">
         <v>1232</v>
@@ -26777,13 +26777,13 @@
         <v>9</v>
       </c>
       <c r="D862" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E862" t="s">
         <v>2054</v>
       </c>
       <c r="F862" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G862" t="s">
         <v>1232</v>
@@ -26800,13 +26800,13 @@
         <v>9</v>
       </c>
       <c r="D863" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E863" t="s">
         <v>2054</v>
       </c>
       <c r="F863" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G863" t="s">
         <v>1232</v>
@@ -26823,13 +26823,13 @@
         <v>9</v>
       </c>
       <c r="D864" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E864" t="s">
         <v>2054</v>
       </c>
       <c r="F864" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G864" t="s">
         <v>1232</v>
@@ -26846,13 +26846,13 @@
         <v>9</v>
       </c>
       <c r="D865" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E865" t="s">
         <v>2054</v>
       </c>
       <c r="F865" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="G865" t="s">
         <v>1232</v>
@@ -26892,13 +26892,13 @@
         <v>9</v>
       </c>
       <c r="D867" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E867" t="s">
         <v>2116</v>
       </c>
       <c r="F867" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G867" t="s">
         <v>1232</v>
@@ -26915,13 +26915,13 @@
         <v>9</v>
       </c>
       <c r="D868" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E868" t="s">
         <v>2116</v>
       </c>
       <c r="F868" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G868" t="s">
         <v>1232</v>
@@ -26938,13 +26938,13 @@
         <v>9</v>
       </c>
       <c r="D869" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E869" t="s">
         <v>2116</v>
       </c>
       <c r="F869" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G869" t="s">
         <v>1232</v>
@@ -26961,13 +26961,13 @@
         <v>9</v>
       </c>
       <c r="D870" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E870" t="s">
         <v>2116</v>
       </c>
       <c r="F870" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G870" t="s">
         <v>1232</v>
@@ -26984,13 +26984,13 @@
         <v>9</v>
       </c>
       <c r="D871" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E871" t="s">
         <v>2116</v>
       </c>
       <c r="F871" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G871" t="s">
         <v>20</v>
@@ -27007,13 +27007,13 @@
         <v>9</v>
       </c>
       <c r="D872" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E872" t="s">
         <v>2116</v>
       </c>
       <c r="F872" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G872" t="s">
         <v>20</v>
@@ -27030,13 +27030,13 @@
         <v>9</v>
       </c>
       <c r="D873" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E873" t="s">
         <v>2116</v>
       </c>
       <c r="F873" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G873" t="s">
         <v>1232</v>
@@ -27053,13 +27053,13 @@
         <v>9</v>
       </c>
       <c r="D874" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E874" t="s">
         <v>2116</v>
       </c>
       <c r="F874" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G874" t="s">
         <v>1232</v>
@@ -27076,13 +27076,13 @@
         <v>9</v>
       </c>
       <c r="D875" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E875" t="s">
         <v>2116</v>
       </c>
       <c r="F875" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G875" t="s">
         <v>1232</v>
@@ -27099,13 +27099,13 @@
         <v>9</v>
       </c>
       <c r="D876" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E876" t="s">
         <v>2116</v>
       </c>
       <c r="F876" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G876" t="s">
         <v>20</v>
@@ -27122,13 +27122,13 @@
         <v>9</v>
       </c>
       <c r="D877" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E877" t="s">
         <v>2116</v>
       </c>
       <c r="F877" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G877" t="s">
         <v>1232</v>
@@ -27145,13 +27145,13 @@
         <v>9</v>
       </c>
       <c r="D878" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E878" t="s">
         <v>2116</v>
       </c>
       <c r="F878" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G878" t="s">
         <v>1232</v>
@@ -27168,13 +27168,13 @@
         <v>9</v>
       </c>
       <c r="D879" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E879" t="s">
         <v>2116</v>
       </c>
       <c r="F879" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G879" t="s">
         <v>1232</v>
@@ -27191,13 +27191,13 @@
         <v>9</v>
       </c>
       <c r="D880" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E880" t="s">
         <v>2116</v>
       </c>
       <c r="F880" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G880" t="s">
         <v>1232</v>
@@ -27214,13 +27214,13 @@
         <v>9</v>
       </c>
       <c r="D881" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E881" t="s">
         <v>2116</v>
       </c>
       <c r="F881" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G881" t="s">
         <v>1232</v>
@@ -27237,13 +27237,13 @@
         <v>9</v>
       </c>
       <c r="D882" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E882" t="s">
         <v>2116</v>
       </c>
       <c r="F882" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G882" t="s">
         <v>1232</v>
@@ -27260,13 +27260,13 @@
         <v>9</v>
       </c>
       <c r="D883" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E883" t="s">
         <v>2116</v>
       </c>
       <c r="F883" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G883" t="s">
         <v>1232</v>
@@ -27283,13 +27283,13 @@
         <v>9</v>
       </c>
       <c r="D884" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E884" t="s">
         <v>2116</v>
       </c>
       <c r="F884" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G884" t="s">
         <v>1232</v>
@@ -27306,13 +27306,13 @@
         <v>9</v>
       </c>
       <c r="D885" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E885" t="s">
         <v>2116</v>
       </c>
       <c r="F885" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G885" t="s">
         <v>1232</v>
@@ -27329,13 +27329,13 @@
         <v>9</v>
       </c>
       <c r="D886" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E886" t="s">
         <v>2116</v>
       </c>
       <c r="F886" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G886" t="s">
         <v>20</v>
@@ -27352,13 +27352,13 @@
         <v>9</v>
       </c>
       <c r="D887" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E887" t="s">
         <v>2116</v>
       </c>
       <c r="F887" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G887" t="s">
         <v>1232</v>
@@ -27375,13 +27375,13 @@
         <v>9</v>
       </c>
       <c r="D888" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="E888" t="s">
         <v>2116</v>
       </c>
       <c r="F888" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="G888" t="s">
         <v>1232</v>
@@ -27513,13 +27513,13 @@
         <v>9</v>
       </c>
       <c r="D894" t="s">
-        <v>2178</v>
+        <v>2165</v>
       </c>
       <c r="E894" t="s">
         <v>2166</v>
       </c>
       <c r="F894" t="s">
-        <v>2167</v>
+        <v>2178</v>
       </c>
       <c r="G894" t="s">
         <v>1232</v>
@@ -27720,13 +27720,13 @@
         <v>9</v>
       </c>
       <c r="D903" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E903" t="s">
         <v>2197</v>
       </c>
-      <c r="E903" t="s">
+      <c r="F903" t="s">
         <v>2198</v>
-      </c>
-      <c r="F903" t="s">
-        <v>2167</v>
       </c>
       <c r="G903" t="s">
         <v>1232</v>
@@ -27743,13 +27743,13 @@
         <v>9</v>
       </c>
       <c r="D904" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E904" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F904" t="s">
         <v>2201</v>
-      </c>
-      <c r="E904" t="s">
-        <v>2198</v>
-      </c>
-      <c r="F904" t="s">
-        <v>2167</v>
       </c>
       <c r="G904" t="s">
         <v>1232</v>
@@ -27766,13 +27766,13 @@
         <v>9</v>
       </c>
       <c r="D905" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E905" t="s">
         <v>2197</v>
       </c>
-      <c r="E905" t="s">
+      <c r="F905" t="s">
         <v>2198</v>
-      </c>
-      <c r="F905" t="s">
-        <v>2167</v>
       </c>
       <c r="G905" t="s">
         <v>1232</v>
